--- a/REGULAR/CTO/DIMARANAN, PERPETUA.xlsx
+++ b/REGULAR/CTO/DIMARANAN, PERPETUA.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr showInkAnnotation="0" codeName="ThisWorkbook"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27029"/>
+  <workbookPr showInkAnnotation="0" codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DOLE\Desktop\LEAVE-CARD\REGULAR\CTO\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\dole-pc\Users\DOLE\Desktop\LEAVE-CARD\REGULAR\CTO\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7314731A-FECF-439E-9C97-BDFF773E164C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12570" activeTab="1"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="INSTRUCTION" sheetId="4" r:id="rId1"/>
@@ -24,7 +25,7 @@
     <definedName name="BALANCE_1">Table1[[#Headers],[BALANCE]]</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="1">Sheet1!$1:$9</definedName>
   </definedNames>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -34,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="728" uniqueCount="347">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="740" uniqueCount="353">
   <si>
     <t>PERIOD</t>
   </si>
@@ -669,9 +670,6 @@
     <t>UT(0-0-46)</t>
   </si>
   <si>
-    <t>DIMARANAN, PERPETUA</t>
-  </si>
-  <si>
     <t>DOMESTIC 1/14/2009</t>
   </si>
   <si>
@@ -1075,12 +1073,33 @@
   </si>
   <si>
     <t>UT(0-2-27)</t>
+  </si>
+  <si>
+    <t>11/23,24/2023</t>
+  </si>
+  <si>
+    <t>10/31/2023,11/20/2023</t>
+  </si>
+  <si>
+    <t>DIMARANAN, PERPETUA FERMA</t>
+  </si>
+  <si>
+    <t>ADMIN AIDE IV</t>
+  </si>
+  <si>
+    <t>12/28,29/2023</t>
+  </si>
+  <si>
+    <t>SL(2.5-0-0)</t>
+  </si>
+  <si>
+    <t>12/4,14,18/2023</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="4">
     <numFmt numFmtId="164" formatCode="0.000"/>
     <numFmt numFmtId="165" formatCode="mm/dd/yy;@"/>
@@ -1955,7 +1974,7 @@
         <xdr:cNvPr id="7" name="Picture 6">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{3B5D8F3C-4FD5-4318-83F6-163B56792B3A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3B5D8F3C-4FD5-4318-83F6-163B56792B3A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1998,7 +2017,7 @@
         <xdr:cNvPr id="5" name="TextBox 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{A0BAE224-67DC-A2F7-0A1F-28CB86DFB7CA}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A0BAE224-67DC-A2F7-0A1F-28CB86DFB7CA}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2062,7 +2081,7 @@
         <xdr:cNvPr id="4" name="Arrow: Left 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{7243AC54-FD55-C7CF-DEF3-E45E6F99CAA1}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7243AC54-FD55-C7CF-DEF3-E45E6F99CAA1}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2122,7 +2141,7 @@
         <xdr:cNvPr id="8" name="Oval 7">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{6CEC4AD9-D5D6-0CFD-8D82-CC23F90E3707}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6CEC4AD9-D5D6-0CFD-8D82-CC23F90E3707}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2188,7 +2207,7 @@
         <xdr:cNvPr id="9" name="Arrow: Left-Right 8">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{EAE8B24D-B9B9-4AB0-AE94-782594B55A03}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EAE8B24D-B9B9-4AB0-AE94-782594B55A03}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2251,7 +2270,7 @@
         <xdr:cNvPr id="10" name="TextBox 9">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{D163C4F0-3D7F-3E52-4B17-0D29F1241915}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D163C4F0-3D7F-3E52-4B17-0D29F1241915}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2349,7 +2368,7 @@
         <xdr:cNvPr id="14" name="Straight Arrow Connector 13">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{642CA079-93A1-34E3-CEF5-F7D33015D895}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{642CA079-93A1-34E3-CEF5-F7D33015D895}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2408,7 +2427,7 @@
         <xdr:cNvPr id="19" name="TextBox 18">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{784FECEA-1780-3E7F-7EBB-9F8254797C91}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{784FECEA-1780-3E7F-7EBB-9F8254797C91}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2473,7 +2492,7 @@
         <xdr:cNvPr id="20" name="Picture 19">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{5DCCE859-255F-F039-E92D-1510F02C6167}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5DCCE859-255F-F039-E92D-1510F02C6167}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2516,7 +2535,7 @@
         <xdr:cNvPr id="21" name="TextBox 20">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{0A7AA7C6-9540-EB37-E3D2-9A2A68BD6824}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0A7AA7C6-9540-EB37-E3D2-9A2A68BD6824}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2591,7 +2610,7 @@
         <xdr:cNvPr id="22" name="TextBox 21">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{F1674299-9801-A253-3871-18715F4FF740}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F1674299-9801-A253-3871-18715F4FF740}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2777,7 +2796,7 @@
         <xdr:cNvPr id="23" name="Oval 22">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{66C92862-99CA-461F-932E-30DFD0874402}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{66C92862-99CA-461F-932E-30DFD0874402}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2843,7 +2862,7 @@
         <xdr:cNvPr id="24" name="Straight Arrow Connector 23">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{FD20A152-8288-4C69-BE76-AD8E41A960CE}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FD20A152-8288-4C69-BE76-AD8E41A960CE}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2901,7 +2920,7 @@
         <xdr:cNvPr id="26" name="Oval 25">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{EE7E56BE-0B3E-4110-A5A9-44C888A46B90}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EE7E56BE-0B3E-4110-A5A9-44C888A46B90}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2967,7 +2986,7 @@
         <xdr:cNvPr id="27" name="Straight Arrow Connector 26">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{C33E41C1-1592-4272-A561-4833666913C5}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C33E41C1-1592-4272-A561-4833666913C5}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3023,7 +3042,7 @@
         <xdr:cNvPr id="30" name="TextBox 29">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{6C655B57-0D66-4740-B73E-75D1E106F99A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6C655B57-0D66-4740-B73E-75D1E106F99A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3098,7 +3117,7 @@
         <xdr:cNvPr id="31" name="Picture 30">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{0284C105-1E11-4529-B509-D655B8C5279A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0284C105-1E11-4529-B509-D655B8C5279A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3141,7 +3160,7 @@
         <xdr:cNvPr id="32" name="Oval 31">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{E73E9A40-2B3C-47DC-9C07-7C65795CE0A2}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E73E9A40-2B3C-47DC-9C07-7C65795CE0A2}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3207,7 +3226,7 @@
         <xdr:cNvPr id="33" name="Straight Arrow Connector 32">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{32002197-8137-42BA-B3E7-2690738DB64B}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{32002197-8137-42BA-B3E7-2690738DB64B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3263,7 +3282,7 @@
         <xdr:cNvPr id="34" name="TextBox 33">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{A781E01A-37B6-4259-9759-556FE6893D51}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A781E01A-37B6-4259-9759-556FE6893D51}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3361,7 +3380,7 @@
         <xdr:cNvPr id="2" name="Rectangle 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{C99D8E5F-2D60-FF91-2593-A29CC276458B}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C99D8E5F-2D60-FF91-2593-A29CC276458B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3424,7 +3443,7 @@
         <xdr:cNvPr id="3" name="Rectangle 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{D7E6A331-FC2C-4EF9-8F5B-65908D453D1C}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D7E6A331-FC2C-4EF9-8F5B-65908D453D1C}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3473,7 +3492,7 @@
 </file>
 
 <file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="Sheet1"/>
@@ -3490,25 +3509,25 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A8:K783" totalsRowShown="0" headerRowDxfId="24" headerRowBorderDxfId="23" tableBorderDxfId="22" totalsRowBorderDxfId="21">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table1" displayName="Table1" ref="A8:K787" totalsRowShown="0" headerRowDxfId="24" headerRowBorderDxfId="23" tableBorderDxfId="22" totalsRowBorderDxfId="21">
   <tableColumns count="11">
-    <tableColumn id="1" name="PERIOD" dataDxfId="20"/>
-    <tableColumn id="2" name="PARTICULARS" dataDxfId="19"/>
-    <tableColumn id="3" name="EARNED" dataDxfId="18"/>
-    <tableColumn id="4" name="Absence Undertime W/ Pay" dataDxfId="17"/>
-    <tableColumn id="5" name="BALANCE" dataDxfId="16">
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="PERIOD" dataDxfId="20"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="PARTICULARS" dataDxfId="19"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="EARNED" dataDxfId="18"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="Absence Undertime W/ Pay" dataDxfId="17"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="BALANCE" dataDxfId="16">
       <calculatedColumnFormula>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])+CONVERTION!$A$3</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" name="Absence Undertime W/O Pay" dataDxfId="15"/>
-    <tableColumn id="7" name="EARNED " dataDxfId="14">
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="Absence Undertime W/O Pay" dataDxfId="15"/>
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="EARNED " dataDxfId="14">
       <calculatedColumnFormula>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="8" name="Absence Undertime  W/ Pay" dataDxfId="13"/>
-    <tableColumn id="9" name="BALANCE " dataDxfId="12">
+    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0000-000008000000}" name="Absence Undertime  W/ Pay" dataDxfId="13"/>
+    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0000-000009000000}" name="BALANCE " dataDxfId="12">
       <calculatedColumnFormula>SUM(Table1[[EARNED ]])-SUM(Table1[Absence Undertime  W/ Pay])+CONVERTION!$B$3</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="10" name="Absence Undertime  W/O Pay" dataDxfId="11"/>
-    <tableColumn id="11" name="REMARKS" dataDxfId="10"/>
+    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0000-00000A000000}" name="Absence Undertime  W/O Pay" dataDxfId="11"/>
+    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0000-00000B000000}" name="REMARKS" dataDxfId="10"/>
   </tableColumns>
   <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
   <extLst>
@@ -3520,13 +3539,13 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Table2" displayName="Table2" ref="D2:G3" totalsRowShown="0" headerRowDxfId="9" headerRowBorderDxfId="8" tableBorderDxfId="7" totalsRowBorderDxfId="6">
-  <autoFilter ref="D2:G3"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF01000000}" name="Table2" displayName="Table2" ref="D2:G3" totalsRowShown="0" headerRowDxfId="9" headerRowBorderDxfId="8" tableBorderDxfId="7" totalsRowBorderDxfId="6">
+  <autoFilter ref="D2:G3" xr:uid="{00000000-0009-0000-0100-000002000000}"/>
   <tableColumns count="4">
-    <tableColumn id="1" name="DAYS"/>
-    <tableColumn id="2" name="HOURS"/>
-    <tableColumn id="3" name="MINUTES"/>
-    <tableColumn id="4" name="EQUIVALENT HOURS" dataDxfId="5">
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0100-000001000000}" name="DAYS"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0100-000002000000}" name="HOURS"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0100-000003000000}" name="MINUTES"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0100-000004000000}" name="EQUIVALENT HOURS" dataDxfId="5">
       <calculatedColumnFormula>SUMIFS(F7:F14,E7:E14,E3)+SUMIFS(D7:D66,C7:C66,F3)+D3</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -3535,14 +3554,14 @@
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Table3" displayName="Table3" ref="J2:L3" totalsRowShown="0" headerRowBorderDxfId="4" tableBorderDxfId="3">
-  <autoFilter ref="J2:L3"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{00000000-000C-0000-FFFF-FFFF02000000}" name="Table3" displayName="Table3" ref="J2:L3" totalsRowShown="0" headerRowBorderDxfId="4" tableBorderDxfId="3">
+  <autoFilter ref="J2:L3" xr:uid="{00000000-0009-0000-0100-000003000000}"/>
   <tableColumns count="3">
-    <tableColumn id="1" name="DATE STARTED" dataDxfId="2"/>
-    <tableColumn id="2" name="LEAVE EARN" dataDxfId="1">
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0200-000001000000}" name="DATE STARTED" dataDxfId="2"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0200-000002000000}" name="LEAVE EARN" dataDxfId="1">
       <calculatedColumnFormula>J4-1</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="3" name="LEAVE EARNED" dataDxfId="0">
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0200-000003000000}" name="LEAVE EARNED" dataDxfId="0">
       <calculatedColumnFormula>IF($J$4=1,1.25,IF(ISBLANK($J$3),"---",1.25-VLOOKUP($K$3,$I$8:$K$37,2)))</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -3846,7 +3865,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Sheet1">
     <tabColor rgb="FFFF0000"/>
   </sheetPr>
@@ -3856,7 +3875,7 @@
       <selection activeCell="Z62" sqref="Z62"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -3864,39 +3883,39 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <sheetPr codeName="Sheet2">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A2:M783"/>
+  <dimension ref="A2:M787"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A5" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <pane ySplit="2940" topLeftCell="A585" activePane="bottomLeft"/>
-      <selection activeCell="M9" sqref="M9"/>
-      <selection pane="bottomLeft" activeCell="I591" sqref="I591"/>
+    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <pane ySplit="2940" topLeftCell="A591" activePane="bottomLeft"/>
+      <selection activeCell="E4" sqref="E4"/>
+      <selection pane="bottomLeft" activeCell="H598" sqref="H598"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="10.28515625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="16.5703125" style="1" customWidth="1"/>
-    <col min="3" max="3" width="12.140625" style="30" customWidth="1"/>
-    <col min="4" max="4" width="12.7109375" style="1" customWidth="1"/>
-    <col min="5" max="5" width="11.7109375" style="1" customWidth="1"/>
-    <col min="6" max="6" width="12.7109375" style="1" customWidth="1"/>
-    <col min="7" max="7" width="12.140625" style="30" customWidth="1"/>
-    <col min="8" max="8" width="12.7109375" style="1" customWidth="1"/>
-    <col min="9" max="9" width="11.7109375" style="1" customWidth="1"/>
-    <col min="10" max="10" width="12.7109375" style="1" customWidth="1"/>
-    <col min="11" max="11" width="24.85546875" style="1" customWidth="1"/>
+    <col min="1" max="1" width="10.33203125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="16.5546875" style="1" customWidth="1"/>
+    <col min="3" max="3" width="12.109375" style="30" customWidth="1"/>
+    <col min="4" max="4" width="12.6640625" style="1" customWidth="1"/>
+    <col min="5" max="5" width="11.6640625" style="1" customWidth="1"/>
+    <col min="6" max="6" width="12.6640625" style="1" customWidth="1"/>
+    <col min="7" max="7" width="12.109375" style="30" customWidth="1"/>
+    <col min="8" max="8" width="12.6640625" style="1" customWidth="1"/>
+    <col min="9" max="9" width="11.6640625" style="1" customWidth="1"/>
+    <col min="10" max="10" width="12.6640625" style="1" customWidth="1"/>
+    <col min="11" max="11" width="24.88671875" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:13" ht="20.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:13" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="29" t="s">
         <v>9</v>
       </c>
       <c r="B2" s="54" t="s">
-        <v>211</v>
+        <v>348</v>
       </c>
       <c r="C2" s="54"/>
       <c r="D2" s="21" t="s">
@@ -3912,11 +3931,13 @@
       <c r="J2" s="55"/>
       <c r="K2" s="56"/>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A3" s="18" t="s">
         <v>15</v>
       </c>
-      <c r="B3" s="54"/>
+      <c r="B3" s="54" t="s">
+        <v>349</v>
+      </c>
       <c r="C3" s="54"/>
       <c r="D3" s="22" t="s">
         <v>13</v>
@@ -3930,12 +3951,12 @@
       <c r="J3" s="57"/>
       <c r="K3" s="58"/>
     </row>
-    <row r="4" spans="1:13" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:13" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="18" t="s">
         <v>16</v>
       </c>
       <c r="B4" s="54" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="C4" s="54"/>
       <c r="D4" s="22" t="s">
@@ -3952,7 +3973,7 @@
       <c r="J4" s="59"/>
       <c r="K4" s="60"/>
     </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A5" s="16"/>
       <c r="H5" s="27" t="s">
         <v>18</v>
@@ -3960,7 +3981,7 @@
       <c r="I5" s="27"/>
       <c r="K5" s="4"/>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A6" s="17"/>
       <c r="B6" s="8"/>
       <c r="C6" s="31"/>
@@ -3973,7 +3994,7 @@
       <c r="J6" s="8"/>
       <c r="K6" s="19"/>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A7" s="14"/>
       <c r="B7" s="14"/>
       <c r="C7" s="53" t="s">
@@ -3990,7 +4011,7 @@
       <c r="J7" s="53"/>
       <c r="K7" s="14"/>
     </row>
-    <row r="8" spans="1:13" ht="45" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:13" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A8" s="7" t="s">
         <v>0</v>
       </c>
@@ -4025,7 +4046,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A9" s="23"/>
       <c r="B9" s="24" t="s">
         <v>23</v>
@@ -4034,7 +4055,7 @@
       <c r="D9" s="11"/>
       <c r="E9" s="13">
         <f>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])+CONVERTION!$A$3</f>
-        <v>156.60199999999998</v>
+        <v>156.35199999999998</v>
       </c>
       <c r="F9" s="11"/>
       <c r="G9" s="13" t="str">
@@ -4044,13 +4065,13 @@
       <c r="H9" s="11"/>
       <c r="I9" s="13">
         <f>SUM(Table1[[EARNED ]])-SUM(Table1[Absence Undertime  W/ Pay])+CONVERTION!$B$3</f>
-        <v>144.125</v>
+        <v>142.875</v>
       </c>
       <c r="J9" s="11"/>
       <c r="K9" s="20"/>
       <c r="M9" s="44"/>
     </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A10" s="48" t="s">
         <v>41</v>
       </c>
@@ -4068,7 +4089,7 @@
       <c r="J10" s="11"/>
       <c r="K10" s="20"/>
     </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A11" s="40">
         <v>35977</v>
       </c>
@@ -4094,7 +4115,7 @@
         <v>35996</v>
       </c>
     </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A12" s="40"/>
       <c r="B12" s="20" t="s">
         <v>43</v>
@@ -4116,7 +4137,7 @@
         <v>36000</v>
       </c>
     </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A13" s="40"/>
       <c r="B13" s="20" t="s">
         <v>44</v>
@@ -4136,7 +4157,7 @@
       <c r="J13" s="11"/>
       <c r="K13" s="20"/>
     </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A14" s="40">
         <v>36008</v>
       </c>
@@ -4162,7 +4183,7 @@
         <v>36031</v>
       </c>
     </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A15" s="40"/>
       <c r="B15" s="20" t="s">
         <v>45</v>
@@ -4184,7 +4205,7 @@
         <v>36034</v>
       </c>
     </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A16" s="40"/>
       <c r="B16" s="20" t="s">
         <v>46</v>
@@ -4204,7 +4225,7 @@
       <c r="J16" s="11"/>
       <c r="K16" s="20"/>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A17" s="40">
         <v>36039</v>
       </c>
@@ -4230,7 +4251,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A18" s="40"/>
       <c r="B18" s="20" t="s">
         <v>43</v>
@@ -4252,7 +4273,7 @@
         <v>36049</v>
       </c>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A19" s="40"/>
       <c r="B19" s="20" t="s">
         <v>43</v>
@@ -4274,7 +4295,7 @@
         <v>36059</v>
       </c>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A20" s="40"/>
       <c r="B20" s="20" t="s">
         <v>48</v>
@@ -4296,7 +4317,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A21" s="40"/>
       <c r="B21" s="20" t="s">
         <v>49</v>
@@ -4316,7 +4337,7 @@
       <c r="J21" s="11"/>
       <c r="K21" s="49"/>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A22" s="40">
         <v>36069</v>
       </c>
@@ -4342,7 +4363,7 @@
         <v>36082</v>
       </c>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A23" s="40"/>
       <c r="B23" s="20" t="s">
         <v>48</v>
@@ -4364,7 +4385,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A24" s="40"/>
       <c r="B24" s="20" t="s">
         <v>47</v>
@@ -4386,7 +4407,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A25" s="40"/>
       <c r="B25" s="20" t="s">
         <v>52</v>
@@ -4406,7 +4427,7 @@
       <c r="J25" s="11"/>
       <c r="K25" s="20"/>
     </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A26" s="40">
         <v>36100</v>
       </c>
@@ -4432,7 +4453,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A27" s="40"/>
       <c r="B27" s="20" t="s">
         <v>43</v>
@@ -4454,7 +4475,7 @@
         <v>36119</v>
       </c>
     </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A28" s="40"/>
       <c r="B28" s="20" t="s">
         <v>57</v>
@@ -4474,7 +4495,7 @@
       <c r="J28" s="11"/>
       <c r="K28" s="20"/>
     </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A29" s="40">
         <v>36130</v>
       </c>
@@ -4500,7 +4521,7 @@
         <v>36157</v>
       </c>
     </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A30" s="40"/>
       <c r="B30" s="20" t="s">
         <v>58</v>
@@ -4520,7 +4541,7 @@
       <c r="J30" s="11"/>
       <c r="K30" s="49"/>
     </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A31" s="48" t="s">
         <v>42</v>
       </c>
@@ -4538,7 +4559,7 @@
       <c r="J31" s="11"/>
       <c r="K31" s="49"/>
     </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A32" s="40">
         <v>36161</v>
       </c>
@@ -4564,7 +4585,7 @@
         <v>36171</v>
       </c>
     </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A33" s="40"/>
       <c r="B33" s="20" t="s">
         <v>43</v>
@@ -4586,7 +4607,7 @@
         <v>36179</v>
       </c>
     </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A34" s="40"/>
       <c r="B34" s="20" t="s">
         <v>83</v>
@@ -4606,7 +4627,7 @@
       <c r="J34" s="11"/>
       <c r="K34" s="49"/>
     </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A35" s="40">
         <v>36192</v>
       </c>
@@ -4632,7 +4653,7 @@
         <v>36210</v>
       </c>
     </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A36" s="40"/>
       <c r="B36" s="15" t="s">
         <v>47</v>
@@ -4654,7 +4675,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A37" s="40">
         <v>36220</v>
       </c>
@@ -4680,7 +4701,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A38" s="40"/>
       <c r="B38" s="15" t="s">
         <v>85</v>
@@ -4700,7 +4721,7 @@
       <c r="J38" s="12"/>
       <c r="K38" s="50"/>
     </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A39" s="40">
         <v>36251</v>
       </c>
@@ -4726,7 +4747,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A40" s="40">
         <v>36281</v>
       </c>
@@ -4752,7 +4773,7 @@
         <v>36291</v>
       </c>
     </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A41" s="40"/>
       <c r="B41" s="20" t="s">
         <v>45</v>
@@ -4774,7 +4795,7 @@
         <v>36308</v>
       </c>
     </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A42" s="40"/>
       <c r="B42" s="20" t="s">
         <v>43</v>
@@ -4796,7 +4817,7 @@
         <v>36304</v>
       </c>
     </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A43" s="40">
         <v>36312</v>
       </c>
@@ -4822,7 +4843,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A44" s="40"/>
       <c r="B44" s="20" t="s">
         <v>43</v>
@@ -4844,7 +4865,7 @@
         <v>36328</v>
       </c>
     </row>
-    <row r="45" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A45" s="40"/>
       <c r="B45" s="20" t="s">
         <v>88</v>
@@ -4864,7 +4885,7 @@
       <c r="J45" s="11"/>
       <c r="K45" s="20"/>
     </row>
-    <row r="46" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A46" s="40">
         <v>36342</v>
       </c>
@@ -4890,7 +4911,7 @@
         <v>36350</v>
       </c>
     </row>
-    <row r="47" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A47" s="40"/>
       <c r="B47" s="20" t="s">
         <v>90</v>
@@ -4912,7 +4933,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="48" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A48" s="40"/>
       <c r="B48" s="20" t="s">
         <v>88</v>
@@ -4932,7 +4953,7 @@
       <c r="J48" s="11"/>
       <c r="K48" s="20"/>
     </row>
-    <row r="49" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A49" s="40">
         <v>36373</v>
       </c>
@@ -4952,7 +4973,7 @@
       <c r="J49" s="11"/>
       <c r="K49" s="20"/>
     </row>
-    <row r="50" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A50" s="40">
         <v>36404</v>
       </c>
@@ -4976,7 +4997,7 @@
       <c r="J50" s="11"/>
       <c r="K50" s="20"/>
     </row>
-    <row r="51" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A51" s="40">
         <v>36434</v>
       </c>
@@ -5002,7 +5023,7 @@
         <v>36458</v>
       </c>
     </row>
-    <row r="52" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A52" s="40"/>
       <c r="B52" s="20" t="s">
         <v>93</v>
@@ -5022,7 +5043,7 @@
       <c r="J52" s="11"/>
       <c r="K52" s="49"/>
     </row>
-    <row r="53" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A53" s="40">
         <v>36465</v>
       </c>
@@ -5048,7 +5069,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="54" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A54" s="40">
         <v>36495</v>
       </c>
@@ -5074,7 +5095,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="55" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A55" s="48" t="s">
         <v>59</v>
       </c>
@@ -5092,7 +5113,7 @@
       <c r="J55" s="11"/>
       <c r="K55" s="20"/>
     </row>
-    <row r="56" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A56" s="40">
         <v>36526</v>
       </c>
@@ -5118,7 +5139,7 @@
         <v>36179</v>
       </c>
     </row>
-    <row r="57" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A57" s="40">
         <v>36557</v>
       </c>
@@ -5142,7 +5163,7 @@
       <c r="J57" s="11"/>
       <c r="K57" s="20"/>
     </row>
-    <row r="58" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A58" s="40">
         <v>36586</v>
       </c>
@@ -5168,7 +5189,7 @@
         <v>36222</v>
       </c>
     </row>
-    <row r="59" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A59" s="40"/>
       <c r="B59" s="20" t="s">
         <v>97</v>
@@ -5188,7 +5209,7 @@
       <c r="J59" s="11"/>
       <c r="K59" s="49"/>
     </row>
-    <row r="60" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A60" s="40">
         <v>36617</v>
       </c>
@@ -5214,7 +5235,7 @@
         <v>36268</v>
       </c>
     </row>
-    <row r="61" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A61" s="40"/>
       <c r="B61" s="20" t="s">
         <v>43</v>
@@ -5236,7 +5257,7 @@
         <v>36274</v>
       </c>
     </row>
-    <row r="62" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A62" s="40">
         <v>36647</v>
       </c>
@@ -5262,7 +5283,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="63" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A63" s="40"/>
       <c r="B63" s="20" t="s">
         <v>43</v>
@@ -5284,7 +5305,7 @@
         <v>36305</v>
       </c>
     </row>
-    <row r="64" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A64" s="40"/>
       <c r="B64" s="20" t="s">
         <v>88</v>
@@ -5304,7 +5325,7 @@
       <c r="J64" s="11"/>
       <c r="K64" s="20"/>
     </row>
-    <row r="65" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A65" s="40">
         <v>36678</v>
       </c>
@@ -5330,7 +5351,7 @@
         <v>36682</v>
       </c>
     </row>
-    <row r="66" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A66" s="40"/>
       <c r="B66" s="20" t="s">
         <v>43</v>
@@ -5352,7 +5373,7 @@
         <v>36698</v>
       </c>
     </row>
-    <row r="67" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A67" s="40">
         <v>36708</v>
       </c>
@@ -5372,7 +5393,7 @@
       <c r="J67" s="11"/>
       <c r="K67" s="20"/>
     </row>
-    <row r="68" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A68" s="40">
         <v>36739</v>
       </c>
@@ -5398,7 +5419,7 @@
         <v>36762</v>
       </c>
     </row>
-    <row r="69" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A69" s="40"/>
       <c r="B69" s="20" t="s">
         <v>45</v>
@@ -5420,7 +5441,7 @@
         <v>36768</v>
       </c>
     </row>
-    <row r="70" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A70" s="40"/>
       <c r="B70" s="20" t="s">
         <v>88</v>
@@ -5440,7 +5461,7 @@
       <c r="J70" s="11"/>
       <c r="K70" s="20"/>
     </row>
-    <row r="71" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A71" s="40">
         <v>36770</v>
       </c>
@@ -5460,7 +5481,7 @@
       <c r="J71" s="11"/>
       <c r="K71" s="20"/>
     </row>
-    <row r="72" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A72" s="40">
         <v>36800</v>
       </c>
@@ -5484,7 +5505,7 @@
       <c r="J72" s="11"/>
       <c r="K72" s="20"/>
     </row>
-    <row r="73" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A73" s="40">
         <v>36831</v>
       </c>
@@ -5510,7 +5531,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="74" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A74" s="40">
         <v>36861</v>
       </c>
@@ -5534,7 +5555,7 @@
       <c r="J74" s="11"/>
       <c r="K74" s="20"/>
     </row>
-    <row r="75" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A75" s="48" t="s">
         <v>60</v>
       </c>
@@ -5552,7 +5573,7 @@
       <c r="J75" s="11"/>
       <c r="K75" s="20"/>
     </row>
-    <row r="76" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A76" s="40">
         <v>36892</v>
       </c>
@@ -5576,7 +5597,7 @@
       <c r="J76" s="11"/>
       <c r="K76" s="20"/>
     </row>
-    <row r="77" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A77" s="40"/>
       <c r="B77" s="20" t="s">
         <v>102</v>
@@ -5596,7 +5617,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="78" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A78" s="40"/>
       <c r="B78" s="20" t="s">
         <v>102</v>
@@ -5616,7 +5637,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="79" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A79" s="40">
         <v>36923</v>
       </c>
@@ -5642,7 +5663,7 @@
         <v>36938</v>
       </c>
     </row>
-    <row r="80" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A80" s="40">
         <v>36951</v>
       </c>
@@ -5662,7 +5683,7 @@
       <c r="J80" s="11"/>
       <c r="K80" s="20"/>
     </row>
-    <row r="81" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A81" s="40">
         <v>36982</v>
       </c>
@@ -5688,7 +5709,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="82" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A82" s="40">
         <v>37012</v>
       </c>
@@ -5708,7 +5729,7 @@
       <c r="J82" s="11"/>
       <c r="K82" s="20"/>
     </row>
-    <row r="83" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A83" s="40">
         <v>37043</v>
       </c>
@@ -5734,7 +5755,7 @@
         <v>37047</v>
       </c>
     </row>
-    <row r="84" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A84" s="40">
         <v>37073</v>
       </c>
@@ -5760,7 +5781,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="85" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A85" s="40"/>
       <c r="B85" s="20" t="s">
         <v>92</v>
@@ -5780,7 +5801,7 @@
       <c r="J85" s="11"/>
       <c r="K85" s="20"/>
     </row>
-    <row r="86" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A86" s="40">
         <v>37104</v>
       </c>
@@ -5806,7 +5827,7 @@
         <v>37106</v>
       </c>
     </row>
-    <row r="87" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A87" s="40"/>
       <c r="B87" s="20" t="s">
         <v>107</v>
@@ -5826,7 +5847,7 @@
       <c r="J87" s="11"/>
       <c r="K87" s="49"/>
     </row>
-    <row r="88" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A88" s="40">
         <v>37135</v>
       </c>
@@ -5852,7 +5873,7 @@
         <v>37144</v>
       </c>
     </row>
-    <row r="89" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A89" s="40"/>
       <c r="B89" s="20" t="s">
         <v>43</v>
@@ -5874,7 +5895,7 @@
         <v>37162</v>
       </c>
     </row>
-    <row r="90" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A90" s="40"/>
       <c r="B90" s="20" t="s">
         <v>101</v>
@@ -5894,7 +5915,7 @@
       <c r="J90" s="11"/>
       <c r="K90" s="20"/>
     </row>
-    <row r="91" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A91" s="40">
         <v>37165</v>
       </c>
@@ -5920,7 +5941,7 @@
         <v>37151</v>
       </c>
     </row>
-    <row r="92" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A92" s="40"/>
       <c r="B92" s="20" t="s">
         <v>108</v>
@@ -5940,7 +5961,7 @@
       <c r="J92" s="11"/>
       <c r="K92" s="49"/>
     </row>
-    <row r="93" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A93" s="40">
         <v>37196</v>
       </c>
@@ -5966,7 +5987,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="94" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A94" s="40">
         <v>37226</v>
       </c>
@@ -5992,7 +6013,7 @@
         <v>37239</v>
       </c>
     </row>
-    <row r="95" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A95" s="40"/>
       <c r="B95" s="20" t="s">
         <v>88</v>
@@ -6012,7 +6033,7 @@
       <c r="J95" s="11"/>
       <c r="K95" s="20"/>
     </row>
-    <row r="96" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A96" s="48" t="s">
         <v>61</v>
       </c>
@@ -6030,7 +6051,7 @@
       <c r="J96" s="11"/>
       <c r="K96" s="20"/>
     </row>
-    <row r="97" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A97" s="40">
         <v>37257</v>
       </c>
@@ -6056,7 +6077,7 @@
         <v>37274</v>
       </c>
     </row>
-    <row r="98" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A98" s="40"/>
       <c r="B98" s="20" t="s">
         <v>108</v>
@@ -6076,7 +6097,7 @@
       <c r="J98" s="11"/>
       <c r="K98" s="49"/>
     </row>
-    <row r="99" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A99" s="40"/>
       <c r="B99" s="20" t="s">
         <v>110</v>
@@ -6096,7 +6117,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="100" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A100" s="40">
         <v>37288</v>
       </c>
@@ -6122,7 +6143,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="101" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A101" s="40"/>
       <c r="B101" s="20" t="s">
         <v>113</v>
@@ -6142,7 +6163,7 @@
       <c r="J101" s="11"/>
       <c r="K101" s="49"/>
     </row>
-    <row r="102" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A102" s="40">
         <v>37316</v>
       </c>
@@ -6166,7 +6187,7 @@
       <c r="J102" s="11"/>
       <c r="K102" s="49"/>
     </row>
-    <row r="103" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A103" s="40">
         <v>37347</v>
       </c>
@@ -6192,7 +6213,7 @@
         <v>37351</v>
       </c>
     </row>
-    <row r="104" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A104" s="40"/>
       <c r="B104" s="20" t="s">
         <v>43</v>
@@ -6214,7 +6235,7 @@
         <v>37365</v>
       </c>
     </row>
-    <row r="105" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A105" s="40"/>
       <c r="B105" s="20" t="s">
         <v>115</v>
@@ -6234,7 +6255,7 @@
       <c r="J105" s="11"/>
       <c r="K105" s="49"/>
     </row>
-    <row r="106" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A106" s="40">
         <v>37377</v>
       </c>
@@ -6260,7 +6281,7 @@
         <v>37385</v>
       </c>
     </row>
-    <row r="107" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A107" s="40"/>
       <c r="B107" s="20" t="s">
         <v>48</v>
@@ -6282,7 +6303,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="108" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A108" s="40"/>
       <c r="B108" s="20" t="s">
         <v>88</v>
@@ -6302,7 +6323,7 @@
       <c r="J108" s="11"/>
       <c r="K108" s="49"/>
     </row>
-    <row r="109" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A109" s="40">
         <v>37408</v>
       </c>
@@ -6326,7 +6347,7 @@
       <c r="J109" s="11"/>
       <c r="K109" s="49"/>
     </row>
-    <row r="110" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A110" s="40">
         <v>37438</v>
       </c>
@@ -6352,7 +6373,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="111" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A111" s="40">
         <v>37469</v>
       </c>
@@ -6372,7 +6393,7 @@
       <c r="J111" s="11"/>
       <c r="K111" s="20"/>
     </row>
-    <row r="112" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A112" s="40">
         <v>37500</v>
       </c>
@@ -6398,7 +6419,7 @@
         <v>37519</v>
       </c>
     </row>
-    <row r="113" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A113" s="40"/>
       <c r="B113" s="20" t="s">
         <v>88</v>
@@ -6418,7 +6439,7 @@
       <c r="J113" s="11"/>
       <c r="K113" s="20"/>
     </row>
-    <row r="114" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A114" s="40">
         <v>37530</v>
       </c>
@@ -6442,7 +6463,7 @@
       <c r="J114" s="11"/>
       <c r="K114" s="49"/>
     </row>
-    <row r="115" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A115" s="40">
         <v>37561</v>
       </c>
@@ -6468,7 +6489,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="116" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A116" s="40">
         <v>37591</v>
       </c>
@@ -6492,7 +6513,7 @@
       <c r="J116" s="11"/>
       <c r="K116" s="49"/>
     </row>
-    <row r="117" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A117" s="48" t="s">
         <v>62</v>
       </c>
@@ -6510,7 +6531,7 @@
       <c r="J117" s="11"/>
       <c r="K117" s="49"/>
     </row>
-    <row r="118" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A118" s="40">
         <v>37622</v>
       </c>
@@ -6534,7 +6555,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="119" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A119" s="40"/>
       <c r="B119" s="20" t="s">
         <v>102</v>
@@ -6554,7 +6575,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="120" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A120" s="40"/>
       <c r="B120" s="20" t="s">
         <v>108</v>
@@ -6574,7 +6595,7 @@
       <c r="J120" s="11"/>
       <c r="K120" s="49"/>
     </row>
-    <row r="121" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A121" s="40">
         <v>37653</v>
       </c>
@@ -6600,7 +6621,7 @@
         <v>37666</v>
       </c>
     </row>
-    <row r="122" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A122" s="40"/>
       <c r="B122" s="20" t="s">
         <v>121</v>
@@ -6620,7 +6641,7 @@
       <c r="J122" s="11"/>
       <c r="K122" s="49"/>
     </row>
-    <row r="123" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A123" s="40">
         <v>37681</v>
       </c>
@@ -6644,7 +6665,7 @@
       <c r="J123" s="11"/>
       <c r="K123" s="20"/>
     </row>
-    <row r="124" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A124" s="40">
         <v>37712</v>
       </c>
@@ -6664,7 +6685,7 @@
       <c r="J124" s="11"/>
       <c r="K124" s="20"/>
     </row>
-    <row r="125" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A125" s="40">
         <v>37742</v>
       </c>
@@ -6690,7 +6711,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="126" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A126" s="40"/>
       <c r="B126" s="20" t="s">
         <v>102</v>
@@ -6710,7 +6731,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="127" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A127" s="40"/>
       <c r="B127" s="20" t="s">
         <v>43</v>
@@ -6732,7 +6753,7 @@
         <v>37750</v>
       </c>
     </row>
-    <row r="128" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A128" s="40"/>
       <c r="B128" s="20" t="s">
         <v>43</v>
@@ -6754,7 +6775,7 @@
         <v>37767</v>
       </c>
     </row>
-    <row r="129" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A129" s="40">
         <v>37773</v>
       </c>
@@ -6780,7 +6801,7 @@
         <v>37777</v>
       </c>
     </row>
-    <row r="130" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A130" s="40"/>
       <c r="B130" s="20" t="s">
         <v>126</v>
@@ -6800,7 +6821,7 @@
       <c r="J130" s="11"/>
       <c r="K130" s="20"/>
     </row>
-    <row r="131" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A131" s="40">
         <v>37803</v>
       </c>
@@ -6826,7 +6847,7 @@
         <v>37823</v>
       </c>
     </row>
-    <row r="132" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A132" s="40"/>
       <c r="B132" s="20" t="s">
         <v>127</v>
@@ -6846,7 +6867,7 @@
       <c r="J132" s="11"/>
       <c r="K132" s="20"/>
     </row>
-    <row r="133" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A133" s="40">
         <v>37834</v>
       </c>
@@ -6872,7 +6893,7 @@
         <v>37834</v>
       </c>
     </row>
-    <row r="134" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A134" s="40">
         <v>37865</v>
       </c>
@@ -6898,7 +6919,7 @@
         <v>37886</v>
       </c>
     </row>
-    <row r="135" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A135" s="40"/>
       <c r="B135" s="20" t="s">
         <v>122</v>
@@ -6918,7 +6939,7 @@
       <c r="J135" s="11"/>
       <c r="K135" s="49"/>
     </row>
-    <row r="136" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A136" s="40">
         <v>37895</v>
       </c>
@@ -6944,7 +6965,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="137" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A137" s="40"/>
       <c r="B137" s="20" t="s">
         <v>43</v>
@@ -6966,7 +6987,7 @@
         <v>37904</v>
       </c>
     </row>
-    <row r="138" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A138" s="40"/>
       <c r="B138" s="20" t="s">
         <v>128</v>
@@ -6986,7 +7007,7 @@
       <c r="J138" s="11"/>
       <c r="K138" s="20"/>
     </row>
-    <row r="139" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A139" s="40">
         <v>37926</v>
       </c>
@@ -7006,7 +7027,7 @@
       <c r="J139" s="11"/>
       <c r="K139" s="20"/>
     </row>
-    <row r="140" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A140" s="40">
         <v>37956</v>
       </c>
@@ -7032,7 +7053,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="141" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A141" s="40"/>
       <c r="B141" s="20" t="s">
         <v>43</v>
@@ -7054,7 +7075,7 @@
         <v>37978</v>
       </c>
     </row>
-    <row r="142" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A142" s="40"/>
       <c r="B142" s="20" t="s">
         <v>130</v>
@@ -7074,7 +7095,7 @@
       <c r="J142" s="11"/>
       <c r="K142" s="49"/>
     </row>
-    <row r="143" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A143" s="48" t="s">
         <v>63</v>
       </c>
@@ -7092,7 +7113,7 @@
       <c r="J143" s="11"/>
       <c r="K143" s="49"/>
     </row>
-    <row r="144" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A144" s="40">
         <v>37987</v>
       </c>
@@ -7116,7 +7137,7 @@
       <c r="J144" s="11"/>
       <c r="K144" s="49"/>
     </row>
-    <row r="145" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A145" s="40"/>
       <c r="B145" s="20" t="s">
         <v>110</v>
@@ -7136,7 +7157,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="146" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A146" s="40"/>
       <c r="B146" s="20" t="s">
         <v>102</v>
@@ -7156,7 +7177,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="147" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A147" s="40">
         <v>38018</v>
       </c>
@@ -7182,7 +7203,7 @@
         <v>38027</v>
       </c>
     </row>
-    <row r="148" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A148" s="40"/>
       <c r="B148" s="20" t="s">
         <v>47</v>
@@ -7204,7 +7225,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="149" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A149" s="40"/>
       <c r="B149" s="20" t="s">
         <v>135</v>
@@ -7224,7 +7245,7 @@
       <c r="J149" s="11"/>
       <c r="K149" s="49"/>
     </row>
-    <row r="150" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A150" s="40">
         <v>38047</v>
       </c>
@@ -7250,7 +7271,7 @@
         <v>38064</v>
       </c>
     </row>
-    <row r="151" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A151" s="40"/>
       <c r="B151" s="20" t="s">
         <v>137</v>
@@ -7270,7 +7291,7 @@
       <c r="J151" s="11"/>
       <c r="K151" s="49"/>
     </row>
-    <row r="152" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A152" s="40">
         <v>38078</v>
       </c>
@@ -7296,7 +7317,7 @@
         <v>38078</v>
       </c>
     </row>
-    <row r="153" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A153" s="40"/>
       <c r="B153" s="20" t="s">
         <v>43</v>
@@ -7318,7 +7339,7 @@
         <v>38083</v>
       </c>
     </row>
-    <row r="154" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A154" s="40"/>
       <c r="B154" s="20" t="s">
         <v>90</v>
@@ -7340,7 +7361,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="155" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A155" s="40"/>
       <c r="B155" s="20" t="s">
         <v>108</v>
@@ -7360,7 +7381,7 @@
       <c r="J155" s="11"/>
       <c r="K155" s="20"/>
     </row>
-    <row r="156" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A156" s="40">
         <v>38108</v>
       </c>
@@ -7386,7 +7407,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="157" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A157" s="40"/>
       <c r="B157" s="20" t="s">
         <v>55</v>
@@ -7408,7 +7429,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="158" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A158" s="40"/>
       <c r="B158" s="20" t="s">
         <v>141</v>
@@ -7428,7 +7449,7 @@
       <c r="J158" s="11"/>
       <c r="K158" s="49"/>
     </row>
-    <row r="159" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A159" s="40">
         <v>38139</v>
       </c>
@@ -7452,7 +7473,7 @@
       <c r="J159" s="11"/>
       <c r="K159" s="20"/>
     </row>
-    <row r="160" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A160" s="40">
         <v>38169</v>
       </c>
@@ -7478,7 +7499,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="161" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A161" s="40"/>
       <c r="B161" s="20" t="s">
         <v>144</v>
@@ -7498,7 +7519,7 @@
       <c r="J161" s="11"/>
       <c r="K161" s="49"/>
     </row>
-    <row r="162" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A162" s="40">
         <v>38200</v>
       </c>
@@ -7524,7 +7545,7 @@
         <v>38203</v>
       </c>
     </row>
-    <row r="163" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A163" s="40"/>
       <c r="B163" s="20" t="s">
         <v>145</v>
@@ -7546,7 +7567,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="164" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A164" s="40"/>
       <c r="B164" s="20" t="s">
         <v>147</v>
@@ -7566,7 +7587,7 @@
       <c r="J164" s="11"/>
       <c r="K164" s="20"/>
     </row>
-    <row r="165" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A165" s="40">
         <v>38231</v>
       </c>
@@ -7592,7 +7613,7 @@
         <v>38252</v>
       </c>
     </row>
-    <row r="166" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A166" s="40"/>
       <c r="B166" s="20" t="s">
         <v>148</v>
@@ -7612,7 +7633,7 @@
       <c r="J166" s="11"/>
       <c r="K166" s="20"/>
     </row>
-    <row r="167" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A167" s="40">
         <v>38261</v>
       </c>
@@ -7636,7 +7657,7 @@
       <c r="J167" s="11"/>
       <c r="K167" s="49"/>
     </row>
-    <row r="168" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A168" s="40">
         <v>38292</v>
       </c>
@@ -7662,7 +7683,7 @@
         <v>38293</v>
       </c>
     </row>
-    <row r="169" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A169" s="40"/>
       <c r="B169" s="20" t="s">
         <v>43</v>
@@ -7684,7 +7705,7 @@
         <v>38317</v>
       </c>
     </row>
-    <row r="170" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A170" s="40"/>
       <c r="B170" s="20" t="s">
         <v>150</v>
@@ -7704,7 +7725,7 @@
       <c r="J170" s="11"/>
       <c r="K170" s="49"/>
     </row>
-    <row r="171" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A171" s="40">
         <v>38322</v>
       </c>
@@ -7730,7 +7751,7 @@
         <v>38335</v>
       </c>
     </row>
-    <row r="172" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A172" s="40"/>
       <c r="B172" s="20" t="s">
         <v>151</v>
@@ -7752,7 +7773,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="173" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A173" s="40"/>
       <c r="B173" s="20" t="s">
         <v>152</v>
@@ -7772,7 +7793,7 @@
       <c r="J173" s="11"/>
       <c r="K173" s="49"/>
     </row>
-    <row r="174" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A174" s="48" t="s">
         <v>64</v>
       </c>
@@ -7790,7 +7811,7 @@
       <c r="J174" s="11"/>
       <c r="K174" s="49"/>
     </row>
-    <row r="175" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A175" s="40">
         <v>38353</v>
       </c>
@@ -7814,7 +7835,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="176" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A176" s="40"/>
       <c r="B176" s="20" t="s">
         <v>102</v>
@@ -7834,7 +7855,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="177" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A177" s="40"/>
       <c r="B177" s="20" t="s">
         <v>128</v>
@@ -7854,7 +7875,7 @@
       <c r="J177" s="11"/>
       <c r="K177" s="20"/>
     </row>
-    <row r="178" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A178" s="40"/>
       <c r="B178" s="20" t="s">
         <v>102</v>
@@ -7874,7 +7895,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="179" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A179" s="40">
         <v>38384</v>
       </c>
@@ -7898,7 +7919,7 @@
       <c r="J179" s="11"/>
       <c r="K179" s="20"/>
     </row>
-    <row r="180" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A180" s="40">
         <v>38412</v>
       </c>
@@ -7924,7 +7945,7 @@
         <v>38414</v>
       </c>
     </row>
-    <row r="181" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A181" s="40"/>
       <c r="B181" s="20" t="s">
         <v>43</v>
@@ -7946,7 +7967,7 @@
         <v>38420</v>
       </c>
     </row>
-    <row r="182" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A182" s="40"/>
       <c r="B182" s="20" t="s">
         <v>43</v>
@@ -7968,7 +7989,7 @@
         <v>38429</v>
       </c>
     </row>
-    <row r="183" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A183" s="40"/>
       <c r="B183" s="20" t="s">
         <v>151</v>
@@ -7990,7 +8011,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="184" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A184" s="40"/>
       <c r="B184" s="20" t="s">
         <v>43</v>
@@ -8012,7 +8033,7 @@
         <v>38441</v>
       </c>
     </row>
-    <row r="185" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A185" s="40"/>
       <c r="B185" s="20" t="s">
         <v>132</v>
@@ -8032,7 +8053,7 @@
       <c r="J185" s="11"/>
       <c r="K185" s="49"/>
     </row>
-    <row r="186" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A186" s="40">
         <v>38443</v>
       </c>
@@ -8058,7 +8079,7 @@
         <v>38460</v>
       </c>
     </row>
-    <row r="187" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A187" s="40"/>
       <c r="B187" s="20" t="s">
         <v>47</v>
@@ -8080,7 +8101,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="188" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A188" s="40"/>
       <c r="B188" s="20" t="s">
         <v>160</v>
@@ -8100,7 +8121,7 @@
       <c r="J188" s="11"/>
       <c r="K188" s="49"/>
     </row>
-    <row r="189" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A189" s="40">
         <v>38473</v>
       </c>
@@ -8126,7 +8147,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="190" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A190" s="40"/>
       <c r="B190" s="20" t="s">
         <v>43</v>
@@ -8148,7 +8169,7 @@
         <v>38491</v>
       </c>
     </row>
-    <row r="191" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A191" s="40"/>
       <c r="B191" s="20" t="s">
         <v>43</v>
@@ -8170,7 +8191,7 @@
         <v>38496</v>
       </c>
     </row>
-    <row r="192" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A192" s="40"/>
       <c r="B192" s="20" t="s">
         <v>157</v>
@@ -8190,7 +8211,7 @@
       <c r="J192" s="11"/>
       <c r="K192" s="49"/>
     </row>
-    <row r="193" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A193" s="40">
         <v>38504</v>
       </c>
@@ -8216,7 +8237,7 @@
         <v>38506</v>
       </c>
     </row>
-    <row r="194" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A194" s="40">
         <v>38534</v>
       </c>
@@ -8240,7 +8261,7 @@
       <c r="J194" s="11"/>
       <c r="K194" s="49"/>
     </row>
-    <row r="195" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A195" s="40">
         <v>38565</v>
       </c>
@@ -8264,7 +8285,7 @@
       <c r="J195" s="11"/>
       <c r="K195" s="20"/>
     </row>
-    <row r="196" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A196" s="40">
         <v>38596</v>
       </c>
@@ -8288,7 +8309,7 @@
       <c r="J196" s="11"/>
       <c r="K196" s="20"/>
     </row>
-    <row r="197" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A197" s="40">
         <v>38626</v>
       </c>
@@ -8314,7 +8335,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="198" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A198" s="40"/>
       <c r="B198" s="20" t="s">
         <v>166</v>
@@ -8334,7 +8355,7 @@
       <c r="J198" s="11"/>
       <c r="K198" s="20"/>
     </row>
-    <row r="199" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A199" s="40">
         <v>38657</v>
       </c>
@@ -8358,7 +8379,7 @@
       <c r="J199" s="11"/>
       <c r="K199" s="20"/>
     </row>
-    <row r="200" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A200" s="40">
         <v>38687</v>
       </c>
@@ -8384,7 +8405,7 @@
         <v>38681</v>
       </c>
     </row>
-    <row r="201" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A201" s="40"/>
       <c r="B201" s="20" t="s">
         <v>159</v>
@@ -8406,7 +8427,7 @@
         <v>38715</v>
       </c>
     </row>
-    <row r="202" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A202" s="40"/>
       <c r="B202" s="20" t="s">
         <v>43</v>
@@ -8428,7 +8449,7 @@
         <v>38709</v>
       </c>
     </row>
-    <row r="203" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A203" s="40"/>
       <c r="B203" s="20" t="s">
         <v>43</v>
@@ -8450,7 +8471,7 @@
         <v>38714</v>
       </c>
     </row>
-    <row r="204" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A204" s="40"/>
       <c r="B204" s="20" t="s">
         <v>168</v>
@@ -8470,7 +8491,7 @@
       <c r="J204" s="11"/>
       <c r="K204" s="49"/>
     </row>
-    <row r="205" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A205" s="48" t="s">
         <v>65</v>
       </c>
@@ -8488,7 +8509,7 @@
       <c r="J205" s="11"/>
       <c r="K205" s="49"/>
     </row>
-    <row r="206" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A206" s="40">
         <v>38718</v>
       </c>
@@ -8512,7 +8533,7 @@
       <c r="J206" s="11"/>
       <c r="K206" s="20"/>
     </row>
-    <row r="207" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A207" s="40">
         <v>38749</v>
       </c>
@@ -8536,7 +8557,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="208" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A208" s="40"/>
       <c r="B208" s="20" t="s">
         <v>43</v>
@@ -8558,7 +8579,7 @@
         <v>38776</v>
       </c>
     </row>
-    <row r="209" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A209" s="40"/>
       <c r="B209" s="20" t="s">
         <v>108</v>
@@ -8578,7 +8599,7 @@
       <c r="J209" s="11"/>
       <c r="K209" s="20"/>
     </row>
-    <row r="210" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A210" s="40">
         <v>38777</v>
       </c>
@@ -8604,7 +8625,7 @@
         <v>38783</v>
       </c>
     </row>
-    <row r="211" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A211" s="40"/>
       <c r="B211" s="20" t="s">
         <v>172</v>
@@ -8624,7 +8645,7 @@
       <c r="J211" s="11"/>
       <c r="K211" s="49"/>
     </row>
-    <row r="212" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A212" s="40">
         <v>38808</v>
       </c>
@@ -8650,7 +8671,7 @@
         <v>38825</v>
       </c>
     </row>
-    <row r="213" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A213" s="40"/>
       <c r="B213" s="20" t="s">
         <v>173</v>
@@ -8670,7 +8691,7 @@
       <c r="J213" s="11"/>
       <c r="K213" s="20"/>
     </row>
-    <row r="214" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A214" s="40">
         <v>38838</v>
       </c>
@@ -8696,7 +8717,7 @@
         <v>38860</v>
       </c>
     </row>
-    <row r="215" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A215" s="40"/>
       <c r="B215" s="20" t="s">
         <v>174</v>
@@ -8716,7 +8737,7 @@
       <c r="J215" s="11"/>
       <c r="K215" s="49"/>
     </row>
-    <row r="216" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A216" s="40">
         <v>38869</v>
       </c>
@@ -8740,7 +8761,7 @@
       <c r="J216" s="11"/>
       <c r="K216" s="49"/>
     </row>
-    <row r="217" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A217" s="40">
         <v>38899</v>
       </c>
@@ -8766,7 +8787,7 @@
         <v>38915</v>
       </c>
     </row>
-    <row r="218" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A218" s="40"/>
       <c r="B218" s="20" t="s">
         <v>176</v>
@@ -8786,7 +8807,7 @@
       <c r="J218" s="11"/>
       <c r="K218" s="49"/>
     </row>
-    <row r="219" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A219" s="40">
         <v>38930</v>
       </c>
@@ -8810,7 +8831,7 @@
       <c r="J219" s="11"/>
       <c r="K219" s="20"/>
     </row>
-    <row r="220" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A220" s="40">
         <v>38961</v>
       </c>
@@ -8836,7 +8857,7 @@
         <v>38971</v>
       </c>
     </row>
-    <row r="221" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A221" s="40"/>
       <c r="B221" s="20" t="s">
         <v>43</v>
@@ -8858,7 +8879,7 @@
         <v>38978</v>
       </c>
     </row>
-    <row r="222" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A222" s="40"/>
       <c r="B222" s="20" t="s">
         <v>166</v>
@@ -8878,7 +8899,7 @@
       <c r="J222" s="11"/>
       <c r="K222" s="20"/>
     </row>
-    <row r="223" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A223" s="40">
         <v>38991</v>
       </c>
@@ -8904,7 +8925,7 @@
         <v>39007</v>
       </c>
     </row>
-    <row r="224" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A224" s="40"/>
       <c r="B224" s="20" t="s">
         <v>43</v>
@@ -8926,7 +8947,7 @@
         <v>39003</v>
       </c>
     </row>
-    <row r="225" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="225" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A225" s="40"/>
       <c r="B225" s="20" t="s">
         <v>178</v>
@@ -8946,7 +8967,7 @@
       <c r="J225" s="11"/>
       <c r="K225" s="20"/>
     </row>
-    <row r="226" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="226" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A226" s="40">
         <v>39022</v>
       </c>
@@ -8972,7 +8993,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="227" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="227" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A227" s="40"/>
       <c r="B227" s="20" t="s">
         <v>43</v>
@@ -8994,7 +9015,7 @@
         <v>39031</v>
       </c>
     </row>
-    <row r="228" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="228" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A228" s="40"/>
       <c r="B228" s="20" t="s">
         <v>159</v>
@@ -9016,7 +9037,7 @@
         <v>39079</v>
       </c>
     </row>
-    <row r="229" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="229" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A229" s="40"/>
       <c r="B229" s="20" t="s">
         <v>181</v>
@@ -9036,7 +9057,7 @@
       <c r="J229" s="11"/>
       <c r="K229" s="49"/>
     </row>
-    <row r="230" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="230" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A230" s="40">
         <v>39052</v>
       </c>
@@ -9062,7 +9083,7 @@
         <v>39062</v>
       </c>
     </row>
-    <row r="231" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="231" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A231" s="40"/>
       <c r="B231" s="20" t="s">
         <v>43</v>
@@ -9084,7 +9105,7 @@
         <v>39069</v>
       </c>
     </row>
-    <row r="232" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="232" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A232" s="40"/>
       <c r="B232" s="20" t="s">
         <v>182</v>
@@ -9104,7 +9125,7 @@
       <c r="J232" s="11"/>
       <c r="K232" s="49"/>
     </row>
-    <row r="233" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="233" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A233" s="48" t="s">
         <v>66</v>
       </c>
@@ -9122,7 +9143,7 @@
       <c r="J233" s="11"/>
       <c r="K233" s="49"/>
     </row>
-    <row r="234" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="234" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A234" s="40">
         <v>39083</v>
       </c>
@@ -9148,7 +9169,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="235" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="235" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A235" s="40"/>
       <c r="B235" s="20" t="s">
         <v>170</v>
@@ -9168,7 +9189,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="236" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="236" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A236" s="40"/>
       <c r="B236" s="20" t="s">
         <v>90</v>
@@ -9190,7 +9211,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="237" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="237" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A237" s="40"/>
       <c r="B237" s="20" t="s">
         <v>183</v>
@@ -9210,7 +9231,7 @@
       <c r="J237" s="11"/>
       <c r="K237" s="20"/>
     </row>
-    <row r="238" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="238" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A238" s="40">
         <v>39114</v>
       </c>
@@ -9236,7 +9257,7 @@
         <v>39129</v>
       </c>
     </row>
-    <row r="239" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="239" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A239" s="40"/>
       <c r="B239" s="20" t="s">
         <v>188</v>
@@ -9256,7 +9277,7 @@
       <c r="J239" s="11"/>
       <c r="K239" s="49"/>
     </row>
-    <row r="240" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="240" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A240" s="40">
         <v>39142</v>
       </c>
@@ -9282,7 +9303,7 @@
         <v>39154</v>
       </c>
     </row>
-    <row r="241" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="241" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A241" s="40"/>
       <c r="B241" s="20" t="s">
         <v>189</v>
@@ -9302,7 +9323,7 @@
       <c r="J241" s="11"/>
       <c r="K241" s="49"/>
     </row>
-    <row r="242" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="242" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A242" s="40">
         <v>39173</v>
       </c>
@@ -9328,7 +9349,7 @@
         <v>39183</v>
       </c>
     </row>
-    <row r="243" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="243" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A243" s="40"/>
       <c r="B243" s="20" t="s">
         <v>159</v>
@@ -9350,7 +9371,7 @@
         <v>39190</v>
       </c>
     </row>
-    <row r="244" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="244" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A244" s="40"/>
       <c r="B244" s="20" t="s">
         <v>159</v>
@@ -9372,7 +9393,7 @@
         <v>39199</v>
       </c>
     </row>
-    <row r="245" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="245" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A245" s="40"/>
       <c r="B245" s="20" t="s">
         <v>43</v>
@@ -9394,7 +9415,7 @@
         <v>39198</v>
       </c>
     </row>
-    <row r="246" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="246" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A246" s="40"/>
       <c r="B246" s="20" t="s">
         <v>190</v>
@@ -9414,7 +9435,7 @@
       <c r="J246" s="11"/>
       <c r="K246" s="20"/>
     </row>
-    <row r="247" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="247" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A247" s="40">
         <v>39203</v>
       </c>
@@ -9440,7 +9461,7 @@
         <v>39217</v>
       </c>
     </row>
-    <row r="248" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="248" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A248" s="40"/>
       <c r="B248" s="20" t="s">
         <v>47</v>
@@ -9462,7 +9483,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="249" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="249" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A249" s="40"/>
       <c r="B249" s="20" t="s">
         <v>159</v>
@@ -9484,7 +9505,7 @@
         <v>39238</v>
       </c>
     </row>
-    <row r="250" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="250" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A250" s="40"/>
       <c r="B250" s="20" t="s">
         <v>191</v>
@@ -9504,7 +9525,7 @@
       <c r="J250" s="11"/>
       <c r="K250" s="20"/>
     </row>
-    <row r="251" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="251" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A251" s="40">
         <v>39234</v>
       </c>
@@ -9528,7 +9549,7 @@
       <c r="J251" s="11"/>
       <c r="K251" s="20"/>
     </row>
-    <row r="252" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="252" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A252" s="40">
         <v>39264</v>
       </c>
@@ -9554,7 +9575,7 @@
         <v>39276</v>
       </c>
     </row>
-    <row r="253" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="253" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A253" s="40"/>
       <c r="B253" s="20" t="s">
         <v>43</v>
@@ -9576,7 +9597,7 @@
         <v>39282</v>
       </c>
     </row>
-    <row r="254" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="254" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A254" s="40"/>
       <c r="B254" s="20" t="s">
         <v>99</v>
@@ -9596,7 +9617,7 @@
       <c r="J254" s="11"/>
       <c r="K254" s="20"/>
     </row>
-    <row r="255" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="255" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A255" s="40">
         <v>39295</v>
       </c>
@@ -9622,7 +9643,7 @@
         <v>39297</v>
       </c>
     </row>
-    <row r="256" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="256" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A256" s="40"/>
       <c r="B256" s="20" t="s">
         <v>43</v>
@@ -9644,7 +9665,7 @@
         <v>39303</v>
       </c>
     </row>
-    <row r="257" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="257" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A257" s="40"/>
       <c r="B257" s="20" t="s">
         <v>194</v>
@@ -9664,7 +9685,7 @@
       <c r="J257" s="11"/>
       <c r="K257" s="20"/>
     </row>
-    <row r="258" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="258" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A258" s="40">
         <v>39326</v>
       </c>
@@ -9690,7 +9711,7 @@
         <v>39349</v>
       </c>
     </row>
-    <row r="259" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="259" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A259" s="40"/>
       <c r="B259" s="20" t="s">
         <v>195</v>
@@ -9710,7 +9731,7 @@
       <c r="J259" s="11"/>
       <c r="K259" s="49"/>
     </row>
-    <row r="260" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="260" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A260" s="40">
         <v>39356</v>
       </c>
@@ -9736,7 +9757,7 @@
         <v>39373</v>
       </c>
     </row>
-    <row r="261" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="261" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A261" s="40"/>
       <c r="B261" s="20" t="s">
         <v>196</v>
@@ -9756,7 +9777,7 @@
       <c r="J261" s="11"/>
       <c r="K261" s="20"/>
     </row>
-    <row r="262" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="262" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A262" s="40">
         <v>39387</v>
       </c>
@@ -9782,7 +9803,7 @@
         <v>39409</v>
       </c>
     </row>
-    <row r="263" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="263" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A263" s="40"/>
       <c r="B263" s="20" t="s">
         <v>197</v>
@@ -9802,7 +9823,7 @@
       <c r="J263" s="11"/>
       <c r="K263" s="20"/>
     </row>
-    <row r="264" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="264" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A264" s="40">
         <v>39417</v>
       </c>
@@ -9826,7 +9847,7 @@
       <c r="J264" s="11"/>
       <c r="K264" s="20"/>
     </row>
-    <row r="265" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="265" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A265" s="48" t="s">
         <v>67</v>
       </c>
@@ -9844,7 +9865,7 @@
       <c r="J265" s="11"/>
       <c r="K265" s="20"/>
     </row>
-    <row r="266" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="266" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A266" s="40">
         <v>39448</v>
       </c>
@@ -9868,7 +9889,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="267" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="267" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A267" s="40"/>
       <c r="B267" s="20" t="s">
         <v>102</v>
@@ -9888,7 +9909,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="268" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="268" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A268" s="40"/>
       <c r="B268" s="20" t="s">
         <v>198</v>
@@ -9908,7 +9929,7 @@
       <c r="J268" s="11"/>
       <c r="K268" s="20"/>
     </row>
-    <row r="269" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="269" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A269" s="40">
         <v>39479</v>
       </c>
@@ -9934,7 +9955,7 @@
         <v>39493</v>
       </c>
     </row>
-    <row r="270" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="270" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A270" s="40"/>
       <c r="B270" s="20" t="s">
         <v>102</v>
@@ -9954,7 +9975,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="271" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="271" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A271" s="40">
         <v>39508</v>
       </c>
@@ -9980,7 +10001,7 @@
         <v>39534</v>
       </c>
     </row>
-    <row r="272" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="272" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A272" s="40"/>
       <c r="B272" s="20" t="s">
         <v>202</v>
@@ -10000,7 +10021,7 @@
       <c r="J272" s="11"/>
       <c r="K272" s="20"/>
     </row>
-    <row r="273" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="273" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A273" s="40">
         <v>39539</v>
       </c>
@@ -10026,7 +10047,7 @@
         <v>39556</v>
       </c>
     </row>
-    <row r="274" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="274" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A274" s="40"/>
       <c r="B274" s="20" t="s">
         <v>43</v>
@@ -10048,7 +10069,7 @@
         <v>39553</v>
       </c>
     </row>
-    <row r="275" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="275" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A275" s="40"/>
       <c r="B275" s="20" t="s">
         <v>48</v>
@@ -10070,7 +10091,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="276" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="276" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A276" s="40">
         <v>39569</v>
       </c>
@@ -10094,7 +10115,7 @@
       <c r="J276" s="11"/>
       <c r="K276" s="20"/>
     </row>
-    <row r="277" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="277" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A277" s="40">
         <v>39600</v>
       </c>
@@ -10118,7 +10139,7 @@
       <c r="J277" s="11"/>
       <c r="K277" s="20"/>
     </row>
-    <row r="278" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="278" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A278" s="40">
         <v>39630</v>
       </c>
@@ -10144,7 +10165,7 @@
         <v>39657</v>
       </c>
     </row>
-    <row r="279" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="279" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A279" s="40"/>
       <c r="B279" s="20" t="s">
         <v>206</v>
@@ -10164,7 +10185,7 @@
       <c r="J279" s="11"/>
       <c r="K279" s="49"/>
     </row>
-    <row r="280" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="280" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A280" s="40">
         <v>39661</v>
       </c>
@@ -10190,7 +10211,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="281" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="281" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A281" s="40"/>
       <c r="B281" s="20" t="s">
         <v>88</v>
@@ -10210,7 +10231,7 @@
       <c r="J281" s="11"/>
       <c r="K281" s="20"/>
     </row>
-    <row r="282" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="282" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A282" s="40">
         <v>39692</v>
       </c>
@@ -10234,7 +10255,7 @@
       <c r="J282" s="11"/>
       <c r="K282" s="49"/>
     </row>
-    <row r="283" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="283" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A283" s="40">
         <v>39722</v>
       </c>
@@ -10260,7 +10281,7 @@
         <v>39752</v>
       </c>
     </row>
-    <row r="284" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="284" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A284" s="40"/>
       <c r="B284" s="20" t="s">
         <v>179</v>
@@ -10282,7 +10303,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="285" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="285" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A285" s="40">
         <v>39753</v>
       </c>
@@ -10308,7 +10329,7 @@
         <v>39785</v>
       </c>
     </row>
-    <row r="286" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="286" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A286" s="40"/>
       <c r="B286" s="20" t="s">
         <v>210</v>
@@ -10328,7 +10349,7 @@
       <c r="J286" s="11"/>
       <c r="K286" s="20"/>
     </row>
-    <row r="287" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="287" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A287" s="40">
         <v>39783</v>
       </c>
@@ -10354,7 +10375,7 @@
         <v>39804</v>
       </c>
     </row>
-    <row r="288" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="288" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A288" s="48" t="s">
         <v>68</v>
       </c>
@@ -10372,7 +10393,7 @@
       <c r="J288" s="11"/>
       <c r="K288" s="20"/>
     </row>
-    <row r="289" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="289" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A289" s="40">
         <v>39814</v>
       </c>
@@ -10393,10 +10414,10 @@
       <c r="I289" s="9"/>
       <c r="J289" s="11"/>
       <c r="K289" s="49" t="s">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="290" spans="1:11" x14ac:dyDescent="0.25">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="290" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A290" s="40"/>
       <c r="B290" s="20" t="s">
         <v>102</v>
@@ -10413,10 +10434,10 @@
       <c r="I290" s="9"/>
       <c r="J290" s="11"/>
       <c r="K290" s="49" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="291" spans="1:11" x14ac:dyDescent="0.25">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="291" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A291" s="40">
         <v>39845</v>
       </c>
@@ -10440,7 +10461,7 @@
       <c r="J291" s="11"/>
       <c r="K291" s="49"/>
     </row>
-    <row r="292" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="292" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A292" s="40">
         <v>39873</v>
       </c>
@@ -10461,10 +10482,10 @@
       <c r="I292" s="9"/>
       <c r="J292" s="11"/>
       <c r="K292" s="20" t="s">
-        <v>214</v>
-      </c>
-    </row>
-    <row r="293" spans="1:11" x14ac:dyDescent="0.25">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="293" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A293" s="40"/>
       <c r="B293" s="20" t="s">
         <v>108</v>
@@ -10484,7 +10505,7 @@
       <c r="J293" s="11"/>
       <c r="K293" s="20"/>
     </row>
-    <row r="294" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="294" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A294" s="40">
         <v>39904</v>
       </c>
@@ -10510,7 +10531,7 @@
         <v>39917</v>
       </c>
     </row>
-    <row r="295" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="295" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A295" s="40"/>
       <c r="B295" s="20" t="s">
         <v>159</v>
@@ -10532,10 +10553,10 @@
         <v>39967</v>
       </c>
     </row>
-    <row r="296" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="296" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A296" s="40"/>
       <c r="B296" s="20" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="C296" s="13"/>
       <c r="D296" s="39">
@@ -10552,7 +10573,7 @@
       <c r="J296" s="11"/>
       <c r="K296" s="49"/>
     </row>
-    <row r="297" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="297" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A297" s="40">
         <v>39934</v>
       </c>
@@ -10576,12 +10597,12 @@
       <c r="J297" s="11"/>
       <c r="K297" s="49"/>
     </row>
-    <row r="298" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="298" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A298" s="40">
         <v>39965</v>
       </c>
       <c r="B298" s="20" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="C298" s="13">
         <v>1.25</v>
@@ -10600,7 +10621,7 @@
       <c r="J298" s="11"/>
       <c r="K298" s="49"/>
     </row>
-    <row r="299" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="299" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A299" s="40">
         <v>39995</v>
       </c>
@@ -10626,7 +10647,7 @@
         <v>40004</v>
       </c>
     </row>
-    <row r="300" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="300" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A300" s="40"/>
       <c r="B300" s="20" t="s">
         <v>159</v>
@@ -10648,7 +10669,7 @@
         <v>40031</v>
       </c>
     </row>
-    <row r="301" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="301" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A301" s="40"/>
       <c r="B301" s="20" t="s">
         <v>107</v>
@@ -10668,12 +10689,12 @@
       <c r="J301" s="11"/>
       <c r="K301" s="49"/>
     </row>
-    <row r="302" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="302" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A302" s="40">
         <v>40026</v>
       </c>
       <c r="B302" s="20" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="C302" s="13">
         <v>1.25</v>
@@ -10692,7 +10713,7 @@
       <c r="J302" s="11"/>
       <c r="K302" s="49"/>
     </row>
-    <row r="303" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="303" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A303" s="40">
         <v>40057</v>
       </c>
@@ -10718,7 +10739,7 @@
         <v>40070</v>
       </c>
     </row>
-    <row r="304" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="304" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A304" s="40"/>
       <c r="B304" s="20" t="s">
         <v>47</v>
@@ -10737,10 +10758,10 @@
       <c r="I304" s="9"/>
       <c r="J304" s="11"/>
       <c r="K304" s="20" t="s">
-        <v>218</v>
-      </c>
-    </row>
-    <row r="305" spans="1:11" x14ac:dyDescent="0.25">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="305" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A305" s="40"/>
       <c r="B305" s="20" t="s">
         <v>101</v>
@@ -10760,12 +10781,12 @@
       <c r="J305" s="11"/>
       <c r="K305" s="20"/>
     </row>
-    <row r="306" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="306" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A306" s="40">
         <v>40087</v>
       </c>
       <c r="B306" s="20" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="C306" s="13">
         <v>1.25</v>
@@ -10783,13 +10804,13 @@
       <c r="I306" s="9"/>
       <c r="J306" s="11"/>
       <c r="K306" s="20" t="s">
-        <v>221</v>
-      </c>
-    </row>
-    <row r="307" spans="1:11" x14ac:dyDescent="0.25">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="307" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A307" s="40"/>
       <c r="B307" s="20" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="C307" s="13"/>
       <c r="D307" s="39">
@@ -10806,7 +10827,7 @@
       <c r="J307" s="11"/>
       <c r="K307" s="20"/>
     </row>
-    <row r="308" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="308" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A308" s="40">
         <v>40118</v>
       </c>
@@ -10829,10 +10850,10 @@
       <c r="I308" s="9"/>
       <c r="J308" s="11"/>
       <c r="K308" s="20" t="s">
-        <v>222</v>
-      </c>
-    </row>
-    <row r="309" spans="1:11" x14ac:dyDescent="0.25">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="309" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A309" s="40"/>
       <c r="B309" s="20" t="s">
         <v>43</v>
@@ -10854,7 +10875,7 @@
         <v>40141</v>
       </c>
     </row>
-    <row r="310" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="310" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A310" s="40"/>
       <c r="B310" s="20" t="s">
         <v>88</v>
@@ -10874,7 +10895,7 @@
       <c r="J310" s="11"/>
       <c r="K310" s="20"/>
     </row>
-    <row r="311" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="311" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A311" s="40">
         <v>40148</v>
       </c>
@@ -10900,10 +10921,10 @@
         <v>40170</v>
       </c>
     </row>
-    <row r="312" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="312" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A312" s="40"/>
       <c r="B312" s="20" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="C312" s="13"/>
       <c r="D312" s="39">
@@ -10920,7 +10941,7 @@
       <c r="J312" s="11"/>
       <c r="K312" s="20"/>
     </row>
-    <row r="313" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="313" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A313" s="48" t="s">
         <v>69</v>
       </c>
@@ -10938,7 +10959,7 @@
       <c r="J313" s="11"/>
       <c r="K313" s="20"/>
     </row>
-    <row r="314" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="314" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A314" s="40">
         <v>40179</v>
       </c>
@@ -10959,13 +10980,13 @@
       <c r="I314" s="9"/>
       <c r="J314" s="11"/>
       <c r="K314" s="20" t="s">
-        <v>224</v>
-      </c>
-    </row>
-    <row r="315" spans="1:11" x14ac:dyDescent="0.25">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="315" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A315" s="40"/>
       <c r="B315" s="20" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="C315" s="13"/>
       <c r="D315" s="39">
@@ -10982,7 +11003,7 @@
       <c r="J315" s="11"/>
       <c r="K315" s="20"/>
     </row>
-    <row r="316" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="316" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A316" s="40">
         <v>40210</v>
       </c>
@@ -11008,7 +11029,7 @@
         <v>40228</v>
       </c>
     </row>
-    <row r="317" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="317" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A317" s="40"/>
       <c r="B317" s="20" t="s">
         <v>102</v>
@@ -11025,10 +11046,10 @@
       <c r="I317" s="9"/>
       <c r="J317" s="11"/>
       <c r="K317" s="49" t="s">
-        <v>226</v>
-      </c>
-    </row>
-    <row r="318" spans="1:11" x14ac:dyDescent="0.25">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="318" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A318" s="40">
         <v>40238</v>
       </c>
@@ -11051,10 +11072,10 @@
       <c r="I318" s="9"/>
       <c r="J318" s="11"/>
       <c r="K318" s="20" t="s">
-        <v>228</v>
-      </c>
-    </row>
-    <row r="319" spans="1:11" x14ac:dyDescent="0.25">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="319" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A319" s="40"/>
       <c r="B319" s="20" t="s">
         <v>102</v>
@@ -11071,10 +11092,10 @@
       <c r="I319" s="9"/>
       <c r="J319" s="11"/>
       <c r="K319" s="20" t="s">
-        <v>229</v>
-      </c>
-    </row>
-    <row r="320" spans="1:11" x14ac:dyDescent="0.25">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="320" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A320" s="40"/>
       <c r="B320" s="20" t="s">
         <v>43</v>
@@ -11096,10 +11117,10 @@
         <v>40262</v>
       </c>
     </row>
-    <row r="321" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="321" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A321" s="40"/>
       <c r="B321" s="20" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="C321" s="13"/>
       <c r="D321" s="39">
@@ -11116,7 +11137,7 @@
       <c r="J321" s="11"/>
       <c r="K321" s="20"/>
     </row>
-    <row r="322" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="322" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A322" s="40">
         <v>40269</v>
       </c>
@@ -11136,7 +11157,7 @@
       <c r="J322" s="11"/>
       <c r="K322" s="20"/>
     </row>
-    <row r="323" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="323" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A323" s="40">
         <v>40299</v>
       </c>
@@ -11162,10 +11183,10 @@
         <v>40319</v>
       </c>
     </row>
-    <row r="324" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="324" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A324" s="40"/>
       <c r="B324" s="20" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="C324" s="13"/>
       <c r="D324" s="39">
@@ -11182,7 +11203,7 @@
       <c r="J324" s="11"/>
       <c r="K324" s="49"/>
     </row>
-    <row r="325" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="325" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A325" s="40">
         <v>40330</v>
       </c>
@@ -11208,7 +11229,7 @@
         <v>40332</v>
       </c>
     </row>
-    <row r="326" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="326" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A326" s="40"/>
       <c r="B326" s="20" t="s">
         <v>43</v>
@@ -11230,7 +11251,7 @@
         <v>40373</v>
       </c>
     </row>
-    <row r="327" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="327" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A327" s="40"/>
       <c r="B327" s="20" t="s">
         <v>88</v>
@@ -11250,7 +11271,7 @@
       <c r="J327" s="11"/>
       <c r="K327" s="49"/>
     </row>
-    <row r="328" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="328" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A328" s="40">
         <v>40360</v>
       </c>
@@ -11270,7 +11291,7 @@
       <c r="J328" s="11"/>
       <c r="K328" s="20"/>
     </row>
-    <row r="329" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="329" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A329" s="40">
         <v>40391</v>
       </c>
@@ -11296,10 +11317,10 @@
         <v>40402</v>
       </c>
     </row>
-    <row r="330" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="330" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A330" s="40"/>
       <c r="B330" s="20" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="C330" s="13"/>
       <c r="D330" s="39">
@@ -11316,7 +11337,7 @@
       <c r="J330" s="11"/>
       <c r="K330" s="49"/>
     </row>
-    <row r="331" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="331" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A331" s="40">
         <v>40422</v>
       </c>
@@ -11336,7 +11357,7 @@
       <c r="J331" s="11"/>
       <c r="K331" s="20"/>
     </row>
-    <row r="332" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="332" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A332" s="40">
         <v>40452</v>
       </c>
@@ -11360,7 +11381,7 @@
       <c r="J332" s="11"/>
       <c r="K332" s="20"/>
     </row>
-    <row r="333" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="333" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A333" s="40">
         <v>40483</v>
       </c>
@@ -11386,7 +11407,7 @@
         <v>40494</v>
       </c>
     </row>
-    <row r="334" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="334" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A334" s="40"/>
       <c r="B334" s="20" t="s">
         <v>43</v>
@@ -11408,7 +11429,7 @@
         <v>40493</v>
       </c>
     </row>
-    <row r="335" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="335" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A335" s="40"/>
       <c r="B335" s="20" t="s">
         <v>179</v>
@@ -11427,13 +11448,13 @@
       <c r="I335" s="9"/>
       <c r="J335" s="11"/>
       <c r="K335" s="20" t="s">
-        <v>232</v>
-      </c>
-    </row>
-    <row r="336" spans="1:11" x14ac:dyDescent="0.25">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="336" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A336" s="40"/>
       <c r="B336" s="20" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="C336" s="13"/>
       <c r="D336" s="39">
@@ -11450,7 +11471,7 @@
       <c r="J336" s="11"/>
       <c r="K336" s="20"/>
     </row>
-    <row r="337" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="337" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A337" s="40">
         <v>40513</v>
       </c>
@@ -11476,7 +11497,7 @@
         <v>40534</v>
       </c>
     </row>
-    <row r="338" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="338" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A338" s="40"/>
       <c r="B338" s="20" t="s">
         <v>107</v>
@@ -11496,7 +11517,7 @@
       <c r="J338" s="11"/>
       <c r="K338" s="20"/>
     </row>
-    <row r="339" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="339" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A339" s="48" t="s">
         <v>70</v>
       </c>
@@ -11514,7 +11535,7 @@
       <c r="J339" s="11"/>
       <c r="K339" s="20"/>
     </row>
-    <row r="340" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="340" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A340" s="40">
         <v>40544</v>
       </c>
@@ -11535,10 +11556,10 @@
       <c r="I340" s="9"/>
       <c r="J340" s="11"/>
       <c r="K340" s="20" t="s">
-        <v>233</v>
-      </c>
-    </row>
-    <row r="341" spans="1:11" x14ac:dyDescent="0.25">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="341" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A341" s="40"/>
       <c r="B341" s="20" t="s">
         <v>102</v>
@@ -11555,10 +11576,10 @@
       <c r="I341" s="9"/>
       <c r="J341" s="11"/>
       <c r="K341" s="20" t="s">
-        <v>234</v>
-      </c>
-    </row>
-    <row r="342" spans="1:11" x14ac:dyDescent="0.25">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="342" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A342" s="40"/>
       <c r="B342" s="20" t="s">
         <v>102</v>
@@ -11575,10 +11596,10 @@
       <c r="I342" s="9"/>
       <c r="J342" s="11"/>
       <c r="K342" s="20" t="s">
-        <v>235</v>
-      </c>
-    </row>
-    <row r="343" spans="1:11" x14ac:dyDescent="0.25">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="343" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A343" s="40">
         <v>40575</v>
       </c>
@@ -11604,7 +11625,7 @@
         <v>40598</v>
       </c>
     </row>
-    <row r="344" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="344" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A344" s="40">
         <v>40603</v>
       </c>
@@ -11630,12 +11651,12 @@
         <v>40632</v>
       </c>
     </row>
-    <row r="345" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="345" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A345" s="40">
         <v>40634</v>
       </c>
       <c r="B345" s="20" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="C345" s="13">
         <v>1.25</v>
@@ -11653,10 +11674,10 @@
       <c r="I345" s="9"/>
       <c r="J345" s="11"/>
       <c r="K345" s="20" t="s">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="346" spans="1:11" x14ac:dyDescent="0.25">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="346" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A346" s="40"/>
       <c r="B346" s="20" t="s">
         <v>88</v>
@@ -11676,7 +11697,7 @@
       <c r="J346" s="11"/>
       <c r="K346" s="20"/>
     </row>
-    <row r="347" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="347" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A347" s="40">
         <v>40664</v>
       </c>
@@ -11702,7 +11723,7 @@
         <v>40679</v>
       </c>
     </row>
-    <row r="348" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="348" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A348" s="40"/>
       <c r="B348" s="20" t="s">
         <v>43</v>
@@ -11724,7 +11745,7 @@
         <v>40697</v>
       </c>
     </row>
-    <row r="349" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="349" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A349" s="40"/>
       <c r="B349" s="20" t="s">
         <v>108</v>
@@ -11744,7 +11765,7 @@
       <c r="J349" s="11"/>
       <c r="K349" s="20"/>
     </row>
-    <row r="350" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="350" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A350" s="40">
         <v>40695</v>
       </c>
@@ -11770,10 +11791,10 @@
         <v>40707</v>
       </c>
     </row>
-    <row r="351" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="351" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A351" s="40"/>
       <c r="B351" s="20" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="C351" s="13"/>
       <c r="D351" s="39">
@@ -11790,7 +11811,7 @@
       <c r="J351" s="11"/>
       <c r="K351" s="49"/>
     </row>
-    <row r="352" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="352" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A352" s="40">
         <v>40725</v>
       </c>
@@ -11816,7 +11837,7 @@
         <v>40760</v>
       </c>
     </row>
-    <row r="353" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="353" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A353" s="40">
         <v>40756</v>
       </c>
@@ -11842,7 +11863,7 @@
         <v>40777</v>
       </c>
     </row>
-    <row r="354" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="354" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A354" s="40">
         <v>40787</v>
       </c>
@@ -11866,7 +11887,7 @@
       <c r="J354" s="11"/>
       <c r="K354" s="49"/>
     </row>
-    <row r="355" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="355" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A355" s="40">
         <v>40817</v>
       </c>
@@ -11889,10 +11910,10 @@
       <c r="I355" s="9"/>
       <c r="J355" s="11"/>
       <c r="K355" s="20" t="s">
-        <v>239</v>
-      </c>
-    </row>
-    <row r="356" spans="1:11" x14ac:dyDescent="0.25">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="356" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A356" s="40"/>
       <c r="B356" s="20" t="s">
         <v>43</v>
@@ -11914,7 +11935,7 @@
         <v>40842</v>
       </c>
     </row>
-    <row r="357" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="357" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A357" s="40">
         <v>40848</v>
       </c>
@@ -11940,7 +11961,7 @@
         <v>40851</v>
       </c>
     </row>
-    <row r="358" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="358" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A358" s="40"/>
       <c r="B358" s="20" t="s">
         <v>47</v>
@@ -11959,10 +11980,10 @@
       <c r="I358" s="9"/>
       <c r="J358" s="11"/>
       <c r="K358" s="20" t="s">
-        <v>241</v>
-      </c>
-    </row>
-    <row r="359" spans="1:11" x14ac:dyDescent="0.25">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="359" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A359" s="40"/>
       <c r="B359" s="20" t="s">
         <v>179</v>
@@ -11981,13 +12002,13 @@
       <c r="I359" s="9"/>
       <c r="J359" s="11"/>
       <c r="K359" s="20" t="s">
-        <v>242</v>
-      </c>
-    </row>
-    <row r="360" spans="1:11" x14ac:dyDescent="0.25">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="360" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A360" s="40"/>
       <c r="B360" s="20" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="C360" s="13"/>
       <c r="D360" s="39"/>
@@ -12003,10 +12024,10 @@
       <c r="I360" s="9"/>
       <c r="J360" s="11"/>
       <c r="K360" s="20" t="s">
-        <v>243</v>
-      </c>
-    </row>
-    <row r="361" spans="1:11" x14ac:dyDescent="0.25">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="361" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A361" s="40">
         <v>40878</v>
       </c>
@@ -12032,7 +12053,7 @@
         <v>40903</v>
       </c>
     </row>
-    <row r="362" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="362" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A362" s="40"/>
       <c r="B362" s="20" t="s">
         <v>115</v>
@@ -12052,7 +12073,7 @@
       <c r="J362" s="11"/>
       <c r="K362" s="49"/>
     </row>
-    <row r="363" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="363" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A363" s="48" t="s">
         <v>71</v>
       </c>
@@ -12070,7 +12091,7 @@
       <c r="J363" s="11"/>
       <c r="K363" s="49"/>
     </row>
-    <row r="364" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="364" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A364" s="40">
         <v>40909</v>
       </c>
@@ -12091,13 +12112,13 @@
       <c r="I364" s="9"/>
       <c r="J364" s="11"/>
       <c r="K364" s="49" t="s">
-        <v>246</v>
-      </c>
-    </row>
-    <row r="365" spans="1:11" x14ac:dyDescent="0.25">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="365" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A365" s="40"/>
       <c r="B365" s="20" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="C365" s="13"/>
       <c r="D365" s="39">
@@ -12114,7 +12135,7 @@
       <c r="J365" s="11"/>
       <c r="K365" s="49"/>
     </row>
-    <row r="366" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="366" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A366" s="40">
         <v>40940</v>
       </c>
@@ -12134,7 +12155,7 @@
       <c r="J366" s="11"/>
       <c r="K366" s="49"/>
     </row>
-    <row r="367" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="367" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A367" s="40">
         <v>40969</v>
       </c>
@@ -12157,10 +12178,10 @@
       <c r="I367" s="9"/>
       <c r="J367" s="11"/>
       <c r="K367" s="49" t="s">
-        <v>247</v>
-      </c>
-    </row>
-    <row r="368" spans="1:11" x14ac:dyDescent="0.25">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="368" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A368" s="40"/>
       <c r="B368" s="20" t="s">
         <v>102</v>
@@ -12177,10 +12198,10 @@
       <c r="I368" s="9"/>
       <c r="J368" s="11"/>
       <c r="K368" s="49" t="s">
-        <v>248</v>
-      </c>
-    </row>
-    <row r="369" spans="1:11" x14ac:dyDescent="0.25">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="369" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A369" s="40"/>
       <c r="B369" s="20" t="s">
         <v>151</v>
@@ -12199,10 +12220,10 @@
       <c r="I369" s="9"/>
       <c r="J369" s="11"/>
       <c r="K369" s="49" t="s">
-        <v>249</v>
-      </c>
-    </row>
-    <row r="370" spans="1:11" x14ac:dyDescent="0.25">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="370" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A370" s="40">
         <v>41000</v>
       </c>
@@ -12222,7 +12243,7 @@
       <c r="J370" s="11"/>
       <c r="K370" s="20"/>
     </row>
-    <row r="371" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="371" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A371" s="40">
         <v>41030</v>
       </c>
@@ -12248,7 +12269,7 @@
         <v>41037</v>
       </c>
     </row>
-    <row r="372" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="372" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A372" s="40"/>
       <c r="B372" s="20" t="s">
         <v>43</v>
@@ -12270,10 +12291,10 @@
         <v>41043</v>
       </c>
     </row>
-    <row r="373" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="373" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A373" s="40"/>
       <c r="B373" s="20" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="C373" s="13"/>
       <c r="D373" s="39">
@@ -12290,7 +12311,7 @@
       <c r="J373" s="11"/>
       <c r="K373" s="49"/>
     </row>
-    <row r="374" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="374" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A374" s="40">
         <v>41061</v>
       </c>
@@ -12310,7 +12331,7 @@
       <c r="J374" s="11"/>
       <c r="K374" s="49"/>
     </row>
-    <row r="375" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="375" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A375" s="40">
         <v>41091</v>
       </c>
@@ -12333,10 +12354,10 @@
       <c r="I375" s="9"/>
       <c r="J375" s="11"/>
       <c r="K375" s="49" t="s">
-        <v>251</v>
-      </c>
-    </row>
-    <row r="376" spans="1:11" x14ac:dyDescent="0.25">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="376" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A376" s="40">
         <v>41122</v>
       </c>
@@ -12356,7 +12377,7 @@
       <c r="J376" s="11"/>
       <c r="K376" s="20"/>
     </row>
-    <row r="377" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="377" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A377" s="40">
         <v>41153</v>
       </c>
@@ -12382,10 +12403,10 @@
         <v>41163</v>
       </c>
     </row>
-    <row r="378" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="378" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A378" s="40"/>
       <c r="B378" s="20" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="C378" s="13"/>
       <c r="D378" s="39">
@@ -12402,7 +12423,7 @@
       <c r="J378" s="11"/>
       <c r="K378" s="49"/>
     </row>
-    <row r="379" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="379" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A379" s="40">
         <v>41183</v>
       </c>
@@ -12428,7 +12449,7 @@
         <v>41192</v>
       </c>
     </row>
-    <row r="380" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="380" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A380" s="40"/>
       <c r="B380" s="20" t="s">
         <v>88</v>
@@ -12448,7 +12469,7 @@
       <c r="J380" s="11"/>
       <c r="K380" s="49"/>
     </row>
-    <row r="381" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="381" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A381" s="40">
         <v>41214</v>
       </c>
@@ -12471,10 +12492,10 @@
       <c r="I381" s="9"/>
       <c r="J381" s="11"/>
       <c r="K381" s="49" t="s">
-        <v>253</v>
-      </c>
-    </row>
-    <row r="382" spans="1:11" x14ac:dyDescent="0.25">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="382" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A382" s="40">
         <v>41244</v>
       </c>
@@ -12500,7 +12521,7 @@
         <v>41269</v>
       </c>
     </row>
-    <row r="383" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="383" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A383" s="40"/>
       <c r="B383" s="20" t="s">
         <v>101</v>
@@ -12520,7 +12541,7 @@
       <c r="J383" s="11"/>
       <c r="K383" s="20"/>
     </row>
-    <row r="384" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="384" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A384" s="48" t="s">
         <v>72</v>
       </c>
@@ -12538,7 +12559,7 @@
       <c r="J384" s="11"/>
       <c r="K384" s="20"/>
     </row>
-    <row r="385" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="385" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A385" s="40">
         <v>41275</v>
       </c>
@@ -12558,7 +12579,7 @@
       <c r="J385" s="11"/>
       <c r="K385" s="20"/>
     </row>
-    <row r="386" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="386" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A386" s="40">
         <v>41306</v>
       </c>
@@ -12584,7 +12605,7 @@
         <v>41317</v>
       </c>
     </row>
-    <row r="387" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="387" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A387" s="40"/>
       <c r="B387" s="20" t="s">
         <v>102</v>
@@ -12601,10 +12622,10 @@
       <c r="I387" s="9"/>
       <c r="J387" s="11"/>
       <c r="K387" s="20" t="s">
-        <v>254</v>
-      </c>
-    </row>
-    <row r="388" spans="1:11" x14ac:dyDescent="0.25">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="388" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A388" s="40"/>
       <c r="B388" s="20" t="s">
         <v>110</v>
@@ -12621,10 +12642,10 @@
       <c r="I388" s="9"/>
       <c r="J388" s="11"/>
       <c r="K388" s="20" t="s">
-        <v>255</v>
-      </c>
-    </row>
-    <row r="389" spans="1:11" x14ac:dyDescent="0.25">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="389" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A389" s="40"/>
       <c r="B389" s="20" t="s">
         <v>88</v>
@@ -12644,7 +12665,7 @@
       <c r="J389" s="11"/>
       <c r="K389" s="20"/>
     </row>
-    <row r="390" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="390" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A390" s="40">
         <v>41334</v>
       </c>
@@ -12664,7 +12685,7 @@
       <c r="J390" s="11"/>
       <c r="K390" s="49"/>
     </row>
-    <row r="391" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="391" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A391" s="40">
         <v>41365</v>
       </c>
@@ -12687,10 +12708,10 @@
       <c r="I391" s="9"/>
       <c r="J391" s="11"/>
       <c r="K391" s="20" t="s">
-        <v>256</v>
-      </c>
-    </row>
-    <row r="392" spans="1:11" x14ac:dyDescent="0.25">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="392" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A392" s="40">
         <v>41395</v>
       </c>
@@ -12710,7 +12731,7 @@
       <c r="J392" s="11"/>
       <c r="K392" s="49"/>
     </row>
-    <row r="393" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="393" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A393" s="40">
         <v>41426</v>
       </c>
@@ -12734,7 +12755,7 @@
       <c r="J393" s="11"/>
       <c r="K393" s="20"/>
     </row>
-    <row r="394" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="394" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A394" s="40">
         <v>41456</v>
       </c>
@@ -12754,7 +12775,7 @@
       <c r="J394" s="12"/>
       <c r="K394" s="50"/>
     </row>
-    <row r="395" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="395" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A395" s="40">
         <v>41487</v>
       </c>
@@ -12780,7 +12801,7 @@
         <v>41500</v>
       </c>
     </row>
-    <row r="396" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="396" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A396" s="40">
         <v>41518</v>
       </c>
@@ -12806,7 +12827,7 @@
         <v>41536</v>
       </c>
     </row>
-    <row r="397" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="397" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A397" s="40">
         <v>41548</v>
       </c>
@@ -12826,12 +12847,12 @@
       <c r="J397" s="11"/>
       <c r="K397" s="20"/>
     </row>
-    <row r="398" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="398" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A398" s="40">
         <v>41579</v>
       </c>
       <c r="B398" s="20" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="C398" s="13">
         <v>1.25</v>
@@ -12849,10 +12870,10 @@
       <c r="I398" s="9"/>
       <c r="J398" s="11"/>
       <c r="K398" s="49" t="s">
-        <v>258</v>
-      </c>
-    </row>
-    <row r="399" spans="1:11" x14ac:dyDescent="0.25">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="399" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A399" s="40">
         <v>41609</v>
       </c>
@@ -12872,7 +12893,7 @@
       <c r="J399" s="11"/>
       <c r="K399" s="20"/>
     </row>
-    <row r="400" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="400" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A400" s="48" t="s">
         <v>73</v>
       </c>
@@ -12890,7 +12911,7 @@
       <c r="J400" s="11"/>
       <c r="K400" s="20"/>
     </row>
-    <row r="401" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="401" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A401" s="40">
         <v>41640</v>
       </c>
@@ -12910,7 +12931,7 @@
       <c r="J401" s="11"/>
       <c r="K401" s="20"/>
     </row>
-    <row r="402" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="402" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A402" s="40">
         <v>41671</v>
       </c>
@@ -12931,10 +12952,10 @@
       <c r="I402" s="9"/>
       <c r="J402" s="11"/>
       <c r="K402" s="20" t="s">
-        <v>259</v>
-      </c>
-    </row>
-    <row r="403" spans="1:11" x14ac:dyDescent="0.25">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="403" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A403" s="40"/>
       <c r="B403" s="20" t="s">
         <v>102</v>
@@ -12951,10 +12972,10 @@
       <c r="I403" s="9"/>
       <c r="J403" s="11"/>
       <c r="K403" s="20" t="s">
-        <v>260</v>
-      </c>
-    </row>
-    <row r="404" spans="1:11" x14ac:dyDescent="0.25">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="404" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A404" s="40">
         <v>41699</v>
       </c>
@@ -12974,7 +12995,7 @@
       <c r="J404" s="11"/>
       <c r="K404" s="49"/>
     </row>
-    <row r="405" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="405" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A405" s="40">
         <v>41730</v>
       </c>
@@ -12994,7 +13015,7 @@
       <c r="J405" s="11"/>
       <c r="K405" s="20"/>
     </row>
-    <row r="406" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="406" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A406" s="40">
         <v>41760</v>
       </c>
@@ -13014,7 +13035,7 @@
       <c r="J406" s="11"/>
       <c r="K406" s="20"/>
     </row>
-    <row r="407" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="407" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A407" s="40">
         <v>41791</v>
       </c>
@@ -13040,7 +13061,7 @@
         <v>41793</v>
       </c>
     </row>
-    <row r="408" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="408" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A408" s="40"/>
       <c r="B408" s="20" t="s">
         <v>43</v>
@@ -13060,7 +13081,7 @@
       <c r="J408" s="11"/>
       <c r="K408" s="20"/>
     </row>
-    <row r="409" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="409" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A409" s="40">
         <v>41821</v>
       </c>
@@ -13086,7 +13107,7 @@
         <v>41848</v>
       </c>
     </row>
-    <row r="410" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="410" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A410" s="40">
         <v>41852</v>
       </c>
@@ -13106,7 +13127,7 @@
       <c r="J410" s="11"/>
       <c r="K410" s="20"/>
     </row>
-    <row r="411" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="411" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A411" s="40">
         <v>41883</v>
       </c>
@@ -13132,7 +13153,7 @@
         <v>41900</v>
       </c>
     </row>
-    <row r="412" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="412" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A412" s="40">
         <v>41913</v>
       </c>
@@ -13152,7 +13173,7 @@
       <c r="J412" s="11"/>
       <c r="K412" s="20"/>
     </row>
-    <row r="413" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="413" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A413" s="40">
         <v>41944</v>
       </c>
@@ -13178,7 +13199,7 @@
         <v>41957</v>
       </c>
     </row>
-    <row r="414" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="414" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A414" s="40"/>
       <c r="B414" s="20" t="s">
         <v>151</v>
@@ -13197,10 +13218,10 @@
       <c r="I414" s="9"/>
       <c r="J414" s="11"/>
       <c r="K414" s="20" t="s">
-        <v>261</v>
-      </c>
-    </row>
-    <row r="415" spans="1:11" x14ac:dyDescent="0.25">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="415" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A415" s="40"/>
       <c r="B415" s="20" t="s">
         <v>43</v>
@@ -13222,7 +13243,7 @@
         <v>41970</v>
       </c>
     </row>
-    <row r="416" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="416" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A416" s="40">
         <v>41974</v>
       </c>
@@ -13242,7 +13263,7 @@
       <c r="J416" s="11"/>
       <c r="K416" s="20"/>
     </row>
-    <row r="417" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="417" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A417" s="48" t="s">
         <v>74</v>
       </c>
@@ -13260,7 +13281,7 @@
       <c r="J417" s="11"/>
       <c r="K417" s="20"/>
     </row>
-    <row r="418" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="418" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A418" s="40">
         <v>42005</v>
       </c>
@@ -13281,10 +13302,10 @@
       <c r="I418" s="9"/>
       <c r="J418" s="11"/>
       <c r="K418" s="20" t="s">
-        <v>265</v>
-      </c>
-    </row>
-    <row r="419" spans="1:11" x14ac:dyDescent="0.25">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="419" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A419" s="40"/>
       <c r="B419" s="20" t="s">
         <v>102</v>
@@ -13301,10 +13322,10 @@
       <c r="I419" s="9"/>
       <c r="J419" s="11"/>
       <c r="K419" s="20" t="s">
-        <v>264</v>
-      </c>
-    </row>
-    <row r="420" spans="1:11" x14ac:dyDescent="0.25">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="420" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A420" s="40"/>
       <c r="B420" s="20" t="s">
         <v>88</v>
@@ -13324,12 +13345,12 @@
       <c r="J420" s="11"/>
       <c r="K420" s="20"/>
     </row>
-    <row r="421" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="421" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A421" s="40">
         <v>42036</v>
       </c>
       <c r="B421" s="20" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="C421" s="13">
         <v>1.25</v>
@@ -13347,10 +13368,10 @@
       <c r="I421" s="9"/>
       <c r="J421" s="11"/>
       <c r="K421" s="49" t="s">
-        <v>263</v>
-      </c>
-    </row>
-    <row r="422" spans="1:11" x14ac:dyDescent="0.25">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="422" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A422" s="40">
         <v>42064</v>
       </c>
@@ -13371,10 +13392,10 @@
       <c r="I422" s="9"/>
       <c r="J422" s="11"/>
       <c r="K422" s="20" t="s">
-        <v>266</v>
-      </c>
-    </row>
-    <row r="423" spans="1:11" x14ac:dyDescent="0.25">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="423" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A423" s="40"/>
       <c r="B423" s="20" t="s">
         <v>47</v>
@@ -13393,10 +13414,10 @@
       <c r="I423" s="9"/>
       <c r="J423" s="11"/>
       <c r="K423" s="20" t="s">
-        <v>267</v>
-      </c>
-    </row>
-    <row r="424" spans="1:11" x14ac:dyDescent="0.25">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="424" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A424" s="40">
         <v>42095</v>
       </c>
@@ -13416,7 +13437,7 @@
       <c r="J424" s="11"/>
       <c r="K424" s="49"/>
     </row>
-    <row r="425" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="425" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A425" s="40">
         <v>42125</v>
       </c>
@@ -13439,10 +13460,10 @@
       <c r="I425" s="9"/>
       <c r="J425" s="11"/>
       <c r="K425" s="20" t="s">
-        <v>268</v>
-      </c>
-    </row>
-    <row r="426" spans="1:11" x14ac:dyDescent="0.25">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="426" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A426" s="40">
         <v>42156</v>
       </c>
@@ -13465,10 +13486,10 @@
       <c r="I426" s="9"/>
       <c r="J426" s="11"/>
       <c r="K426" s="49" t="s">
-        <v>269</v>
-      </c>
-    </row>
-    <row r="427" spans="1:11" x14ac:dyDescent="0.25">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="427" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A427" s="40"/>
       <c r="B427" s="20" t="s">
         <v>47</v>
@@ -13487,15 +13508,15 @@
       <c r="I427" s="9"/>
       <c r="J427" s="11"/>
       <c r="K427" s="49" t="s">
-        <v>270</v>
-      </c>
-    </row>
-    <row r="428" spans="1:11" x14ac:dyDescent="0.25">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="428" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A428" s="40">
         <v>42186</v>
       </c>
       <c r="B428" s="20" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="C428" s="13">
         <v>1.25</v>
@@ -13513,10 +13534,10 @@
       <c r="I428" s="9"/>
       <c r="J428" s="11"/>
       <c r="K428" s="20" t="s">
-        <v>272</v>
-      </c>
-    </row>
-    <row r="429" spans="1:11" x14ac:dyDescent="0.25">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="429" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A429" s="40"/>
       <c r="B429" s="20" t="s">
         <v>43</v>
@@ -13538,7 +13559,7 @@
         <v>42219</v>
       </c>
     </row>
-    <row r="430" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="430" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A430" s="40">
         <v>42217</v>
       </c>
@@ -13561,10 +13582,10 @@
       <c r="I430" s="9"/>
       <c r="J430" s="11"/>
       <c r="K430" s="20" t="s">
-        <v>273</v>
-      </c>
-    </row>
-    <row r="431" spans="1:11" x14ac:dyDescent="0.25">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="431" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A431" s="40"/>
       <c r="B431" s="20" t="s">
         <v>90</v>
@@ -13583,10 +13604,10 @@
       <c r="I431" s="9"/>
       <c r="J431" s="11"/>
       <c r="K431" s="20" t="s">
-        <v>274</v>
-      </c>
-    </row>
-    <row r="432" spans="1:11" x14ac:dyDescent="0.25">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="432" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A432" s="40"/>
       <c r="B432" s="20" t="s">
         <v>55</v>
@@ -13605,10 +13626,10 @@
       <c r="I432" s="9"/>
       <c r="J432" s="11"/>
       <c r="K432" s="20" t="s">
-        <v>275</v>
-      </c>
-    </row>
-    <row r="433" spans="1:11" x14ac:dyDescent="0.25">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="433" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A433" s="40">
         <v>42248</v>
       </c>
@@ -13628,7 +13649,7 @@
       <c r="J433" s="11"/>
       <c r="K433" s="20"/>
     </row>
-    <row r="434" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="434" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A434" s="40">
         <v>42278</v>
       </c>
@@ -13654,12 +13675,12 @@
         <v>42305</v>
       </c>
     </row>
-    <row r="435" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="435" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A435" s="40">
         <v>42309</v>
       </c>
       <c r="B435" s="20" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="C435" s="13">
         <v>1.25</v>
@@ -13677,10 +13698,10 @@
       <c r="I435" s="9"/>
       <c r="J435" s="11"/>
       <c r="K435" s="49" t="s">
-        <v>277</v>
-      </c>
-    </row>
-    <row r="436" spans="1:11" x14ac:dyDescent="0.25">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="436" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A436" s="40"/>
       <c r="B436" s="20" t="s">
         <v>43</v>
@@ -13702,7 +13723,7 @@
         <v>42346</v>
       </c>
     </row>
-    <row r="437" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="437" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A437" s="40"/>
       <c r="B437" s="20" t="s">
         <v>43</v>
@@ -13724,7 +13745,7 @@
         <v>42361</v>
       </c>
     </row>
-    <row r="438" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="438" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A438" s="40">
         <v>42339</v>
       </c>
@@ -13744,7 +13765,7 @@
       <c r="J438" s="11"/>
       <c r="K438" s="20"/>
     </row>
-    <row r="439" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="439" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A439" s="48" t="s">
         <v>75</v>
       </c>
@@ -13762,7 +13783,7 @@
       <c r="J439" s="11"/>
       <c r="K439" s="20"/>
     </row>
-    <row r="440" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="440" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A440" s="40">
         <v>42370</v>
       </c>
@@ -13783,10 +13804,10 @@
       <c r="I440" s="9"/>
       <c r="J440" s="11"/>
       <c r="K440" s="20" t="s">
-        <v>278</v>
-      </c>
-    </row>
-    <row r="441" spans="1:11" x14ac:dyDescent="0.25">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="441" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A441" s="40"/>
       <c r="B441" s="20" t="s">
         <v>102</v>
@@ -13803,10 +13824,10 @@
       <c r="I441" s="9"/>
       <c r="J441" s="11"/>
       <c r="K441" s="20" t="s">
-        <v>279</v>
-      </c>
-    </row>
-    <row r="442" spans="1:11" x14ac:dyDescent="0.25">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="442" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A442" s="40"/>
       <c r="B442" s="20" t="s">
         <v>102</v>
@@ -13823,10 +13844,10 @@
       <c r="I442" s="9"/>
       <c r="J442" s="11"/>
       <c r="K442" s="20" t="s">
-        <v>280</v>
-      </c>
-    </row>
-    <row r="443" spans="1:11" x14ac:dyDescent="0.25">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="443" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A443" s="40">
         <v>42401</v>
       </c>
@@ -13846,7 +13867,7 @@
       <c r="J443" s="11"/>
       <c r="K443" s="20"/>
     </row>
-    <row r="444" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="444" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A444" s="40">
         <v>42430</v>
       </c>
@@ -13872,7 +13893,7 @@
         <v>42452</v>
       </c>
     </row>
-    <row r="445" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="445" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A445" s="40"/>
       <c r="B445" s="20" t="s">
         <v>123</v>
@@ -13891,10 +13912,10 @@
       <c r="I445" s="9"/>
       <c r="J445" s="11"/>
       <c r="K445" s="20" t="s">
-        <v>281</v>
-      </c>
-    </row>
-    <row r="446" spans="1:11" x14ac:dyDescent="0.25">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="446" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A446" s="40">
         <v>42461</v>
       </c>
@@ -13920,7 +13941,7 @@
         <v>42479</v>
       </c>
     </row>
-    <row r="447" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="447" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A447" s="40">
         <v>42491</v>
       </c>
@@ -13940,7 +13961,7 @@
       <c r="J447" s="11"/>
       <c r="K447" s="20"/>
     </row>
-    <row r="448" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="448" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A448" s="40">
         <v>42522</v>
       </c>
@@ -13960,7 +13981,7 @@
       <c r="J448" s="11"/>
       <c r="K448" s="20"/>
     </row>
-    <row r="449" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="449" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A449" s="40">
         <v>42552</v>
       </c>
@@ -13980,7 +14001,7 @@
       <c r="J449" s="11"/>
       <c r="K449" s="20"/>
     </row>
-    <row r="450" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="450" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A450" s="40">
         <v>42583</v>
       </c>
@@ -14000,7 +14021,7 @@
       <c r="J450" s="11"/>
       <c r="K450" s="20"/>
     </row>
-    <row r="451" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="451" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A451" s="40">
         <v>42614</v>
       </c>
@@ -14020,7 +14041,7 @@
       <c r="J451" s="11"/>
       <c r="K451" s="20"/>
     </row>
-    <row r="452" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="452" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A452" s="40">
         <v>42644</v>
       </c>
@@ -14043,10 +14064,10 @@
       <c r="I452" s="9"/>
       <c r="J452" s="11"/>
       <c r="K452" s="20" t="s">
-        <v>282</v>
-      </c>
-    </row>
-    <row r="453" spans="1:11" x14ac:dyDescent="0.25">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="453" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A453" s="40">
         <v>42675</v>
       </c>
@@ -14072,7 +14093,7 @@
         <v>42676</v>
       </c>
     </row>
-    <row r="454" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="454" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A454" s="40"/>
       <c r="B454" s="20" t="s">
         <v>45</v>
@@ -14094,7 +14115,7 @@
         <v>42699</v>
       </c>
     </row>
-    <row r="455" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="455" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A455" s="40">
         <v>42705</v>
       </c>
@@ -14120,7 +14141,7 @@
         <v>42724</v>
       </c>
     </row>
-    <row r="456" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="456" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A456" s="48" t="s">
         <v>76</v>
       </c>
@@ -14138,7 +14159,7 @@
       <c r="J456" s="11"/>
       <c r="K456" s="20"/>
     </row>
-    <row r="457" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="457" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A457" s="40">
         <v>42736</v>
       </c>
@@ -14159,10 +14180,10 @@
       <c r="I457" s="9"/>
       <c r="J457" s="11"/>
       <c r="K457" s="20" t="s">
-        <v>283</v>
-      </c>
-    </row>
-    <row r="458" spans="1:11" x14ac:dyDescent="0.25">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="458" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A458" s="40">
         <v>42767</v>
       </c>
@@ -14183,10 +14204,10 @@
       <c r="I458" s="9"/>
       <c r="J458" s="11"/>
       <c r="K458" s="20" t="s">
-        <v>284</v>
-      </c>
-    </row>
-    <row r="459" spans="1:11" x14ac:dyDescent="0.25">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="459" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A459" s="40">
         <v>42795</v>
       </c>
@@ -14212,7 +14233,7 @@
         <v>42802</v>
       </c>
     </row>
-    <row r="460" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="460" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A460" s="40"/>
       <c r="B460" s="20" t="s">
         <v>43</v>
@@ -14234,7 +14255,7 @@
         <v>42814</v>
       </c>
     </row>
-    <row r="461" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="461" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A461" s="40">
         <v>42826</v>
       </c>
@@ -14257,10 +14278,10 @@
       <c r="I461" s="9"/>
       <c r="J461" s="11"/>
       <c r="K461" s="49" t="s">
-        <v>285</v>
-      </c>
-    </row>
-    <row r="462" spans="1:11" x14ac:dyDescent="0.25">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="462" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A462" s="40"/>
       <c r="B462" s="20" t="s">
         <v>43</v>
@@ -14282,7 +14303,7 @@
         <v>42837</v>
       </c>
     </row>
-    <row r="463" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="463" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A463" s="40">
         <v>42856</v>
       </c>
@@ -14308,7 +14329,7 @@
         <v>42888</v>
       </c>
     </row>
-    <row r="464" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="464" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A464" s="40">
         <v>42887</v>
       </c>
@@ -14331,10 +14352,10 @@
       <c r="I464" s="9"/>
       <c r="J464" s="11"/>
       <c r="K464" s="20" t="s">
-        <v>286</v>
-      </c>
-    </row>
-    <row r="465" spans="1:11" x14ac:dyDescent="0.25">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="465" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A465" s="40"/>
       <c r="B465" s="20" t="s">
         <v>47</v>
@@ -14353,10 +14374,10 @@
       <c r="I465" s="9"/>
       <c r="J465" s="11"/>
       <c r="K465" s="20" t="s">
-        <v>287</v>
-      </c>
-    </row>
-    <row r="466" spans="1:11" x14ac:dyDescent="0.25">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="466" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A466" s="40">
         <v>42917</v>
       </c>
@@ -14376,7 +14397,7 @@
       <c r="J466" s="11"/>
       <c r="K466" s="20"/>
     </row>
-    <row r="467" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="467" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A467" s="40">
         <v>42948</v>
       </c>
@@ -14402,7 +14423,7 @@
         <v>42950</v>
       </c>
     </row>
-    <row r="468" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="468" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A468" s="40">
         <v>42979</v>
       </c>
@@ -14428,7 +14449,7 @@
         <v>42986</v>
       </c>
     </row>
-    <row r="469" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="469" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A469" s="40">
         <v>43009</v>
       </c>
@@ -14451,10 +14472,10 @@
       <c r="I469" s="9"/>
       <c r="J469" s="11"/>
       <c r="K469" s="49" t="s">
-        <v>288</v>
-      </c>
-    </row>
-    <row r="470" spans="1:11" x14ac:dyDescent="0.25">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="470" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A470" s="40">
         <v>43040</v>
       </c>
@@ -14477,10 +14498,10 @@
       <c r="I470" s="9"/>
       <c r="J470" s="11"/>
       <c r="K470" s="20" t="s">
-        <v>289</v>
-      </c>
-    </row>
-    <row r="471" spans="1:11" x14ac:dyDescent="0.25">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="471" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A471" s="40"/>
       <c r="B471" s="20" t="s">
         <v>55</v>
@@ -14499,10 +14520,10 @@
       <c r="I471" s="9"/>
       <c r="J471" s="11"/>
       <c r="K471" s="20" t="s">
-        <v>290</v>
-      </c>
-    </row>
-    <row r="472" spans="1:11" x14ac:dyDescent="0.25">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="472" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A472" s="40"/>
       <c r="B472" s="20" t="s">
         <v>48</v>
@@ -14521,10 +14542,10 @@
       <c r="I472" s="9"/>
       <c r="J472" s="11"/>
       <c r="K472" s="20" t="s">
-        <v>291</v>
-      </c>
-    </row>
-    <row r="473" spans="1:11" x14ac:dyDescent="0.25">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="473" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A473" s="40">
         <v>43070</v>
       </c>
@@ -14550,7 +14571,7 @@
         <v>43084</v>
       </c>
     </row>
-    <row r="474" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="474" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A474" s="48" t="s">
         <v>77</v>
       </c>
@@ -14568,7 +14589,7 @@
       <c r="J474" s="11"/>
       <c r="K474" s="20"/>
     </row>
-    <row r="475" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="475" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A475" s="40">
         <v>43101</v>
       </c>
@@ -14589,10 +14610,10 @@
       <c r="I475" s="9"/>
       <c r="J475" s="11"/>
       <c r="K475" s="20" t="s">
-        <v>292</v>
-      </c>
-    </row>
-    <row r="476" spans="1:11" x14ac:dyDescent="0.25">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="476" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A476" s="40"/>
       <c r="B476" s="20" t="s">
         <v>102</v>
@@ -14609,10 +14630,10 @@
       <c r="I476" s="9"/>
       <c r="J476" s="11"/>
       <c r="K476" s="20" t="s">
-        <v>293</v>
-      </c>
-    </row>
-    <row r="477" spans="1:11" x14ac:dyDescent="0.25">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="477" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A477" s="40">
         <v>43132</v>
       </c>
@@ -14635,10 +14656,10 @@
       <c r="I477" s="9"/>
       <c r="J477" s="11"/>
       <c r="K477" s="20" t="s">
-        <v>294</v>
-      </c>
-    </row>
-    <row r="478" spans="1:11" x14ac:dyDescent="0.25">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="478" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A478" s="40">
         <v>43160</v>
       </c>
@@ -14658,7 +14679,7 @@
       <c r="J478" s="11"/>
       <c r="K478" s="49"/>
     </row>
-    <row r="479" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="479" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A479" s="40">
         <v>43191</v>
       </c>
@@ -14684,7 +14705,7 @@
         <v>43208</v>
       </c>
     </row>
-    <row r="480" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="480" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A480" s="40"/>
       <c r="B480" s="20" t="s">
         <v>43</v>
@@ -14706,7 +14727,7 @@
         <v>43217</v>
       </c>
     </row>
-    <row r="481" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="481" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A481" s="40">
         <v>43221</v>
       </c>
@@ -14732,7 +14753,7 @@
         <v>43237</v>
       </c>
     </row>
-    <row r="482" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="482" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A482" s="40"/>
       <c r="B482" s="20" t="s">
         <v>47</v>
@@ -14751,10 +14772,10 @@
       <c r="I482" s="9"/>
       <c r="J482" s="11"/>
       <c r="K482" s="49" t="s">
-        <v>295</v>
-      </c>
-    </row>
-    <row r="483" spans="1:11" x14ac:dyDescent="0.25">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="483" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A483" s="40">
         <v>43252</v>
       </c>
@@ -14780,7 +14801,7 @@
         <v>43258</v>
       </c>
     </row>
-    <row r="484" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="484" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A484" s="40">
         <v>43282</v>
       </c>
@@ -14806,7 +14827,7 @@
         <v>43305</v>
       </c>
     </row>
-    <row r="485" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="485" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A485" s="40">
         <v>43313</v>
       </c>
@@ -14826,7 +14847,7 @@
       <c r="J485" s="11"/>
       <c r="K485" s="49"/>
     </row>
-    <row r="486" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="486" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A486" s="40">
         <v>43344</v>
       </c>
@@ -14846,7 +14867,7 @@
       <c r="J486" s="11"/>
       <c r="K486" s="20"/>
     </row>
-    <row r="487" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="487" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A487" s="40">
         <v>43374</v>
       </c>
@@ -14872,7 +14893,7 @@
         <v>43399</v>
       </c>
     </row>
-    <row r="488" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="488" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A488" s="40">
         <v>43405</v>
       </c>
@@ -14895,10 +14916,10 @@
       <c r="I488" s="9"/>
       <c r="J488" s="11"/>
       <c r="K488" s="20" t="s">
-        <v>296</v>
-      </c>
-    </row>
-    <row r="489" spans="1:11" x14ac:dyDescent="0.25">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="489" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A489" s="40">
         <v>43435</v>
       </c>
@@ -14918,7 +14939,7 @@
       <c r="J489" s="11"/>
       <c r="K489" s="20"/>
     </row>
-    <row r="490" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="490" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A490" s="48" t="s">
         <v>78</v>
       </c>
@@ -14936,7 +14957,7 @@
       <c r="J490" s="11"/>
       <c r="K490" s="20"/>
     </row>
-    <row r="491" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="491" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A491" s="40">
         <v>43466</v>
       </c>
@@ -14957,10 +14978,10 @@
       <c r="I491" s="9"/>
       <c r="J491" s="11"/>
       <c r="K491" s="20" t="s">
-        <v>297</v>
-      </c>
-    </row>
-    <row r="492" spans="1:11" x14ac:dyDescent="0.25">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="492" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A492" s="40"/>
       <c r="B492" s="20" t="s">
         <v>43</v>
@@ -14982,7 +15003,7 @@
         <v>43479</v>
       </c>
     </row>
-    <row r="493" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="493" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A493" s="40">
         <v>43497</v>
       </c>
@@ -15008,7 +15029,7 @@
         <v>43508</v>
       </c>
     </row>
-    <row r="494" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="494" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A494" s="40"/>
       <c r="B494" s="20" t="s">
         <v>102</v>
@@ -15025,10 +15046,10 @@
       <c r="I494" s="9"/>
       <c r="J494" s="11"/>
       <c r="K494" s="20" t="s">
-        <v>298</v>
-      </c>
-    </row>
-    <row r="495" spans="1:11" x14ac:dyDescent="0.25">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="495" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A495" s="40"/>
       <c r="B495" s="20" t="s">
         <v>43</v>
@@ -15050,7 +15071,7 @@
         <v>43509</v>
       </c>
     </row>
-    <row r="496" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="496" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A496" s="40">
         <v>43525</v>
       </c>
@@ -15071,10 +15092,10 @@
       <c r="I496" s="9"/>
       <c r="J496" s="11"/>
       <c r="K496" s="20" t="s">
-        <v>299</v>
-      </c>
-    </row>
-    <row r="497" spans="1:11" x14ac:dyDescent="0.25">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="497" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A497" s="40">
         <v>43556</v>
       </c>
@@ -15097,10 +15118,10 @@
       <c r="I497" s="9"/>
       <c r="J497" s="11"/>
       <c r="K497" s="49" t="s">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="498" spans="1:11" x14ac:dyDescent="0.25">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="498" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A498" s="40"/>
       <c r="B498" s="20" t="s">
         <v>43</v>
@@ -15122,7 +15143,7 @@
         <v>43584</v>
       </c>
     </row>
-    <row r="499" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="499" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A499" s="40">
         <v>43586</v>
       </c>
@@ -15148,7 +15169,7 @@
         <v>43594</v>
       </c>
     </row>
-    <row r="500" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="500" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A500" s="40">
         <v>43617</v>
       </c>
@@ -15174,7 +15195,7 @@
         <v>43619</v>
       </c>
     </row>
-    <row r="501" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="501" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A501" s="40"/>
       <c r="B501" s="20" t="s">
         <v>43</v>
@@ -15196,7 +15217,7 @@
         <v>43627</v>
       </c>
     </row>
-    <row r="502" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="502" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A502" s="40">
         <v>43647</v>
       </c>
@@ -15222,7 +15243,7 @@
         <v>43656</v>
       </c>
     </row>
-    <row r="503" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="503" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A503" s="40"/>
       <c r="B503" s="20" t="s">
         <v>43</v>
@@ -15244,7 +15265,7 @@
         <v>43672</v>
       </c>
     </row>
-    <row r="504" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="504" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A504" s="40">
         <v>43678</v>
       </c>
@@ -15270,7 +15291,7 @@
         <v>43684</v>
       </c>
     </row>
-    <row r="505" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="505" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A505" s="40"/>
       <c r="B505" s="20" t="s">
         <v>47</v>
@@ -15289,10 +15310,10 @@
       <c r="I505" s="9"/>
       <c r="J505" s="11"/>
       <c r="K505" s="49" t="s">
-        <v>301</v>
-      </c>
-    </row>
-    <row r="506" spans="1:11" x14ac:dyDescent="0.25">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="506" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A506" s="40"/>
       <c r="B506" s="20" t="s">
         <v>43</v>
@@ -15314,7 +15335,7 @@
         <v>43704</v>
       </c>
     </row>
-    <row r="507" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="507" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A507" s="40"/>
       <c r="B507" s="20" t="s">
         <v>43</v>
@@ -15336,7 +15357,7 @@
         <v>43707</v>
       </c>
     </row>
-    <row r="508" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="508" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A508" s="40"/>
       <c r="B508" s="20" t="s">
         <v>43</v>
@@ -15358,7 +15379,7 @@
         <v>43717</v>
       </c>
     </row>
-    <row r="509" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="509" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A509" s="40">
         <v>43709</v>
       </c>
@@ -15379,13 +15400,13 @@
       <c r="I509" s="9"/>
       <c r="J509" s="11"/>
       <c r="K509" s="20" t="s">
-        <v>304</v>
-      </c>
-    </row>
-    <row r="510" spans="1:11" x14ac:dyDescent="0.25">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="510" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A510" s="40"/>
       <c r="B510" s="20" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="C510" s="13"/>
       <c r="D510" s="39">
@@ -15401,15 +15422,15 @@
       <c r="I510" s="9"/>
       <c r="J510" s="11"/>
       <c r="K510" s="20" t="s">
-        <v>303</v>
-      </c>
-    </row>
-    <row r="511" spans="1:11" x14ac:dyDescent="0.25">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="511" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A511" s="40">
         <v>43739</v>
       </c>
       <c r="B511" s="20" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="C511" s="13">
         <v>1.25</v>
@@ -15427,13 +15448,13 @@
       <c r="I511" s="9"/>
       <c r="J511" s="11"/>
       <c r="K511" s="49" t="s">
-        <v>306</v>
-      </c>
-    </row>
-    <row r="512" spans="1:11" x14ac:dyDescent="0.25">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="512" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A512" s="40"/>
       <c r="B512" s="20" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="C512" s="13"/>
       <c r="D512" s="39">
@@ -15449,10 +15470,10 @@
       <c r="I512" s="9"/>
       <c r="J512" s="11"/>
       <c r="K512" s="49" t="s">
-        <v>307</v>
-      </c>
-    </row>
-    <row r="513" spans="1:11" x14ac:dyDescent="0.25">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="513" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A513" s="40"/>
       <c r="B513" s="20" t="s">
         <v>43</v>
@@ -15474,7 +15495,7 @@
         <v>43767</v>
       </c>
     </row>
-    <row r="514" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="514" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A514" s="40">
         <v>43770</v>
       </c>
@@ -15500,7 +15521,7 @@
         <v>43781</v>
       </c>
     </row>
-    <row r="515" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="515" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A515" s="40"/>
       <c r="B515" s="20" t="s">
         <v>43</v>
@@ -15522,7 +15543,7 @@
         <v>43784</v>
       </c>
     </row>
-    <row r="516" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="516" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A516" s="40"/>
       <c r="B516" s="20" t="s">
         <v>45</v>
@@ -15544,7 +15565,7 @@
         <v>43790</v>
       </c>
     </row>
-    <row r="517" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="517" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A517" s="40"/>
       <c r="B517" s="20" t="s">
         <v>55</v>
@@ -15563,10 +15584,10 @@
       <c r="I517" s="9"/>
       <c r="J517" s="11"/>
       <c r="K517" s="20" t="s">
-        <v>308</v>
-      </c>
-    </row>
-    <row r="518" spans="1:11" x14ac:dyDescent="0.25">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="518" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A518" s="40"/>
       <c r="B518" s="20" t="s">
         <v>47</v>
@@ -15585,10 +15606,10 @@
       <c r="I518" s="9"/>
       <c r="J518" s="11"/>
       <c r="K518" s="20" t="s">
-        <v>309</v>
-      </c>
-    </row>
-    <row r="519" spans="1:11" x14ac:dyDescent="0.25">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="519" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A519" s="40">
         <v>43800</v>
       </c>
@@ -15608,7 +15629,7 @@
       <c r="J519" s="11"/>
       <c r="K519" s="20"/>
     </row>
-    <row r="520" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="520" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A520" s="48" t="s">
         <v>79</v>
       </c>
@@ -15626,7 +15647,7 @@
       <c r="J520" s="11"/>
       <c r="K520" s="20"/>
     </row>
-    <row r="521" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="521" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A521" s="40">
         <v>43831</v>
       </c>
@@ -15647,13 +15668,13 @@
       <c r="I521" s="9"/>
       <c r="J521" s="11"/>
       <c r="K521" s="49" t="s">
-        <v>311</v>
-      </c>
-    </row>
-    <row r="522" spans="1:11" x14ac:dyDescent="0.25">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="522" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A522" s="40"/>
       <c r="B522" s="20" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="C522" s="13"/>
       <c r="D522" s="39"/>
@@ -15667,10 +15688,10 @@
       <c r="I522" s="9"/>
       <c r="J522" s="11"/>
       <c r="K522" s="49" t="s">
-        <v>312</v>
-      </c>
-    </row>
-    <row r="523" spans="1:11" x14ac:dyDescent="0.25">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="523" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A523" s="40"/>
       <c r="B523" s="20" t="s">
         <v>110</v>
@@ -15687,10 +15708,10 @@
       <c r="I523" s="9"/>
       <c r="J523" s="11"/>
       <c r="K523" s="49" t="s">
-        <v>313</v>
-      </c>
-    </row>
-    <row r="524" spans="1:11" x14ac:dyDescent="0.25">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="524" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A524" s="40">
         <v>43862</v>
       </c>
@@ -15716,7 +15737,7 @@
         <v>43885</v>
       </c>
     </row>
-    <row r="525" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="525" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A525" s="40">
         <v>43891</v>
       </c>
@@ -15736,7 +15757,7 @@
       <c r="J525" s="11"/>
       <c r="K525" s="20"/>
     </row>
-    <row r="526" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="526" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A526" s="40">
         <v>43922</v>
       </c>
@@ -15756,7 +15777,7 @@
       <c r="J526" s="11"/>
       <c r="K526" s="49"/>
     </row>
-    <row r="527" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="527" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A527" s="40">
         <v>43952</v>
       </c>
@@ -15776,7 +15797,7 @@
       <c r="J527" s="11"/>
       <c r="K527" s="49"/>
     </row>
-    <row r="528" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="528" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A528" s="40">
         <v>43983</v>
       </c>
@@ -15802,7 +15823,7 @@
         <v>44006</v>
       </c>
     </row>
-    <row r="529" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="529" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A529" s="40"/>
       <c r="B529" s="20" t="s">
         <v>47</v>
@@ -15821,10 +15842,10 @@
       <c r="I529" s="9"/>
       <c r="J529" s="11"/>
       <c r="K529" s="20" t="s">
-        <v>314</v>
-      </c>
-    </row>
-    <row r="530" spans="1:11" x14ac:dyDescent="0.25">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="530" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A530" s="40">
         <v>44013</v>
       </c>
@@ -15847,10 +15868,10 @@
       <c r="I530" s="9"/>
       <c r="J530" s="11"/>
       <c r="K530" s="49" t="s">
-        <v>315</v>
-      </c>
-    </row>
-    <row r="531" spans="1:11" x14ac:dyDescent="0.25">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="531" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A531" s="40"/>
       <c r="B531" s="20" t="s">
         <v>90</v>
@@ -15869,10 +15890,10 @@
       <c r="I531" s="9"/>
       <c r="J531" s="11"/>
       <c r="K531" s="49" t="s">
-        <v>316</v>
-      </c>
-    </row>
-    <row r="532" spans="1:11" x14ac:dyDescent="0.25">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="532" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A532" s="40">
         <v>44044</v>
       </c>
@@ -15892,7 +15913,7 @@
       <c r="J532" s="11"/>
       <c r="K532" s="20"/>
     </row>
-    <row r="533" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="533" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A533" s="40">
         <v>44075</v>
       </c>
@@ -15912,7 +15933,7 @@
       <c r="J533" s="11"/>
       <c r="K533" s="20"/>
     </row>
-    <row r="534" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="534" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A534" s="40">
         <v>44105</v>
       </c>
@@ -15932,7 +15953,7 @@
       <c r="J534" s="11"/>
       <c r="K534" s="49"/>
     </row>
-    <row r="535" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="535" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A535" s="40">
         <v>44136</v>
       </c>
@@ -15952,7 +15973,7 @@
       <c r="J535" s="11"/>
       <c r="K535" s="20"/>
     </row>
-    <row r="536" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="536" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A536" s="40">
         <v>44166</v>
       </c>
@@ -15975,10 +15996,10 @@
       <c r="I536" s="9"/>
       <c r="J536" s="11"/>
       <c r="K536" s="49" t="s">
-        <v>317</v>
-      </c>
-    </row>
-    <row r="537" spans="1:11" x14ac:dyDescent="0.25">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="537" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A537" s="48" t="s">
         <v>80</v>
       </c>
@@ -15996,7 +16017,7 @@
       <c r="J537" s="11"/>
       <c r="K537" s="49"/>
     </row>
-    <row r="538" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="538" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A538" s="40">
         <v>44197</v>
       </c>
@@ -16017,10 +16038,10 @@
       <c r="I538" s="9"/>
       <c r="J538" s="11"/>
       <c r="K538" s="20" t="s">
-        <v>318</v>
-      </c>
-    </row>
-    <row r="539" spans="1:11" x14ac:dyDescent="0.25">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="539" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A539" s="40">
         <v>44228</v>
       </c>
@@ -16046,7 +16067,7 @@
         <v>44244</v>
       </c>
     </row>
-    <row r="540" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="540" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A540" s="40">
         <v>44256</v>
       </c>
@@ -16066,7 +16087,7 @@
       <c r="J540" s="11"/>
       <c r="K540" s="49"/>
     </row>
-    <row r="541" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="541" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A541" s="40">
         <v>44287</v>
       </c>
@@ -16086,7 +16107,7 @@
       <c r="J541" s="11"/>
       <c r="K541" s="49"/>
     </row>
-    <row r="542" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="542" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A542" s="40">
         <v>44317</v>
       </c>
@@ -16106,7 +16127,7 @@
       <c r="J542" s="11"/>
       <c r="K542" s="20"/>
     </row>
-    <row r="543" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="543" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A543" s="40">
         <v>44348</v>
       </c>
@@ -16132,7 +16153,7 @@
         <v>44372</v>
       </c>
     </row>
-    <row r="544" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="544" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A544" s="40"/>
       <c r="B544" s="20" t="s">
         <v>102</v>
@@ -16149,10 +16170,10 @@
       <c r="I544" s="9"/>
       <c r="J544" s="11"/>
       <c r="K544" s="49" t="s">
-        <v>319</v>
-      </c>
-    </row>
-    <row r="545" spans="1:11" x14ac:dyDescent="0.25">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="545" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A545" s="40">
         <v>44378</v>
       </c>
@@ -16172,7 +16193,7 @@
       <c r="J545" s="11"/>
       <c r="K545" s="49"/>
     </row>
-    <row r="546" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="546" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A546" s="40">
         <v>44409</v>
       </c>
@@ -16192,7 +16213,7 @@
       <c r="J546" s="11"/>
       <c r="K546" s="20"/>
     </row>
-    <row r="547" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="547" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A547" s="40">
         <v>44440</v>
       </c>
@@ -16218,10 +16239,10 @@
         <v>44441</v>
       </c>
     </row>
-    <row r="548" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="548" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A548" s="40"/>
       <c r="B548" s="20" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="C548" s="13"/>
       <c r="D548" s="39"/>
@@ -16235,10 +16256,10 @@
       <c r="I548" s="9"/>
       <c r="J548" s="11"/>
       <c r="K548" s="49" t="s">
-        <v>321</v>
-      </c>
-    </row>
-    <row r="549" spans="1:11" x14ac:dyDescent="0.25">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="549" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A549" s="40">
         <v>44470</v>
       </c>
@@ -16258,12 +16279,12 @@
       <c r="J549" s="11"/>
       <c r="K549" s="20"/>
     </row>
-    <row r="550" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="550" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A550" s="40">
         <v>44501</v>
       </c>
       <c r="B550" s="20" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="C550" s="13">
         <v>1.25</v>
@@ -16279,15 +16300,15 @@
       <c r="I550" s="9"/>
       <c r="J550" s="11"/>
       <c r="K550" s="49" t="s">
-        <v>323</v>
-      </c>
-    </row>
-    <row r="551" spans="1:11" x14ac:dyDescent="0.25">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="551" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A551" s="40">
         <v>44531</v>
       </c>
       <c r="B551" s="20" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="C551" s="13">
         <v>1.25</v>
@@ -16305,10 +16326,10 @@
       <c r="I551" s="9"/>
       <c r="J551" s="11"/>
       <c r="K551" s="49" t="s">
-        <v>325</v>
-      </c>
-    </row>
-    <row r="552" spans="1:11" x14ac:dyDescent="0.25">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="552" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A552" s="40"/>
       <c r="B552" s="20" t="s">
         <v>90</v>
@@ -16325,10 +16346,10 @@
       <c r="I552" s="9"/>
       <c r="J552" s="11"/>
       <c r="K552" s="49" t="s">
-        <v>326</v>
-      </c>
-    </row>
-    <row r="553" spans="1:11" x14ac:dyDescent="0.25">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="553" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A553" s="48" t="s">
         <v>81</v>
       </c>
@@ -16346,7 +16367,7 @@
       <c r="J553" s="11"/>
       <c r="K553" s="49"/>
     </row>
-    <row r="554" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="554" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A554" s="40">
         <v>44562</v>
       </c>
@@ -16366,7 +16387,7 @@
       <c r="J554" s="11"/>
       <c r="K554" s="20"/>
     </row>
-    <row r="555" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="555" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A555" s="40">
         <v>44593</v>
       </c>
@@ -16386,7 +16407,7 @@
       <c r="J555" s="11"/>
       <c r="K555" s="20"/>
     </row>
-    <row r="556" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="556" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A556" s="40">
         <v>44621</v>
       </c>
@@ -16407,10 +16428,10 @@
       <c r="I556" s="9"/>
       <c r="J556" s="11"/>
       <c r="K556" s="49" t="s">
-        <v>327</v>
-      </c>
-    </row>
-    <row r="557" spans="1:11" x14ac:dyDescent="0.25">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="557" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A557" s="40"/>
       <c r="B557" s="20" t="s">
         <v>47</v>
@@ -16429,13 +16450,13 @@
       <c r="I557" s="9"/>
       <c r="J557" s="11"/>
       <c r="K557" s="49" t="s">
-        <v>329</v>
-      </c>
-    </row>
-    <row r="558" spans="1:11" x14ac:dyDescent="0.25">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="558" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A558" s="40"/>
       <c r="B558" s="20" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="C558" s="13"/>
       <c r="D558" s="39">
@@ -16451,13 +16472,13 @@
       <c r="I558" s="9"/>
       <c r="J558" s="11"/>
       <c r="K558" s="49" t="s">
-        <v>330</v>
-      </c>
-    </row>
-    <row r="559" spans="1:11" x14ac:dyDescent="0.25">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="559" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A559" s="40"/>
       <c r="B559" s="20" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="C559" s="13"/>
       <c r="D559" s="39">
@@ -16476,10 +16497,10 @@
         <v>44629</v>
       </c>
     </row>
-    <row r="560" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="560" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A560" s="40"/>
       <c r="B560" s="20" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="C560" s="13"/>
       <c r="D560" s="39">
@@ -16496,7 +16517,7 @@
       <c r="J560" s="11"/>
       <c r="K560" s="49"/>
     </row>
-    <row r="561" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="561" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A561" s="40">
         <v>44652</v>
       </c>
@@ -16516,7 +16537,7 @@
       <c r="J561" s="11"/>
       <c r="K561" s="49"/>
     </row>
-    <row r="562" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="562" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A562" s="40">
         <v>44682</v>
       </c>
@@ -16539,13 +16560,13 @@
       <c r="I562" s="9"/>
       <c r="J562" s="11"/>
       <c r="K562" s="20" t="s">
-        <v>331</v>
-      </c>
-    </row>
-    <row r="563" spans="1:11" x14ac:dyDescent="0.25">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="563" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A563" s="40"/>
       <c r="B563" s="20" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="C563" s="13"/>
       <c r="D563" s="39">
@@ -16561,10 +16582,10 @@
       <c r="I563" s="9"/>
       <c r="J563" s="11"/>
       <c r="K563" s="20" t="s">
-        <v>344</v>
-      </c>
-    </row>
-    <row r="564" spans="1:11" x14ac:dyDescent="0.25">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="564" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A564" s="40">
         <v>44713</v>
       </c>
@@ -16590,7 +16611,7 @@
         <v>44715</v>
       </c>
     </row>
-    <row r="565" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="565" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A565" s="40"/>
       <c r="B565" s="20" t="s">
         <v>90</v>
@@ -16609,10 +16630,10 @@
       <c r="I565" s="9"/>
       <c r="J565" s="11"/>
       <c r="K565" s="49" t="s">
-        <v>341</v>
-      </c>
-    </row>
-    <row r="566" spans="1:11" x14ac:dyDescent="0.25">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="566" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A566" s="40"/>
       <c r="B566" s="20" t="s">
         <v>43</v>
@@ -16634,10 +16655,10 @@
         <v>44763</v>
       </c>
     </row>
-    <row r="567" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="567" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A567" s="40"/>
       <c r="B567" s="20" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="C567" s="13"/>
       <c r="D567" s="39">
@@ -16653,10 +16674,10 @@
       <c r="I567" s="9"/>
       <c r="J567" s="11"/>
       <c r="K567" s="49" t="s">
-        <v>342</v>
-      </c>
-    </row>
-    <row r="568" spans="1:11" x14ac:dyDescent="0.25">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="568" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A568" s="40"/>
       <c r="B568" s="20" t="s">
         <v>44</v>
@@ -16676,12 +16697,12 @@
       <c r="J568" s="11"/>
       <c r="K568" s="49"/>
     </row>
-    <row r="569" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="569" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A569" s="40">
         <v>44743</v>
       </c>
       <c r="B569" s="20" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="C569" s="13">
         <v>1.25</v>
@@ -16700,7 +16721,7 @@
       <c r="J569" s="11"/>
       <c r="K569" s="20"/>
     </row>
-    <row r="570" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="570" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A570" s="40">
         <v>44774</v>
       </c>
@@ -16723,13 +16744,13 @@
       <c r="I570" s="9"/>
       <c r="J570" s="11"/>
       <c r="K570" s="20" t="s">
-        <v>332</v>
-      </c>
-    </row>
-    <row r="571" spans="1:11" x14ac:dyDescent="0.25">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="571" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A571" s="40"/>
       <c r="B571" s="20" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="C571" s="13"/>
       <c r="D571" s="39">
@@ -16746,12 +16767,12 @@
       <c r="J571" s="11"/>
       <c r="K571" s="20"/>
     </row>
-    <row r="572" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="572" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A572" s="40">
         <v>44805</v>
       </c>
       <c r="B572" s="20" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="C572" s="13">
         <v>1.25</v>
@@ -16770,12 +16791,12 @@
       <c r="J572" s="11"/>
       <c r="K572" s="20"/>
     </row>
-    <row r="573" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="573" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A573" s="40">
         <v>44835</v>
       </c>
       <c r="B573" s="20" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="C573" s="13">
         <v>1.25</v>
@@ -16794,7 +16815,7 @@
       <c r="J573" s="11"/>
       <c r="K573" s="20"/>
     </row>
-    <row r="574" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="574" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A574" s="40">
         <v>44866</v>
       </c>
@@ -16820,7 +16841,7 @@
         <v>44886</v>
       </c>
     </row>
-    <row r="575" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="575" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A575" s="40"/>
       <c r="B575" s="20" t="s">
         <v>94</v>
@@ -16839,10 +16860,10 @@
       <c r="I575" s="9"/>
       <c r="J575" s="11"/>
       <c r="K575" s="49" t="s">
-        <v>334</v>
-      </c>
-    </row>
-    <row r="576" spans="1:11" x14ac:dyDescent="0.25">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="576" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A576" s="40"/>
       <c r="B576" s="20" t="s">
         <v>210</v>
@@ -16862,7 +16883,7 @@
       <c r="J576" s="11"/>
       <c r="K576" s="49"/>
     </row>
-    <row r="577" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="577" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A577" s="40">
         <v>44896</v>
       </c>
@@ -16888,7 +16909,7 @@
         <v>44900</v>
       </c>
     </row>
-    <row r="578" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="578" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A578" s="40"/>
       <c r="B578" s="20" t="s">
         <v>44</v>
@@ -16908,7 +16929,7 @@
       <c r="J578" s="11"/>
       <c r="K578" s="49"/>
     </row>
-    <row r="579" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="579" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A579" s="48" t="s">
         <v>82</v>
       </c>
@@ -16926,7 +16947,7 @@
       <c r="J579" s="11"/>
       <c r="K579" s="20"/>
     </row>
-    <row r="580" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="580" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A580" s="40">
         <v>44927</v>
       </c>
@@ -16947,10 +16968,10 @@
       <c r="I580" s="9"/>
       <c r="J580" s="11"/>
       <c r="K580" s="20" t="s">
-        <v>333</v>
-      </c>
-    </row>
-    <row r="581" spans="1:11" x14ac:dyDescent="0.25">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="581" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A581" s="40"/>
       <c r="B581" s="20" t="s">
         <v>102</v>
@@ -16970,7 +16991,7 @@
         <v>44951</v>
       </c>
     </row>
-    <row r="582" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="582" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A582" s="40">
         <v>44958</v>
       </c>
@@ -16996,7 +17017,7 @@
         <v>44940</v>
       </c>
     </row>
-    <row r="583" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="583" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A583" s="40">
         <v>44986</v>
       </c>
@@ -17019,10 +17040,10 @@
       <c r="I583" s="9"/>
       <c r="J583" s="11"/>
       <c r="K583" s="49" t="s">
-        <v>335</v>
-      </c>
-    </row>
-    <row r="584" spans="1:11" x14ac:dyDescent="0.25">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="584" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A584" s="40"/>
       <c r="B584" s="20" t="s">
         <v>43</v>
@@ -17044,7 +17065,7 @@
         <v>45013</v>
       </c>
     </row>
-    <row r="585" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="585" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A585" s="40">
         <v>45017</v>
       </c>
@@ -17067,10 +17088,10 @@
       <c r="I585" s="9"/>
       <c r="J585" s="11"/>
       <c r="K585" s="20" t="s">
-        <v>336</v>
-      </c>
-    </row>
-    <row r="586" spans="1:11" x14ac:dyDescent="0.25">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="586" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A586" s="40">
         <v>45047</v>
       </c>
@@ -17096,7 +17117,7 @@
         <v>45065</v>
       </c>
     </row>
-    <row r="587" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="587" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A587" s="40">
         <v>45078</v>
       </c>
@@ -17122,7 +17143,7 @@
         <v>45086</v>
       </c>
     </row>
-    <row r="588" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="588" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A588" s="40"/>
       <c r="B588" s="20" t="s">
         <v>43</v>
@@ -17144,7 +17165,7 @@
         <v>45096</v>
       </c>
     </row>
-    <row r="589" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="589" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A589" s="40">
         <v>45108</v>
       </c>
@@ -17170,7 +17191,7 @@
         <v>45128</v>
       </c>
     </row>
-    <row r="590" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="590" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A590" s="40">
         <v>45139</v>
       </c>
@@ -17196,20 +17217,22 @@
         <v>45142</v>
       </c>
     </row>
-    <row r="591" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="591" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A591" s="40">
         <v>45170</v>
       </c>
       <c r="B591" s="20" t="s">
         <v>43</v>
       </c>
-      <c r="C591" s="13"/>
+      <c r="C591" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D591" s="39"/>
       <c r="E591" s="9"/>
       <c r="F591" s="20"/>
-      <c r="G591" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G591" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H591" s="39">
         <v>1</v>
@@ -17220,9 +17243,11 @@
         <v>45177</v>
       </c>
     </row>
-    <row r="592" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="592" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A592" s="40"/>
-      <c r="B592" s="20"/>
+      <c r="B592" s="20" t="s">
+        <v>43</v>
+      </c>
       <c r="C592" s="13"/>
       <c r="D592" s="39"/>
       <c r="E592" s="9"/>
@@ -17231,48 +17256,76 @@
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v/>
       </c>
-      <c r="H592" s="39"/>
+      <c r="H592" s="39">
+        <v>1</v>
+      </c>
       <c r="I592" s="9"/>
       <c r="J592" s="11"/>
-      <c r="K592" s="49"/>
-    </row>
-    <row r="593" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A593" s="40"/>
-      <c r="B593" s="20"/>
-      <c r="C593" s="13"/>
+      <c r="K592" s="49">
+        <v>45198</v>
+      </c>
+    </row>
+    <row r="593" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A593" s="40">
+        <v>45200</v>
+      </c>
+      <c r="B593" s="20" t="s">
+        <v>43</v>
+      </c>
+      <c r="C593" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D593" s="39"/>
       <c r="E593" s="9"/>
       <c r="F593" s="20"/>
-      <c r="G593" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H593" s="39"/>
+      <c r="G593" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
+      </c>
+      <c r="H593" s="39">
+        <v>1</v>
+      </c>
       <c r="I593" s="9"/>
       <c r="J593" s="11"/>
-      <c r="K593" s="49"/>
-    </row>
-    <row r="594" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A594" s="40"/>
-      <c r="B594" s="20"/>
-      <c r="C594" s="13"/>
+      <c r="K593" s="49">
+        <v>45215</v>
+      </c>
+    </row>
+    <row r="594" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A594" s="40">
+        <v>45231</v>
+      </c>
+      <c r="B594" s="20" t="s">
+        <v>43</v>
+      </c>
+      <c r="C594" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D594" s="39"/>
       <c r="E594" s="9"/>
       <c r="F594" s="20"/>
-      <c r="G594" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H594" s="39"/>
+      <c r="G594" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
+      </c>
+      <c r="H594" s="39">
+        <v>1</v>
+      </c>
       <c r="I594" s="9"/>
       <c r="J594" s="11"/>
-      <c r="K594" s="20"/>
-    </row>
-    <row r="595" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="K594" s="49">
+        <v>45243</v>
+      </c>
+    </row>
+    <row r="595" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A595" s="40"/>
-      <c r="B595" s="20"/>
+      <c r="B595" s="20" t="s">
+        <v>55</v>
+      </c>
       <c r="C595" s="13"/>
-      <c r="D595" s="39"/>
+      <c r="D595" s="39">
+        <v>2</v>
+      </c>
       <c r="E595" s="9"/>
       <c r="F595" s="20"/>
       <c r="G595" s="13" t="str">
@@ -17282,11 +17335,15 @@
       <c r="H595" s="39"/>
       <c r="I595" s="9"/>
       <c r="J595" s="11"/>
-      <c r="K595" s="49"/>
-    </row>
-    <row r="596" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="K595" s="49" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="596" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A596" s="40"/>
-      <c r="B596" s="20"/>
+      <c r="B596" s="20" t="s">
+        <v>47</v>
+      </c>
       <c r="C596" s="13"/>
       <c r="D596" s="39"/>
       <c r="E596" s="9"/>
@@ -17295,16 +17352,26 @@
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v/>
       </c>
-      <c r="H596" s="39"/>
+      <c r="H596" s="39">
+        <v>2</v>
+      </c>
       <c r="I596" s="9"/>
       <c r="J596" s="11"/>
-      <c r="K596" s="20"/>
-    </row>
-    <row r="597" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A597" s="40"/>
-      <c r="B597" s="20"/>
+      <c r="K596" s="49" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="597" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A597" s="40">
+        <v>45261</v>
+      </c>
+      <c r="B597" s="20" t="s">
+        <v>55</v>
+      </c>
       <c r="C597" s="13"/>
-      <c r="D597" s="39"/>
+      <c r="D597" s="39">
+        <v>2</v>
+      </c>
       <c r="E597" s="9"/>
       <c r="F597" s="20"/>
       <c r="G597" s="13" t="str">
@@ -17314,61 +17381,85 @@
       <c r="H597" s="39"/>
       <c r="I597" s="9"/>
       <c r="J597" s="11"/>
-      <c r="K597" s="20"/>
-    </row>
-    <row r="598" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="K597" s="20" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="598" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A598" s="40"/>
-      <c r="B598" s="20"/>
+      <c r="B598" s="20" t="s">
+        <v>351</v>
+      </c>
       <c r="C598" s="13"/>
       <c r="D598" s="39"/>
       <c r="E598" s="9"/>
       <c r="F598" s="20"/>
-      <c r="G598" s="13"/>
+      <c r="G598" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
       <c r="H598" s="39"/>
       <c r="I598" s="9"/>
       <c r="J598" s="11"/>
-      <c r="K598" s="49"/>
-    </row>
-    <row r="599" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A599" s="40"/>
+      <c r="K598" s="20" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="599" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A599" s="40">
+        <v>45292</v>
+      </c>
       <c r="B599" s="20"/>
       <c r="C599" s="13"/>
       <c r="D599" s="39"/>
       <c r="E599" s="9"/>
       <c r="F599" s="20"/>
-      <c r="G599" s="13"/>
+      <c r="G599" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
       <c r="H599" s="39"/>
       <c r="I599" s="9"/>
       <c r="J599" s="11"/>
       <c r="K599" s="49"/>
     </row>
-    <row r="600" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A600" s="48"/>
+    <row r="600" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A600" s="40">
+        <v>45323</v>
+      </c>
       <c r="B600" s="20"/>
       <c r="C600" s="13"/>
       <c r="D600" s="39"/>
       <c r="E600" s="9"/>
       <c r="F600" s="20"/>
-      <c r="G600" s="13"/>
+      <c r="G600" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
       <c r="H600" s="39"/>
       <c r="I600" s="9"/>
       <c r="J600" s="11"/>
       <c r="K600" s="20"/>
     </row>
-    <row r="601" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A601" s="40"/>
+    <row r="601" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A601" s="40">
+        <v>45352</v>
+      </c>
       <c r="B601" s="20"/>
       <c r="C601" s="13"/>
       <c r="D601" s="39"/>
       <c r="E601" s="9"/>
       <c r="F601" s="20"/>
-      <c r="G601" s="13"/>
+      <c r="G601" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
       <c r="H601" s="39"/>
       <c r="I601" s="9"/>
       <c r="J601" s="11"/>
-      <c r="K601" s="49"/>
-    </row>
-    <row r="602" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="K601" s="20"/>
+    </row>
+    <row r="602" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A602" s="40"/>
       <c r="B602" s="20"/>
       <c r="C602" s="13"/>
@@ -17379,9 +17470,9 @@
       <c r="H602" s="39"/>
       <c r="I602" s="9"/>
       <c r="J602" s="11"/>
-      <c r="K602" s="20"/>
-    </row>
-    <row r="603" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="K602" s="49"/>
+    </row>
+    <row r="603" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A603" s="40"/>
       <c r="B603" s="20"/>
       <c r="C603" s="13"/>
@@ -17394,8 +17485,8 @@
       <c r="J603" s="11"/>
       <c r="K603" s="49"/>
     </row>
-    <row r="604" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A604" s="40"/>
+    <row r="604" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A604" s="48"/>
       <c r="B604" s="20"/>
       <c r="C604" s="13"/>
       <c r="D604" s="39"/>
@@ -17407,7 +17498,7 @@
       <c r="J604" s="11"/>
       <c r="K604" s="20"/>
     </row>
-    <row r="605" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="605" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A605" s="40"/>
       <c r="B605" s="20"/>
       <c r="C605" s="13"/>
@@ -17418,9 +17509,9 @@
       <c r="H605" s="39"/>
       <c r="I605" s="9"/>
       <c r="J605" s="11"/>
-      <c r="K605" s="20"/>
-    </row>
-    <row r="606" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="K605" s="49"/>
+    </row>
+    <row r="606" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A606" s="40"/>
       <c r="B606" s="20"/>
       <c r="C606" s="13"/>
@@ -17431,9 +17522,9 @@
       <c r="H606" s="39"/>
       <c r="I606" s="9"/>
       <c r="J606" s="11"/>
-      <c r="K606" s="49"/>
-    </row>
-    <row r="607" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="K606" s="20"/>
+    </row>
+    <row r="607" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A607" s="40"/>
       <c r="B607" s="20"/>
       <c r="C607" s="13"/>
@@ -17446,7 +17537,7 @@
       <c r="J607" s="11"/>
       <c r="K607" s="49"/>
     </row>
-    <row r="608" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="608" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A608" s="40"/>
       <c r="B608" s="20"/>
       <c r="C608" s="13"/>
@@ -17459,7 +17550,7 @@
       <c r="J608" s="11"/>
       <c r="K608" s="20"/>
     </row>
-    <row r="609" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="609" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A609" s="40"/>
       <c r="B609" s="20"/>
       <c r="C609" s="13"/>
@@ -17472,7 +17563,7 @@
       <c r="J609" s="11"/>
       <c r="K609" s="20"/>
     </row>
-    <row r="610" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="610" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A610" s="40"/>
       <c r="B610" s="20"/>
       <c r="C610" s="13"/>
@@ -17483,9 +17574,9 @@
       <c r="H610" s="39"/>
       <c r="I610" s="9"/>
       <c r="J610" s="11"/>
-      <c r="K610" s="20"/>
-    </row>
-    <row r="611" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="K610" s="49"/>
+    </row>
+    <row r="611" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A611" s="40"/>
       <c r="B611" s="20"/>
       <c r="C611" s="13"/>
@@ -17496,9 +17587,9 @@
       <c r="H611" s="39"/>
       <c r="I611" s="9"/>
       <c r="J611" s="11"/>
-      <c r="K611" s="20"/>
-    </row>
-    <row r="612" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="K611" s="49"/>
+    </row>
+    <row r="612" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A612" s="40"/>
       <c r="B612" s="20"/>
       <c r="C612" s="13"/>
@@ -17509,9 +17600,9 @@
       <c r="H612" s="39"/>
       <c r="I612" s="9"/>
       <c r="J612" s="11"/>
-      <c r="K612" s="49"/>
-    </row>
-    <row r="613" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="K612" s="20"/>
+    </row>
+    <row r="613" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A613" s="40"/>
       <c r="B613" s="20"/>
       <c r="C613" s="13"/>
@@ -17522,9 +17613,9 @@
       <c r="H613" s="39"/>
       <c r="I613" s="9"/>
       <c r="J613" s="11"/>
-      <c r="K613" s="49"/>
-    </row>
-    <row r="614" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="K613" s="20"/>
+    </row>
+    <row r="614" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A614" s="40"/>
       <c r="B614" s="20"/>
       <c r="C614" s="13"/>
@@ -17537,7 +17628,7 @@
       <c r="J614" s="11"/>
       <c r="K614" s="20"/>
     </row>
-    <row r="615" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="615" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A615" s="40"/>
       <c r="B615" s="20"/>
       <c r="C615" s="13"/>
@@ -17550,7 +17641,7 @@
       <c r="J615" s="11"/>
       <c r="K615" s="20"/>
     </row>
-    <row r="616" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="616" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A616" s="40"/>
       <c r="B616" s="20"/>
       <c r="C616" s="13"/>
@@ -17561,9 +17652,9 @@
       <c r="H616" s="39"/>
       <c r="I616" s="9"/>
       <c r="J616" s="11"/>
-      <c r="K616" s="20"/>
-    </row>
-    <row r="617" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="K616" s="49"/>
+    </row>
+    <row r="617" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A617" s="40"/>
       <c r="B617" s="20"/>
       <c r="C617" s="13"/>
@@ -17574,9 +17665,9 @@
       <c r="H617" s="39"/>
       <c r="I617" s="9"/>
       <c r="J617" s="11"/>
-      <c r="K617" s="20"/>
-    </row>
-    <row r="618" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="K617" s="49"/>
+    </row>
+    <row r="618" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A618" s="40"/>
       <c r="B618" s="20"/>
       <c r="C618" s="13"/>
@@ -17587,9 +17678,9 @@
       <c r="H618" s="39"/>
       <c r="I618" s="9"/>
       <c r="J618" s="11"/>
-      <c r="K618" s="49"/>
-    </row>
-    <row r="619" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="K618" s="20"/>
+    </row>
+    <row r="619" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A619" s="40"/>
       <c r="B619" s="20"/>
       <c r="C619" s="13"/>
@@ -17602,7 +17693,7 @@
       <c r="J619" s="11"/>
       <c r="K619" s="20"/>
     </row>
-    <row r="620" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="620" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A620" s="40"/>
       <c r="B620" s="20"/>
       <c r="C620" s="13"/>
@@ -17615,7 +17706,7 @@
       <c r="J620" s="11"/>
       <c r="K620" s="20"/>
     </row>
-    <row r="621" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="621" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A621" s="40"/>
       <c r="B621" s="20"/>
       <c r="C621" s="13"/>
@@ -17628,7 +17719,7 @@
       <c r="J621" s="11"/>
       <c r="K621" s="20"/>
     </row>
-    <row r="622" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="622" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A622" s="40"/>
       <c r="B622" s="20"/>
       <c r="C622" s="13"/>
@@ -17639,9 +17730,9 @@
       <c r="H622" s="39"/>
       <c r="I622" s="9"/>
       <c r="J622" s="11"/>
-      <c r="K622" s="20"/>
-    </row>
-    <row r="623" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="K622" s="49"/>
+    </row>
+    <row r="623" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A623" s="40"/>
       <c r="B623" s="20"/>
       <c r="C623" s="13"/>
@@ -17654,7 +17745,7 @@
       <c r="J623" s="11"/>
       <c r="K623" s="20"/>
     </row>
-    <row r="624" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="624" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A624" s="40"/>
       <c r="B624" s="20"/>
       <c r="C624" s="13"/>
@@ -17665,9 +17756,9 @@
       <c r="H624" s="39"/>
       <c r="I624" s="9"/>
       <c r="J624" s="11"/>
-      <c r="K624" s="49"/>
-    </row>
-    <row r="625" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="K624" s="20"/>
+    </row>
+    <row r="625" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A625" s="40"/>
       <c r="B625" s="20"/>
       <c r="C625" s="13"/>
@@ -17680,7 +17771,7 @@
       <c r="J625" s="11"/>
       <c r="K625" s="20"/>
     </row>
-    <row r="626" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="626" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A626" s="40"/>
       <c r="B626" s="20"/>
       <c r="C626" s="13"/>
@@ -17693,7 +17784,7 @@
       <c r="J626" s="11"/>
       <c r="K626" s="20"/>
     </row>
-    <row r="627" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="627" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A627" s="40"/>
       <c r="B627" s="20"/>
       <c r="C627" s="13"/>
@@ -17706,7 +17797,7 @@
       <c r="J627" s="11"/>
       <c r="K627" s="20"/>
     </row>
-    <row r="628" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="628" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A628" s="40"/>
       <c r="B628" s="20"/>
       <c r="C628" s="13"/>
@@ -17719,7 +17810,7 @@
       <c r="J628" s="11"/>
       <c r="K628" s="49"/>
     </row>
-    <row r="629" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="629" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A629" s="40"/>
       <c r="B629" s="20"/>
       <c r="C629" s="13"/>
@@ -17732,7 +17823,7 @@
       <c r="J629" s="11"/>
       <c r="K629" s="20"/>
     </row>
-    <row r="630" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="630" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A630" s="40"/>
       <c r="B630" s="20"/>
       <c r="C630" s="13"/>
@@ -17745,8 +17836,8 @@
       <c r="J630" s="11"/>
       <c r="K630" s="20"/>
     </row>
-    <row r="631" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A631" s="48"/>
+    <row r="631" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A631" s="40"/>
       <c r="B631" s="20"/>
       <c r="C631" s="13"/>
       <c r="D631" s="39"/>
@@ -17758,7 +17849,7 @@
       <c r="J631" s="11"/>
       <c r="K631" s="20"/>
     </row>
-    <row r="632" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="632" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A632" s="40"/>
       <c r="B632" s="20"/>
       <c r="C632" s="13"/>
@@ -17771,7 +17862,7 @@
       <c r="J632" s="11"/>
       <c r="K632" s="49"/>
     </row>
-    <row r="633" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="633" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A633" s="40"/>
       <c r="B633" s="20"/>
       <c r="C633" s="13"/>
@@ -17784,7 +17875,7 @@
       <c r="J633" s="11"/>
       <c r="K633" s="20"/>
     </row>
-    <row r="634" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="634" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A634" s="40"/>
       <c r="B634" s="20"/>
       <c r="C634" s="13"/>
@@ -17795,10 +17886,10 @@
       <c r="H634" s="39"/>
       <c r="I634" s="9"/>
       <c r="J634" s="11"/>
-      <c r="K634" s="49"/>
-    </row>
-    <row r="635" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A635" s="40"/>
+      <c r="K634" s="20"/>
+    </row>
+    <row r="635" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A635" s="48"/>
       <c r="B635" s="20"/>
       <c r="C635" s="13"/>
       <c r="D635" s="39"/>
@@ -17808,9 +17899,9 @@
       <c r="H635" s="39"/>
       <c r="I635" s="9"/>
       <c r="J635" s="11"/>
-      <c r="K635" s="49"/>
-    </row>
-    <row r="636" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="K635" s="20"/>
+    </row>
+    <row r="636" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A636" s="40"/>
       <c r="B636" s="20"/>
       <c r="C636" s="13"/>
@@ -17821,9 +17912,9 @@
       <c r="H636" s="39"/>
       <c r="I636" s="9"/>
       <c r="J636" s="11"/>
-      <c r="K636" s="20"/>
-    </row>
-    <row r="637" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="K636" s="49"/>
+    </row>
+    <row r="637" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A637" s="40"/>
       <c r="B637" s="20"/>
       <c r="C637" s="13"/>
@@ -17834,9 +17925,9 @@
       <c r="H637" s="39"/>
       <c r="I637" s="9"/>
       <c r="J637" s="11"/>
-      <c r="K637" s="49"/>
-    </row>
-    <row r="638" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="K637" s="20"/>
+    </row>
+    <row r="638" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A638" s="40"/>
       <c r="B638" s="20"/>
       <c r="C638" s="13"/>
@@ -17847,9 +17938,9 @@
       <c r="H638" s="39"/>
       <c r="I638" s="9"/>
       <c r="J638" s="11"/>
-      <c r="K638" s="20"/>
-    </row>
-    <row r="639" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="K638" s="49"/>
+    </row>
+    <row r="639" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A639" s="40"/>
       <c r="B639" s="20"/>
       <c r="C639" s="13"/>
@@ -17860,9 +17951,9 @@
       <c r="H639" s="39"/>
       <c r="I639" s="9"/>
       <c r="J639" s="11"/>
-      <c r="K639" s="20"/>
-    </row>
-    <row r="640" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="K639" s="49"/>
+    </row>
+    <row r="640" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A640" s="40"/>
       <c r="B640" s="20"/>
       <c r="C640" s="13"/>
@@ -17875,7 +17966,7 @@
       <c r="J640" s="11"/>
       <c r="K640" s="20"/>
     </row>
-    <row r="641" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="641" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A641" s="40"/>
       <c r="B641" s="20"/>
       <c r="C641" s="13"/>
@@ -17886,9 +17977,9 @@
       <c r="H641" s="39"/>
       <c r="I641" s="9"/>
       <c r="J641" s="11"/>
-      <c r="K641" s="20"/>
-    </row>
-    <row r="642" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="K641" s="49"/>
+    </row>
+    <row r="642" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A642" s="40"/>
       <c r="B642" s="20"/>
       <c r="C642" s="13"/>
@@ -17901,7 +17992,7 @@
       <c r="J642" s="11"/>
       <c r="K642" s="20"/>
     </row>
-    <row r="643" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="643" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A643" s="40"/>
       <c r="B643" s="20"/>
       <c r="C643" s="13"/>
@@ -17914,7 +18005,7 @@
       <c r="J643" s="11"/>
       <c r="K643" s="20"/>
     </row>
-    <row r="644" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="644" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A644" s="40"/>
       <c r="B644" s="20"/>
       <c r="C644" s="13"/>
@@ -17927,7 +18018,7 @@
       <c r="J644" s="11"/>
       <c r="K644" s="20"/>
     </row>
-    <row r="645" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="645" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A645" s="40"/>
       <c r="B645" s="20"/>
       <c r="C645" s="13"/>
@@ -17940,7 +18031,7 @@
       <c r="J645" s="11"/>
       <c r="K645" s="20"/>
     </row>
-    <row r="646" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="646" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A646" s="40"/>
       <c r="B646" s="20"/>
       <c r="C646" s="13"/>
@@ -17953,7 +18044,7 @@
       <c r="J646" s="11"/>
       <c r="K646" s="20"/>
     </row>
-    <row r="647" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="647" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A647" s="40"/>
       <c r="B647" s="20"/>
       <c r="C647" s="13"/>
@@ -17966,7 +18057,7 @@
       <c r="J647" s="11"/>
       <c r="K647" s="20"/>
     </row>
-    <row r="648" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="648" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A648" s="40"/>
       <c r="B648" s="20"/>
       <c r="C648" s="13"/>
@@ -17979,7 +18070,7 @@
       <c r="J648" s="11"/>
       <c r="K648" s="20"/>
     </row>
-    <row r="649" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="649" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A649" s="40"/>
       <c r="B649" s="20"/>
       <c r="C649" s="13"/>
@@ -17992,8 +18083,8 @@
       <c r="J649" s="11"/>
       <c r="K649" s="20"/>
     </row>
-    <row r="650" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A650" s="48"/>
+    <row r="650" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A650" s="40"/>
       <c r="B650" s="20"/>
       <c r="C650" s="13"/>
       <c r="D650" s="39"/>
@@ -18005,7 +18096,7 @@
       <c r="J650" s="11"/>
       <c r="K650" s="20"/>
     </row>
-    <row r="651" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="651" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A651" s="40"/>
       <c r="B651" s="20"/>
       <c r="C651" s="13"/>
@@ -18018,7 +18109,7 @@
       <c r="J651" s="11"/>
       <c r="K651" s="20"/>
     </row>
-    <row r="652" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="652" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A652" s="40"/>
       <c r="B652" s="20"/>
       <c r="C652" s="13"/>
@@ -18031,7 +18122,7 @@
       <c r="J652" s="11"/>
       <c r="K652" s="20"/>
     </row>
-    <row r="653" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="653" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A653" s="40"/>
       <c r="B653" s="20"/>
       <c r="C653" s="13"/>
@@ -18044,8 +18135,8 @@
       <c r="J653" s="11"/>
       <c r="K653" s="20"/>
     </row>
-    <row r="654" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A654" s="40"/>
+    <row r="654" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A654" s="48"/>
       <c r="B654" s="20"/>
       <c r="C654" s="13"/>
       <c r="D654" s="39"/>
@@ -18057,7 +18148,7 @@
       <c r="J654" s="11"/>
       <c r="K654" s="20"/>
     </row>
-    <row r="655" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="655" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A655" s="40"/>
       <c r="B655" s="20"/>
       <c r="C655" s="13"/>
@@ -18070,7 +18161,7 @@
       <c r="J655" s="11"/>
       <c r="K655" s="20"/>
     </row>
-    <row r="656" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="656" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A656" s="40"/>
       <c r="B656" s="20"/>
       <c r="C656" s="13"/>
@@ -18083,7 +18174,7 @@
       <c r="J656" s="11"/>
       <c r="K656" s="20"/>
     </row>
-    <row r="657" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="657" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A657" s="40"/>
       <c r="B657" s="20"/>
       <c r="C657" s="13"/>
@@ -18096,7 +18187,7 @@
       <c r="J657" s="11"/>
       <c r="K657" s="20"/>
     </row>
-    <row r="658" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="658" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A658" s="40"/>
       <c r="B658" s="20"/>
       <c r="C658" s="13"/>
@@ -18109,7 +18200,7 @@
       <c r="J658" s="11"/>
       <c r="K658" s="20"/>
     </row>
-    <row r="659" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="659" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A659" s="40"/>
       <c r="B659" s="20"/>
       <c r="C659" s="13"/>
@@ -18122,7 +18213,7 @@
       <c r="J659" s="11"/>
       <c r="K659" s="20"/>
     </row>
-    <row r="660" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="660" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A660" s="40"/>
       <c r="B660" s="20"/>
       <c r="C660" s="13"/>
@@ -18135,7 +18226,7 @@
       <c r="J660" s="11"/>
       <c r="K660" s="20"/>
     </row>
-    <row r="661" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="661" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A661" s="40"/>
       <c r="B661" s="20"/>
       <c r="C661" s="13"/>
@@ -18148,7 +18239,7 @@
       <c r="J661" s="11"/>
       <c r="K661" s="20"/>
     </row>
-    <row r="662" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="662" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A662" s="40"/>
       <c r="B662" s="20"/>
       <c r="C662" s="13"/>
@@ -18161,8 +18252,8 @@
       <c r="J662" s="11"/>
       <c r="K662" s="20"/>
     </row>
-    <row r="663" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A663" s="48"/>
+    <row r="663" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A663" s="40"/>
       <c r="B663" s="20"/>
       <c r="C663" s="13"/>
       <c r="D663" s="39"/>
@@ -18174,7 +18265,7 @@
       <c r="J663" s="11"/>
       <c r="K663" s="20"/>
     </row>
-    <row r="664" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="664" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A664" s="40"/>
       <c r="B664" s="20"/>
       <c r="C664" s="13"/>
@@ -18187,7 +18278,7 @@
       <c r="J664" s="11"/>
       <c r="K664" s="20"/>
     </row>
-    <row r="665" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="665" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A665" s="40"/>
       <c r="B665" s="20"/>
       <c r="C665" s="13"/>
@@ -18200,7 +18291,7 @@
       <c r="J665" s="11"/>
       <c r="K665" s="20"/>
     </row>
-    <row r="666" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="666" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A666" s="40"/>
       <c r="B666" s="20"/>
       <c r="C666" s="13"/>
@@ -18213,8 +18304,8 @@
       <c r="J666" s="11"/>
       <c r="K666" s="20"/>
     </row>
-    <row r="667" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A667" s="40"/>
+    <row r="667" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A667" s="48"/>
       <c r="B667" s="20"/>
       <c r="C667" s="13"/>
       <c r="D667" s="39"/>
@@ -18226,7 +18317,7 @@
       <c r="J667" s="11"/>
       <c r="K667" s="20"/>
     </row>
-    <row r="668" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="668" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A668" s="40"/>
       <c r="B668" s="20"/>
       <c r="C668" s="13"/>
@@ -18239,7 +18330,7 @@
       <c r="J668" s="11"/>
       <c r="K668" s="20"/>
     </row>
-    <row r="669" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="669" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A669" s="40"/>
       <c r="B669" s="20"/>
       <c r="C669" s="13"/>
@@ -18252,7 +18343,7 @@
       <c r="J669" s="11"/>
       <c r="K669" s="20"/>
     </row>
-    <row r="670" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="670" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A670" s="40"/>
       <c r="B670" s="20"/>
       <c r="C670" s="13"/>
@@ -18265,7 +18356,7 @@
       <c r="J670" s="11"/>
       <c r="K670" s="20"/>
     </row>
-    <row r="671" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="671" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A671" s="40"/>
       <c r="B671" s="20"/>
       <c r="C671" s="13"/>
@@ -18278,7 +18369,7 @@
       <c r="J671" s="11"/>
       <c r="K671" s="20"/>
     </row>
-    <row r="672" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="672" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A672" s="40"/>
       <c r="B672" s="20"/>
       <c r="C672" s="13"/>
@@ -18291,7 +18382,7 @@
       <c r="J672" s="11"/>
       <c r="K672" s="20"/>
     </row>
-    <row r="673" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="673" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A673" s="40"/>
       <c r="B673" s="20"/>
       <c r="C673" s="13"/>
@@ -18304,7 +18395,7 @@
       <c r="J673" s="11"/>
       <c r="K673" s="20"/>
     </row>
-    <row r="674" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="674" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A674" s="40"/>
       <c r="B674" s="20"/>
       <c r="C674" s="13"/>
@@ -18317,7 +18408,7 @@
       <c r="J674" s="11"/>
       <c r="K674" s="20"/>
     </row>
-    <row r="675" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="675" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A675" s="40"/>
       <c r="B675" s="20"/>
       <c r="C675" s="13"/>
@@ -18330,8 +18421,8 @@
       <c r="J675" s="11"/>
       <c r="K675" s="20"/>
     </row>
-    <row r="676" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A676" s="48"/>
+    <row r="676" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A676" s="40"/>
       <c r="B676" s="20"/>
       <c r="C676" s="13"/>
       <c r="D676" s="39"/>
@@ -18343,7 +18434,7 @@
       <c r="J676" s="11"/>
       <c r="K676" s="20"/>
     </row>
-    <row r="677" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="677" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A677" s="40"/>
       <c r="B677" s="20"/>
       <c r="C677" s="13"/>
@@ -18356,7 +18447,7 @@
       <c r="J677" s="11"/>
       <c r="K677" s="20"/>
     </row>
-    <row r="678" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="678" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A678" s="40"/>
       <c r="B678" s="20"/>
       <c r="C678" s="13"/>
@@ -18369,7 +18460,7 @@
       <c r="J678" s="11"/>
       <c r="K678" s="20"/>
     </row>
-    <row r="679" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="679" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A679" s="40"/>
       <c r="B679" s="20"/>
       <c r="C679" s="13"/>
@@ -18382,8 +18473,8 @@
       <c r="J679" s="11"/>
       <c r="K679" s="20"/>
     </row>
-    <row r="680" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A680" s="40"/>
+    <row r="680" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A680" s="48"/>
       <c r="B680" s="20"/>
       <c r="C680" s="13"/>
       <c r="D680" s="39"/>
@@ -18395,7 +18486,7 @@
       <c r="J680" s="11"/>
       <c r="K680" s="20"/>
     </row>
-    <row r="681" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="681" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A681" s="40"/>
       <c r="B681" s="20"/>
       <c r="C681" s="13"/>
@@ -18408,7 +18499,7 @@
       <c r="J681" s="11"/>
       <c r="K681" s="20"/>
     </row>
-    <row r="682" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="682" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A682" s="40"/>
       <c r="B682" s="20"/>
       <c r="C682" s="13"/>
@@ -18421,7 +18512,7 @@
       <c r="J682" s="11"/>
       <c r="K682" s="20"/>
     </row>
-    <row r="683" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="683" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A683" s="40"/>
       <c r="B683" s="20"/>
       <c r="C683" s="13"/>
@@ -18434,7 +18525,7 @@
       <c r="J683" s="11"/>
       <c r="K683" s="20"/>
     </row>
-    <row r="684" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="684" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A684" s="40"/>
       <c r="B684" s="20"/>
       <c r="C684" s="13"/>
@@ -18447,7 +18538,7 @@
       <c r="J684" s="11"/>
       <c r="K684" s="20"/>
     </row>
-    <row r="685" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="685" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A685" s="40"/>
       <c r="B685" s="20"/>
       <c r="C685" s="13"/>
@@ -18460,7 +18551,7 @@
       <c r="J685" s="11"/>
       <c r="K685" s="20"/>
     </row>
-    <row r="686" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="686" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A686" s="40"/>
       <c r="B686" s="20"/>
       <c r="C686" s="13"/>
@@ -18473,7 +18564,7 @@
       <c r="J686" s="11"/>
       <c r="K686" s="20"/>
     </row>
-    <row r="687" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="687" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A687" s="40"/>
       <c r="B687" s="20"/>
       <c r="C687" s="13"/>
@@ -18486,7 +18577,7 @@
       <c r="J687" s="11"/>
       <c r="K687" s="20"/>
     </row>
-    <row r="688" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="688" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A688" s="40"/>
       <c r="B688" s="20"/>
       <c r="C688" s="13"/>
@@ -18499,8 +18590,8 @@
       <c r="J688" s="11"/>
       <c r="K688" s="20"/>
     </row>
-    <row r="689" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A689" s="48"/>
+    <row r="689" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A689" s="40"/>
       <c r="B689" s="20"/>
       <c r="C689" s="13"/>
       <c r="D689" s="39"/>
@@ -18512,7 +18603,7 @@
       <c r="J689" s="11"/>
       <c r="K689" s="20"/>
     </row>
-    <row r="690" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="690" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A690" s="40"/>
       <c r="B690" s="20"/>
       <c r="C690" s="13"/>
@@ -18525,7 +18616,7 @@
       <c r="J690" s="11"/>
       <c r="K690" s="20"/>
     </row>
-    <row r="691" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="691" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A691" s="40"/>
       <c r="B691" s="20"/>
       <c r="C691" s="13"/>
@@ -18538,7 +18629,7 @@
       <c r="J691" s="11"/>
       <c r="K691" s="20"/>
     </row>
-    <row r="692" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="692" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A692" s="40"/>
       <c r="B692" s="20"/>
       <c r="C692" s="13"/>
@@ -18551,8 +18642,8 @@
       <c r="J692" s="11"/>
       <c r="K692" s="20"/>
     </row>
-    <row r="693" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A693" s="40"/>
+    <row r="693" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A693" s="48"/>
       <c r="B693" s="20"/>
       <c r="C693" s="13"/>
       <c r="D693" s="39"/>
@@ -18564,7 +18655,7 @@
       <c r="J693" s="11"/>
       <c r="K693" s="20"/>
     </row>
-    <row r="694" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="694" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A694" s="40"/>
       <c r="B694" s="20"/>
       <c r="C694" s="13"/>
@@ -18577,7 +18668,7 @@
       <c r="J694" s="11"/>
       <c r="K694" s="20"/>
     </row>
-    <row r="695" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="695" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A695" s="40"/>
       <c r="B695" s="20"/>
       <c r="C695" s="13"/>
@@ -18590,7 +18681,7 @@
       <c r="J695" s="11"/>
       <c r="K695" s="20"/>
     </row>
-    <row r="696" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="696" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A696" s="40"/>
       <c r="B696" s="20"/>
       <c r="C696" s="13"/>
@@ -18603,7 +18694,7 @@
       <c r="J696" s="11"/>
       <c r="K696" s="20"/>
     </row>
-    <row r="697" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="697" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A697" s="40"/>
       <c r="B697" s="20"/>
       <c r="C697" s="13"/>
@@ -18616,7 +18707,7 @@
       <c r="J697" s="11"/>
       <c r="K697" s="20"/>
     </row>
-    <row r="698" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="698" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A698" s="40"/>
       <c r="B698" s="20"/>
       <c r="C698" s="13"/>
@@ -18629,7 +18720,7 @@
       <c r="J698" s="11"/>
       <c r="K698" s="20"/>
     </row>
-    <row r="699" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="699" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A699" s="40"/>
       <c r="B699" s="20"/>
       <c r="C699" s="13"/>
@@ -18642,7 +18733,7 @@
       <c r="J699" s="11"/>
       <c r="K699" s="20"/>
     </row>
-    <row r="700" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="700" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A700" s="40"/>
       <c r="B700" s="20"/>
       <c r="C700" s="13"/>
@@ -18655,7 +18746,7 @@
       <c r="J700" s="11"/>
       <c r="K700" s="20"/>
     </row>
-    <row r="701" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="701" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A701" s="40"/>
       <c r="B701" s="20"/>
       <c r="C701" s="13"/>
@@ -18668,8 +18759,8 @@
       <c r="J701" s="11"/>
       <c r="K701" s="20"/>
     </row>
-    <row r="702" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A702" s="48"/>
+    <row r="702" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A702" s="40"/>
       <c r="B702" s="20"/>
       <c r="C702" s="13"/>
       <c r="D702" s="39"/>
@@ -18681,7 +18772,7 @@
       <c r="J702" s="11"/>
       <c r="K702" s="20"/>
     </row>
-    <row r="703" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="703" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A703" s="40"/>
       <c r="B703" s="20"/>
       <c r="C703" s="13"/>
@@ -18694,7 +18785,7 @@
       <c r="J703" s="11"/>
       <c r="K703" s="20"/>
     </row>
-    <row r="704" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="704" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A704" s="40"/>
       <c r="B704" s="20"/>
       <c r="C704" s="13"/>
@@ -18707,7 +18798,7 @@
       <c r="J704" s="11"/>
       <c r="K704" s="20"/>
     </row>
-    <row r="705" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="705" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A705" s="40"/>
       <c r="B705" s="20"/>
       <c r="C705" s="13"/>
@@ -18720,8 +18811,8 @@
       <c r="J705" s="11"/>
       <c r="K705" s="20"/>
     </row>
-    <row r="706" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A706" s="40"/>
+    <row r="706" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A706" s="48"/>
       <c r="B706" s="20"/>
       <c r="C706" s="13"/>
       <c r="D706" s="39"/>
@@ -18733,7 +18824,7 @@
       <c r="J706" s="11"/>
       <c r="K706" s="20"/>
     </row>
-    <row r="707" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="707" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A707" s="40"/>
       <c r="B707" s="20"/>
       <c r="C707" s="13"/>
@@ -18746,7 +18837,7 @@
       <c r="J707" s="11"/>
       <c r="K707" s="20"/>
     </row>
-    <row r="708" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="708" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A708" s="40"/>
       <c r="B708" s="20"/>
       <c r="C708" s="13"/>
@@ -18759,7 +18850,7 @@
       <c r="J708" s="11"/>
       <c r="K708" s="20"/>
     </row>
-    <row r="709" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="709" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A709" s="40"/>
       <c r="B709" s="20"/>
       <c r="C709" s="13"/>
@@ -18772,7 +18863,7 @@
       <c r="J709" s="11"/>
       <c r="K709" s="20"/>
     </row>
-    <row r="710" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="710" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A710" s="40"/>
       <c r="B710" s="20"/>
       <c r="C710" s="13"/>
@@ -18785,7 +18876,7 @@
       <c r="J710" s="11"/>
       <c r="K710" s="20"/>
     </row>
-    <row r="711" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="711" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A711" s="40"/>
       <c r="B711" s="20"/>
       <c r="C711" s="13"/>
@@ -18798,7 +18889,7 @@
       <c r="J711" s="11"/>
       <c r="K711" s="20"/>
     </row>
-    <row r="712" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="712" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A712" s="40"/>
       <c r="B712" s="20"/>
       <c r="C712" s="13"/>
@@ -18811,7 +18902,7 @@
       <c r="J712" s="11"/>
       <c r="K712" s="20"/>
     </row>
-    <row r="713" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="713" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A713" s="40"/>
       <c r="B713" s="20"/>
       <c r="C713" s="13"/>
@@ -18824,7 +18915,7 @@
       <c r="J713" s="11"/>
       <c r="K713" s="20"/>
     </row>
-    <row r="714" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="714" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A714" s="40"/>
       <c r="B714" s="20"/>
       <c r="C714" s="13"/>
@@ -18837,8 +18928,8 @@
       <c r="J714" s="11"/>
       <c r="K714" s="20"/>
     </row>
-    <row r="715" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A715" s="48"/>
+    <row r="715" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A715" s="40"/>
       <c r="B715" s="20"/>
       <c r="C715" s="13"/>
       <c r="D715" s="39"/>
@@ -18850,7 +18941,7 @@
       <c r="J715" s="11"/>
       <c r="K715" s="20"/>
     </row>
-    <row r="716" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="716" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A716" s="40"/>
       <c r="B716" s="20"/>
       <c r="C716" s="13"/>
@@ -18863,7 +18954,7 @@
       <c r="J716" s="11"/>
       <c r="K716" s="20"/>
     </row>
-    <row r="717" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="717" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A717" s="40"/>
       <c r="B717" s="20"/>
       <c r="C717" s="13"/>
@@ -18876,7 +18967,7 @@
       <c r="J717" s="11"/>
       <c r="K717" s="20"/>
     </row>
-    <row r="718" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="718" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A718" s="40"/>
       <c r="B718" s="20"/>
       <c r="C718" s="13"/>
@@ -18889,8 +18980,8 @@
       <c r="J718" s="11"/>
       <c r="K718" s="20"/>
     </row>
-    <row r="719" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A719" s="40"/>
+    <row r="719" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A719" s="48"/>
       <c r="B719" s="20"/>
       <c r="C719" s="13"/>
       <c r="D719" s="39"/>
@@ -18902,7 +18993,7 @@
       <c r="J719" s="11"/>
       <c r="K719" s="20"/>
     </row>
-    <row r="720" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="720" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A720" s="40"/>
       <c r="B720" s="20"/>
       <c r="C720" s="13"/>
@@ -18915,7 +19006,7 @@
       <c r="J720" s="11"/>
       <c r="K720" s="20"/>
     </row>
-    <row r="721" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="721" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A721" s="40"/>
       <c r="B721" s="20"/>
       <c r="C721" s="13"/>
@@ -18928,7 +19019,7 @@
       <c r="J721" s="11"/>
       <c r="K721" s="20"/>
     </row>
-    <row r="722" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="722" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A722" s="40"/>
       <c r="B722" s="20"/>
       <c r="C722" s="13"/>
@@ -18941,7 +19032,7 @@
       <c r="J722" s="11"/>
       <c r="K722" s="20"/>
     </row>
-    <row r="723" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="723" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A723" s="40"/>
       <c r="B723" s="20"/>
       <c r="C723" s="13"/>
@@ -18954,7 +19045,7 @@
       <c r="J723" s="11"/>
       <c r="K723" s="20"/>
     </row>
-    <row r="724" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="724" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A724" s="40"/>
       <c r="B724" s="20"/>
       <c r="C724" s="13"/>
@@ -18967,7 +19058,7 @@
       <c r="J724" s="11"/>
       <c r="K724" s="20"/>
     </row>
-    <row r="725" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="725" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A725" s="40"/>
       <c r="B725" s="20"/>
       <c r="C725" s="13"/>
@@ -18980,7 +19071,7 @@
       <c r="J725" s="11"/>
       <c r="K725" s="20"/>
     </row>
-    <row r="726" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="726" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A726" s="40"/>
       <c r="B726" s="20"/>
       <c r="C726" s="13"/>
@@ -18993,7 +19084,7 @@
       <c r="J726" s="11"/>
       <c r="K726" s="20"/>
     </row>
-    <row r="727" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="727" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A727" s="40"/>
       <c r="B727" s="20"/>
       <c r="C727" s="13"/>
@@ -19006,7 +19097,7 @@
       <c r="J727" s="11"/>
       <c r="K727" s="20"/>
     </row>
-    <row r="728" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="728" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A728" s="40"/>
       <c r="B728" s="20"/>
       <c r="C728" s="13"/>
@@ -19019,7 +19110,7 @@
       <c r="J728" s="11"/>
       <c r="K728" s="20"/>
     </row>
-    <row r="729" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="729" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A729" s="40"/>
       <c r="B729" s="20"/>
       <c r="C729" s="13"/>
@@ -19032,7 +19123,7 @@
       <c r="J729" s="11"/>
       <c r="K729" s="20"/>
     </row>
-    <row r="730" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="730" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A730" s="40"/>
       <c r="B730" s="20"/>
       <c r="C730" s="13"/>
@@ -19045,7 +19136,7 @@
       <c r="J730" s="11"/>
       <c r="K730" s="20"/>
     </row>
-    <row r="731" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="731" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A731" s="40"/>
       <c r="B731" s="20"/>
       <c r="C731" s="13"/>
@@ -19058,7 +19149,7 @@
       <c r="J731" s="11"/>
       <c r="K731" s="20"/>
     </row>
-    <row r="732" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="732" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A732" s="40"/>
       <c r="B732" s="20"/>
       <c r="C732" s="13"/>
@@ -19071,7 +19162,7 @@
       <c r="J732" s="11"/>
       <c r="K732" s="20"/>
     </row>
-    <row r="733" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="733" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A733" s="40"/>
       <c r="B733" s="20"/>
       <c r="C733" s="13"/>
@@ -19084,7 +19175,7 @@
       <c r="J733" s="11"/>
       <c r="K733" s="20"/>
     </row>
-    <row r="734" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="734" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A734" s="40"/>
       <c r="B734" s="20"/>
       <c r="C734" s="13"/>
@@ -19097,7 +19188,7 @@
       <c r="J734" s="11"/>
       <c r="K734" s="20"/>
     </row>
-    <row r="735" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="735" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A735" s="40"/>
       <c r="B735" s="20"/>
       <c r="C735" s="13"/>
@@ -19110,7 +19201,7 @@
       <c r="J735" s="11"/>
       <c r="K735" s="20"/>
     </row>
-    <row r="736" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="736" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A736" s="40"/>
       <c r="B736" s="20"/>
       <c r="C736" s="13"/>
@@ -19123,7 +19214,7 @@
       <c r="J736" s="11"/>
       <c r="K736" s="20"/>
     </row>
-    <row r="737" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="737" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A737" s="40"/>
       <c r="B737" s="20"/>
       <c r="C737" s="13"/>
@@ -19136,7 +19227,7 @@
       <c r="J737" s="11"/>
       <c r="K737" s="20"/>
     </row>
-    <row r="738" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="738" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A738" s="40"/>
       <c r="B738" s="20"/>
       <c r="C738" s="13"/>
@@ -19149,7 +19240,7 @@
       <c r="J738" s="11"/>
       <c r="K738" s="20"/>
     </row>
-    <row r="739" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="739" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A739" s="40"/>
       <c r="B739" s="20"/>
       <c r="C739" s="13"/>
@@ -19162,7 +19253,7 @@
       <c r="J739" s="11"/>
       <c r="K739" s="20"/>
     </row>
-    <row r="740" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="740" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A740" s="40"/>
       <c r="B740" s="20"/>
       <c r="C740" s="13"/>
@@ -19175,7 +19266,7 @@
       <c r="J740" s="11"/>
       <c r="K740" s="20"/>
     </row>
-    <row r="741" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="741" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A741" s="40"/>
       <c r="B741" s="20"/>
       <c r="C741" s="13"/>
@@ -19188,7 +19279,7 @@
       <c r="J741" s="11"/>
       <c r="K741" s="20"/>
     </row>
-    <row r="742" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="742" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A742" s="40"/>
       <c r="B742" s="20"/>
       <c r="C742" s="13"/>
@@ -19201,7 +19292,7 @@
       <c r="J742" s="11"/>
       <c r="K742" s="20"/>
     </row>
-    <row r="743" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="743" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A743" s="40"/>
       <c r="B743" s="20"/>
       <c r="C743" s="13"/>
@@ -19214,7 +19305,7 @@
       <c r="J743" s="11"/>
       <c r="K743" s="20"/>
     </row>
-    <row r="744" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="744" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A744" s="40"/>
       <c r="B744" s="20"/>
       <c r="C744" s="13"/>
@@ -19227,7 +19318,7 @@
       <c r="J744" s="11"/>
       <c r="K744" s="20"/>
     </row>
-    <row r="745" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="745" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A745" s="40"/>
       <c r="B745" s="20"/>
       <c r="C745" s="13"/>
@@ -19240,7 +19331,7 @@
       <c r="J745" s="11"/>
       <c r="K745" s="20"/>
     </row>
-    <row r="746" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="746" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A746" s="40"/>
       <c r="B746" s="20"/>
       <c r="C746" s="13"/>
@@ -19253,7 +19344,7 @@
       <c r="J746" s="11"/>
       <c r="K746" s="20"/>
     </row>
-    <row r="747" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="747" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A747" s="40"/>
       <c r="B747" s="20"/>
       <c r="C747" s="13"/>
@@ -19266,7 +19357,7 @@
       <c r="J747" s="11"/>
       <c r="K747" s="20"/>
     </row>
-    <row r="748" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="748" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A748" s="40"/>
       <c r="B748" s="20"/>
       <c r="C748" s="13"/>
@@ -19279,7 +19370,7 @@
       <c r="J748" s="11"/>
       <c r="K748" s="20"/>
     </row>
-    <row r="749" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="749" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A749" s="40"/>
       <c r="B749" s="20"/>
       <c r="C749" s="13"/>
@@ -19292,7 +19383,7 @@
       <c r="J749" s="11"/>
       <c r="K749" s="20"/>
     </row>
-    <row r="750" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="750" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A750" s="40"/>
       <c r="B750" s="20"/>
       <c r="C750" s="13"/>
@@ -19305,7 +19396,7 @@
       <c r="J750" s="11"/>
       <c r="K750" s="20"/>
     </row>
-    <row r="751" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="751" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A751" s="40"/>
       <c r="B751" s="20"/>
       <c r="C751" s="13"/>
@@ -19318,7 +19409,7 @@
       <c r="J751" s="11"/>
       <c r="K751" s="20"/>
     </row>
-    <row r="752" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="752" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A752" s="40"/>
       <c r="B752" s="20"/>
       <c r="C752" s="13"/>
@@ -19331,7 +19422,7 @@
       <c r="J752" s="11"/>
       <c r="K752" s="20"/>
     </row>
-    <row r="753" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="753" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A753" s="40"/>
       <c r="B753" s="20"/>
       <c r="C753" s="13"/>
@@ -19344,7 +19435,7 @@
       <c r="J753" s="11"/>
       <c r="K753" s="20"/>
     </row>
-    <row r="754" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="754" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A754" s="40"/>
       <c r="B754" s="20"/>
       <c r="C754" s="13"/>
@@ -19357,7 +19448,7 @@
       <c r="J754" s="11"/>
       <c r="K754" s="20"/>
     </row>
-    <row r="755" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="755" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A755" s="40"/>
       <c r="B755" s="20"/>
       <c r="C755" s="13"/>
@@ -19370,7 +19461,7 @@
       <c r="J755" s="11"/>
       <c r="K755" s="20"/>
     </row>
-    <row r="756" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="756" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A756" s="40"/>
       <c r="B756" s="20"/>
       <c r="C756" s="13"/>
@@ -19383,7 +19474,7 @@
       <c r="J756" s="11"/>
       <c r="K756" s="20"/>
     </row>
-    <row r="757" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="757" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A757" s="40"/>
       <c r="B757" s="20"/>
       <c r="C757" s="13"/>
@@ -19396,7 +19487,7 @@
       <c r="J757" s="11"/>
       <c r="K757" s="20"/>
     </row>
-    <row r="758" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="758" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A758" s="40"/>
       <c r="B758" s="20"/>
       <c r="C758" s="13"/>
@@ -19409,7 +19500,7 @@
       <c r="J758" s="11"/>
       <c r="K758" s="20"/>
     </row>
-    <row r="759" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="759" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A759" s="40"/>
       <c r="B759" s="20"/>
       <c r="C759" s="13"/>
@@ -19422,7 +19513,7 @@
       <c r="J759" s="11"/>
       <c r="K759" s="20"/>
     </row>
-    <row r="760" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="760" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A760" s="40"/>
       <c r="B760" s="20"/>
       <c r="C760" s="13"/>
@@ -19435,7 +19526,7 @@
       <c r="J760" s="11"/>
       <c r="K760" s="20"/>
     </row>
-    <row r="761" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="761" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A761" s="40"/>
       <c r="B761" s="20"/>
       <c r="C761" s="13"/>
@@ -19448,7 +19539,7 @@
       <c r="J761" s="11"/>
       <c r="K761" s="20"/>
     </row>
-    <row r="762" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="762" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A762" s="40"/>
       <c r="B762" s="20"/>
       <c r="C762" s="13"/>
@@ -19461,7 +19552,7 @@
       <c r="J762" s="11"/>
       <c r="K762" s="20"/>
     </row>
-    <row r="763" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="763" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A763" s="40"/>
       <c r="B763" s="20"/>
       <c r="C763" s="13"/>
@@ -19474,7 +19565,7 @@
       <c r="J763" s="11"/>
       <c r="K763" s="20"/>
     </row>
-    <row r="764" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="764" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A764" s="40"/>
       <c r="B764" s="20"/>
       <c r="C764" s="13"/>
@@ -19487,7 +19578,7 @@
       <c r="J764" s="11"/>
       <c r="K764" s="20"/>
     </row>
-    <row r="765" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="765" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A765" s="40"/>
       <c r="B765" s="20"/>
       <c r="C765" s="13"/>
@@ -19500,7 +19591,7 @@
       <c r="J765" s="11"/>
       <c r="K765" s="20"/>
     </row>
-    <row r="766" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="766" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A766" s="40"/>
       <c r="B766" s="20"/>
       <c r="C766" s="13"/>
@@ -19513,7 +19604,7 @@
       <c r="J766" s="11"/>
       <c r="K766" s="20"/>
     </row>
-    <row r="767" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="767" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A767" s="40"/>
       <c r="B767" s="20"/>
       <c r="C767" s="13"/>
@@ -19526,7 +19617,7 @@
       <c r="J767" s="11"/>
       <c r="K767" s="20"/>
     </row>
-    <row r="768" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="768" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A768" s="40"/>
       <c r="B768" s="20"/>
       <c r="C768" s="13"/>
@@ -19539,7 +19630,7 @@
       <c r="J768" s="11"/>
       <c r="K768" s="20"/>
     </row>
-    <row r="769" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="769" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A769" s="40"/>
       <c r="B769" s="20"/>
       <c r="C769" s="13"/>
@@ -19552,7 +19643,7 @@
       <c r="J769" s="11"/>
       <c r="K769" s="20"/>
     </row>
-    <row r="770" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="770" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A770" s="40"/>
       <c r="B770" s="20"/>
       <c r="C770" s="13"/>
@@ -19565,7 +19656,7 @@
       <c r="J770" s="11"/>
       <c r="K770" s="20"/>
     </row>
-    <row r="771" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="771" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A771" s="40"/>
       <c r="B771" s="20"/>
       <c r="C771" s="13"/>
@@ -19578,7 +19669,7 @@
       <c r="J771" s="11"/>
       <c r="K771" s="20"/>
     </row>
-    <row r="772" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="772" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A772" s="40"/>
       <c r="B772" s="20"/>
       <c r="C772" s="13"/>
@@ -19591,7 +19682,7 @@
       <c r="J772" s="11"/>
       <c r="K772" s="20"/>
     </row>
-    <row r="773" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="773" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A773" s="40"/>
       <c r="B773" s="20"/>
       <c r="C773" s="13"/>
@@ -19604,71 +19695,59 @@
       <c r="J773" s="11"/>
       <c r="K773" s="20"/>
     </row>
-    <row r="774" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="774" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A774" s="40"/>
       <c r="B774" s="20"/>
       <c r="C774" s="13"/>
       <c r="D774" s="39"/>
       <c r="E774" s="9"/>
       <c r="F774" s="20"/>
-      <c r="G774" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
+      <c r="G774" s="13"/>
       <c r="H774" s="39"/>
       <c r="I774" s="9"/>
       <c r="J774" s="11"/>
       <c r="K774" s="20"/>
     </row>
-    <row r="775" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="775" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A775" s="40"/>
       <c r="B775" s="20"/>
       <c r="C775" s="13"/>
       <c r="D775" s="39"/>
       <c r="E775" s="9"/>
       <c r="F775" s="20"/>
-      <c r="G775" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
+      <c r="G775" s="13"/>
       <c r="H775" s="39"/>
       <c r="I775" s="9"/>
       <c r="J775" s="11"/>
       <c r="K775" s="20"/>
     </row>
-    <row r="776" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="776" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A776" s="40"/>
       <c r="B776" s="20"/>
       <c r="C776" s="13"/>
       <c r="D776" s="39"/>
       <c r="E776" s="9"/>
       <c r="F776" s="20"/>
-      <c r="G776" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
+      <c r="G776" s="13"/>
       <c r="H776" s="39"/>
       <c r="I776" s="9"/>
       <c r="J776" s="11"/>
       <c r="K776" s="20"/>
     </row>
-    <row r="777" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="777" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A777" s="40"/>
       <c r="B777" s="20"/>
       <c r="C777" s="13"/>
       <c r="D777" s="39"/>
       <c r="E777" s="9"/>
       <c r="F777" s="20"/>
-      <c r="G777" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
+      <c r="G777" s="13"/>
       <c r="H777" s="39"/>
       <c r="I777" s="9"/>
       <c r="J777" s="11"/>
       <c r="K777" s="20"/>
     </row>
-    <row r="778" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="778" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A778" s="40"/>
       <c r="B778" s="20"/>
       <c r="C778" s="13"/>
@@ -19684,7 +19763,7 @@
       <c r="J778" s="11"/>
       <c r="K778" s="20"/>
     </row>
-    <row r="779" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="779" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A779" s="40"/>
       <c r="B779" s="20"/>
       <c r="C779" s="13"/>
@@ -19700,7 +19779,7 @@
       <c r="J779" s="11"/>
       <c r="K779" s="20"/>
     </row>
-    <row r="780" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="780" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A780" s="40"/>
       <c r="B780" s="20"/>
       <c r="C780" s="13"/>
@@ -19716,7 +19795,7 @@
       <c r="J780" s="11"/>
       <c r="K780" s="20"/>
     </row>
-    <row r="781" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="781" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A781" s="40"/>
       <c r="B781" s="20"/>
       <c r="C781" s="13"/>
@@ -19732,7 +19811,7 @@
       <c r="J781" s="11"/>
       <c r="K781" s="20"/>
     </row>
-    <row r="782" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="782" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A782" s="40"/>
       <c r="B782" s="20"/>
       <c r="C782" s="13"/>
@@ -19748,21 +19827,85 @@
       <c r="J782" s="11"/>
       <c r="K782" s="20"/>
     </row>
-    <row r="783" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A783" s="41"/>
-      <c r="B783" s="15"/>
-      <c r="C783" s="42"/>
-      <c r="D783" s="43"/>
-      <c r="E783" s="51"/>
-      <c r="F783" s="15"/>
-      <c r="G783" s="42" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H783" s="43"/>
-      <c r="I783" s="51"/>
-      <c r="J783" s="12"/>
-      <c r="K783" s="15"/>
+    <row r="783" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A783" s="40"/>
+      <c r="B783" s="20"/>
+      <c r="C783" s="13"/>
+      <c r="D783" s="39"/>
+      <c r="E783" s="9"/>
+      <c r="F783" s="20"/>
+      <c r="G783" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H783" s="39"/>
+      <c r="I783" s="9"/>
+      <c r="J783" s="11"/>
+      <c r="K783" s="20"/>
+    </row>
+    <row r="784" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A784" s="40"/>
+      <c r="B784" s="20"/>
+      <c r="C784" s="13"/>
+      <c r="D784" s="39"/>
+      <c r="E784" s="9"/>
+      <c r="F784" s="20"/>
+      <c r="G784" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H784" s="39"/>
+      <c r="I784" s="9"/>
+      <c r="J784" s="11"/>
+      <c r="K784" s="20"/>
+    </row>
+    <row r="785" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A785" s="40"/>
+      <c r="B785" s="20"/>
+      <c r="C785" s="13"/>
+      <c r="D785" s="39"/>
+      <c r="E785" s="9"/>
+      <c r="F785" s="20"/>
+      <c r="G785" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H785" s="39"/>
+      <c r="I785" s="9"/>
+      <c r="J785" s="11"/>
+      <c r="K785" s="20"/>
+    </row>
+    <row r="786" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A786" s="40"/>
+      <c r="B786" s="20"/>
+      <c r="C786" s="13"/>
+      <c r="D786" s="39"/>
+      <c r="E786" s="9"/>
+      <c r="F786" s="20"/>
+      <c r="G786" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H786" s="39"/>
+      <c r="I786" s="9"/>
+      <c r="J786" s="11"/>
+      <c r="K786" s="20"/>
+    </row>
+    <row r="787" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A787" s="41"/>
+      <c r="B787" s="15"/>
+      <c r="C787" s="42"/>
+      <c r="D787" s="43"/>
+      <c r="E787" s="51"/>
+      <c r="F787" s="15"/>
+      <c r="G787" s="42" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H787" s="43"/>
+      <c r="I787" s="51"/>
+      <c r="J787" s="12"/>
+      <c r="K787" s="15"/>
     </row>
   </sheetData>
   <mergeCells count="11">
@@ -19779,10 +19922,10 @@
     <mergeCell ref="F4:G4"/>
   </mergeCells>
   <dataValidations disablePrompts="1" count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:G2">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:G2" xr:uid="{00000000-0002-0000-0100-000000000000}">
       <formula1>"1 - Married (and not separated), 2 - Widowed (including living common law), 3 - Separated (including living common law), 4 - Divorced (including living common law), 5 - Single (including living common law)"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:C4">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:C4" xr:uid="{00000000-0002-0000-0100-000001000000}">
       <formula1>"PERMANENT, CO-TERMINUS, CASUAL, JOBCON"</formula1>
     </dataValidation>
   </dataValidations>
@@ -19805,7 +19948,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <sheetPr codeName="Sheet3"/>
   <dimension ref="A1:L67"/>
   <sheetViews>
@@ -19813,21 +19956,21 @@
       <selection activeCell="G3" sqref="G3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="21.28515625" customWidth="1"/>
-    <col min="2" max="2" width="20.7109375" customWidth="1"/>
-    <col min="4" max="4" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="26.140625" customWidth="1"/>
-    <col min="9" max="9" width="16.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="15.28515625" customWidth="1"/>
-    <col min="11" max="11" width="14.85546875" style="37" hidden="1" customWidth="1"/>
-    <col min="12" max="12" width="15.5703125" customWidth="1"/>
+    <col min="1" max="1" width="21.33203125" customWidth="1"/>
+    <col min="2" max="2" width="20.6640625" customWidth="1"/>
+    <col min="4" max="4" width="15.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="26.109375" customWidth="1"/>
+    <col min="9" max="9" width="16.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="15.33203125" customWidth="1"/>
+    <col min="11" max="11" width="14.88671875" style="37" hidden="1" customWidth="1"/>
+    <col min="12" max="12" width="15.5546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="D1" s="63" t="s">
         <v>32</v>
       </c>
@@ -19840,7 +19983,7 @@
       <c r="K1" s="64"/>
       <c r="L1" s="64"/>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A2" s="32" t="s">
         <v>24</v>
       </c>
@@ -19869,7 +20012,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A3" s="11">
         <v>39.622999999999998</v>
       </c>
@@ -19897,17 +20040,17 @@
         <v>---</v>
       </c>
     </row>
-    <row r="4" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="G4" s="33"/>
       <c r="J4" s="1" t="str">
         <f>IF(TEXT(J3,"D")=1,1,TEXT(J3,"D"))</f>
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
       <c r="J5" s="1"/>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C6" s="38" t="s">
         <v>28</v>
       </c>
@@ -19928,7 +20071,7 @@
       <c r="K6" s="64"/>
       <c r="L6" s="64"/>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C7" s="37">
         <v>1</v>
       </c>
@@ -19955,7 +20098,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C8" s="37">
         <v>2</v>
       </c>
@@ -19981,7 +20124,7 @@
         <v>4.2000000000000003E-2</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C9" s="37">
         <v>3</v>
       </c>
@@ -20007,7 +20150,7 @@
         <v>8.3000000000000004E-2</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C10" s="37">
         <v>4</v>
       </c>
@@ -20033,7 +20176,7 @@
         <v>0.125</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C11" s="37">
         <v>5</v>
       </c>
@@ -20059,7 +20202,7 @@
         <v>0.16700000000000001</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C12" s="37">
         <v>6</v>
       </c>
@@ -20085,7 +20228,7 @@
         <v>0.20800000000000002</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C13" s="37">
         <v>7</v>
       </c>
@@ -20111,7 +20254,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C14" s="37">
         <v>8</v>
       </c>
@@ -20137,7 +20280,7 @@
         <v>0.29199999999999998</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C15" s="37">
         <v>9</v>
       </c>
@@ -20157,7 +20300,7 @@
         <v>0.33299999999999996</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C16" s="37">
         <v>10</v>
       </c>
@@ -20177,7 +20320,7 @@
         <v>0.37499999999999994</v>
       </c>
     </row>
-    <row r="17" spans="3:12" x14ac:dyDescent="0.25">
+    <row r="17" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C17" s="37">
         <v>11</v>
       </c>
@@ -20197,7 +20340,7 @@
         <v>0.41699999999999993</v>
       </c>
     </row>
-    <row r="18" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C18" s="37">
         <v>12</v>
       </c>
@@ -20218,7 +20361,7 @@
         <v>0.45799999999999991</v>
       </c>
     </row>
-    <row r="19" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C19" s="37">
         <v>13</v>
       </c>
@@ -20239,7 +20382,7 @@
         <v>0.49999999999999989</v>
       </c>
     </row>
-    <row r="20" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C20" s="37">
         <v>14</v>
       </c>
@@ -20260,7 +20403,7 @@
         <v>0.54199999999999993</v>
       </c>
     </row>
-    <row r="21" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C21" s="37">
         <v>15</v>
       </c>
@@ -20281,7 +20424,7 @@
         <v>0.58299999999999996</v>
       </c>
     </row>
-    <row r="22" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C22" s="37">
         <v>16</v>
       </c>
@@ -20302,7 +20445,7 @@
         <v>0.625</v>
       </c>
     </row>
-    <row r="23" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C23" s="37">
         <v>17</v>
       </c>
@@ -20323,7 +20466,7 @@
         <v>0.66700000000000004</v>
       </c>
     </row>
-    <row r="24" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C24" s="37">
         <v>18</v>
       </c>
@@ -20344,7 +20487,7 @@
         <v>0.70800000000000007</v>
       </c>
     </row>
-    <row r="25" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C25" s="37">
         <v>19</v>
       </c>
@@ -20365,7 +20508,7 @@
         <v>0.75000000000000011</v>
       </c>
     </row>
-    <row r="26" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C26" s="37">
         <v>20</v>
       </c>
@@ -20386,7 +20529,7 @@
         <v>0.79200000000000015</v>
       </c>
     </row>
-    <row r="27" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C27" s="37">
         <v>21</v>
       </c>
@@ -20407,7 +20550,7 @@
         <v>0.83300000000000018</v>
       </c>
     </row>
-    <row r="28" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C28" s="37">
         <v>22</v>
       </c>
@@ -20428,7 +20571,7 @@
         <v>0.87500000000000022</v>
       </c>
     </row>
-    <row r="29" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C29" s="37">
         <v>23</v>
       </c>
@@ -20449,7 +20592,7 @@
         <v>0.91700000000000026</v>
       </c>
     </row>
-    <row r="30" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C30" s="37">
         <v>24</v>
       </c>
@@ -20470,7 +20613,7 @@
         <v>0.9580000000000003</v>
       </c>
     </row>
-    <row r="31" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C31" s="37">
         <v>25</v>
       </c>
@@ -20491,7 +20634,7 @@
         <v>1.0000000000000002</v>
       </c>
     </row>
-    <row r="32" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C32" s="37">
         <v>26</v>
       </c>
@@ -20512,7 +20655,7 @@
         <v>1.0420000000000003</v>
       </c>
     </row>
-    <row r="33" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C33" s="37">
         <v>27</v>
       </c>
@@ -20533,7 +20676,7 @@
         <v>1.0830000000000002</v>
       </c>
     </row>
-    <row r="34" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C34" s="37">
         <v>28</v>
       </c>
@@ -20554,7 +20697,7 @@
         <v>1.1250000000000002</v>
       </c>
     </row>
-    <row r="35" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C35" s="37">
         <v>29</v>
       </c>
@@ -20575,7 +20718,7 @@
         <v>1.1670000000000003</v>
       </c>
     </row>
-    <row r="36" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C36" s="37">
         <v>30</v>
       </c>
@@ -20596,7 +20739,7 @@
         <v>1.2080000000000002</v>
       </c>
     </row>
-    <row r="37" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C37" s="37">
         <v>31</v>
       </c>
@@ -20617,7 +20760,7 @@
         <v>1.2500000000000002</v>
       </c>
     </row>
-    <row r="38" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C38" s="37">
         <v>32</v>
       </c>
@@ -20626,7 +20769,7 @@
       </c>
       <c r="G38"/>
     </row>
-    <row r="39" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C39" s="37">
         <v>33</v>
       </c>
@@ -20635,7 +20778,7 @@
       </c>
       <c r="G39"/>
     </row>
-    <row r="40" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C40" s="37">
         <v>34</v>
       </c>
@@ -20644,7 +20787,7 @@
       </c>
       <c r="G40"/>
     </row>
-    <row r="41" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C41" s="37">
         <v>35</v>
       </c>
@@ -20653,7 +20796,7 @@
       </c>
       <c r="G41"/>
     </row>
-    <row r="42" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C42" s="37">
         <v>36</v>
       </c>
@@ -20662,7 +20805,7 @@
       </c>
       <c r="G42"/>
     </row>
-    <row r="43" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C43" s="37">
         <v>37</v>
       </c>
@@ -20671,7 +20814,7 @@
       </c>
       <c r="G43"/>
     </row>
-    <row r="44" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C44" s="37">
         <v>38</v>
       </c>
@@ -20680,7 +20823,7 @@
       </c>
       <c r="G44"/>
     </row>
-    <row r="45" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C45" s="37">
         <v>39</v>
       </c>
@@ -20689,7 +20832,7 @@
       </c>
       <c r="G45"/>
     </row>
-    <row r="46" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C46" s="37">
         <v>40</v>
       </c>
@@ -20698,7 +20841,7 @@
       </c>
       <c r="G46"/>
     </row>
-    <row r="47" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C47" s="37">
         <v>41</v>
       </c>
@@ -20707,7 +20850,7 @@
       </c>
       <c r="G47"/>
     </row>
-    <row r="48" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C48" s="37">
         <v>42</v>
       </c>
@@ -20716,7 +20859,7 @@
       </c>
       <c r="G48"/>
     </row>
-    <row r="49" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C49" s="37">
         <v>43</v>
       </c>
@@ -20725,7 +20868,7 @@
       </c>
       <c r="G49"/>
     </row>
-    <row r="50" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C50" s="37">
         <v>44</v>
       </c>
@@ -20734,7 +20877,7 @@
       </c>
       <c r="G50"/>
     </row>
-    <row r="51" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C51" s="37">
         <v>45</v>
       </c>
@@ -20743,7 +20886,7 @@
       </c>
       <c r="G51"/>
     </row>
-    <row r="52" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C52" s="37">
         <v>46</v>
       </c>
@@ -20752,7 +20895,7 @@
       </c>
       <c r="G52"/>
     </row>
-    <row r="53" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C53" s="37">
         <v>47</v>
       </c>
@@ -20761,7 +20904,7 @@
       </c>
       <c r="G53"/>
     </row>
-    <row r="54" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C54" s="37">
         <v>48</v>
       </c>
@@ -20770,7 +20913,7 @@
       </c>
       <c r="G54"/>
     </row>
-    <row r="55" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="55" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C55" s="37">
         <v>49</v>
       </c>
@@ -20779,7 +20922,7 @@
       </c>
       <c r="G55"/>
     </row>
-    <row r="56" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="56" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C56" s="37">
         <v>50</v>
       </c>
@@ -20788,7 +20931,7 @@
       </c>
       <c r="G56"/>
     </row>
-    <row r="57" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="57" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C57" s="37">
         <v>51</v>
       </c>
@@ -20797,7 +20940,7 @@
       </c>
       <c r="G57"/>
     </row>
-    <row r="58" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="58" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C58" s="37">
         <v>52</v>
       </c>
@@ -20806,7 +20949,7 @@
       </c>
       <c r="G58"/>
     </row>
-    <row r="59" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="59" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C59" s="37">
         <v>53</v>
       </c>
@@ -20815,7 +20958,7 @@
       </c>
       <c r="G59"/>
     </row>
-    <row r="60" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="60" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C60" s="37">
         <v>54</v>
       </c>
@@ -20824,7 +20967,7 @@
       </c>
       <c r="G60"/>
     </row>
-    <row r="61" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="61" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C61" s="37">
         <v>55</v>
       </c>
@@ -20833,7 +20976,7 @@
       </c>
       <c r="G61"/>
     </row>
-    <row r="62" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="62" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C62" s="37">
         <v>56</v>
       </c>
@@ -20842,7 +20985,7 @@
       </c>
       <c r="G62"/>
     </row>
-    <row r="63" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="63" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C63" s="37">
         <v>57</v>
       </c>
@@ -20851,7 +20994,7 @@
       </c>
       <c r="G63"/>
     </row>
-    <row r="64" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="64" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C64" s="37">
         <v>58</v>
       </c>
@@ -20860,7 +21003,7 @@
       </c>
       <c r="G64"/>
     </row>
-    <row r="65" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="65" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C65" s="37">
         <v>59</v>
       </c>
@@ -20869,7 +21012,7 @@
       </c>
       <c r="G65"/>
     </row>
-    <row r="66" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="66" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C66" s="37">
         <v>60</v>
       </c>
@@ -20878,7 +21021,7 @@
       </c>
       <c r="G66"/>
     </row>
-    <row r="67" spans="3:12" x14ac:dyDescent="0.25">
+    <row r="67" spans="3:12" x14ac:dyDescent="0.3">
       <c r="J67" s="1"/>
       <c r="K67" s="1"/>
       <c r="L67" s="1"/>
